--- a/tests/testthat/testdata_SII.xlsx
+++ b/tests/testthat/testdata_SII.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="41">
   <si>
     <t>RecordNo</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>warning handling - large number of quantiles (&gt;10)</t>
+  </si>
+  <si>
+    <t>error handling - missing value field</t>
+  </si>
+  <si>
+    <t>proportion - testing multiplier (x -100)</t>
   </si>
 </sst>
 </file>
@@ -310,7 +316,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -490,6 +496,9 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma 2" xfId="2"/>
@@ -798,13 +807,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U196"/>
+  <dimension ref="A1:U226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="R130" sqref="R130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6747,16 +6756,16 @@
         <v>-10.217980621454609</v>
       </c>
       <c r="S112" s="7">
-        <f t="shared" ref="S112:U112" si="3">S92*100</f>
-        <v>53.34015306465507</v>
+        <f>S92</f>
+        <v>0.53340153064655071</v>
       </c>
       <c r="T112" s="7">
-        <f t="shared" si="3"/>
-        <v>51.712731963580183</v>
+        <f t="shared" ref="T112:U112" si="3">T92</f>
+        <v>0.51712731963580183</v>
       </c>
       <c r="U112" s="7">
         <f t="shared" si="3"/>
-        <v>55.015384129130041</v>
+        <v>0.55015384129130041</v>
       </c>
     </row>
     <row r="113" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7287,7 +7296,7 @@
         <v>-5.81854710713103</v>
       </c>
       <c r="Q122" s="12">
-        <f t="shared" ref="Q122:U122" si="4">Q102*100</f>
+        <f t="shared" ref="Q122:R122" si="4">Q102*100</f>
         <v>-6.216629570885849</v>
       </c>
       <c r="R122" s="12">
@@ -7295,16 +7304,16 @@
         <v>-5.4174547731294345</v>
       </c>
       <c r="S122" s="12">
-        <f t="shared" si="4"/>
-        <v>54.701284615554343</v>
+        <f>S102</f>
+        <v>0.54701284615554346</v>
       </c>
       <c r="T122" s="12">
-        <f t="shared" si="4"/>
-        <v>52.371450740074543</v>
+        <f t="shared" ref="T122:U122" si="5">T102</f>
+        <v>0.52371450740074543</v>
       </c>
       <c r="U122" s="12">
-        <f t="shared" si="4"/>
-        <v>57.146170435376916</v>
+        <f t="shared" si="5"/>
+        <v>0.5714617043537692</v>
       </c>
     </row>
     <row r="123" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7784,65 +7793,83 @@
       <c r="T131" s="26"/>
       <c r="U131" s="26"/>
     </row>
-    <row r="132" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="33">
+    <row r="132" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="7">
         <v>131</v>
       </c>
-      <c r="B132" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C132" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D132" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E132" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F132" s="40">
+      <c r="B132" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F132" s="7">
         <v>1</v>
       </c>
-      <c r="G132" s="41">
+      <c r="G132" s="9">
         <v>34353</v>
       </c>
-      <c r="H132" s="41">
+      <c r="H132" s="9">
         <v>7287</v>
       </c>
-      <c r="I132" s="42">
+      <c r="I132" s="10">
         <v>0.21212121212121202</v>
       </c>
-      <c r="J132" s="40">
-        <v>0</v>
-      </c>
-      <c r="K132" s="42">
+      <c r="J132" s="7">
+        <v>2</v>
+      </c>
+      <c r="K132" s="10">
         <v>0.20783049922555499</v>
       </c>
-      <c r="L132" s="42">
+      <c r="L132" s="10">
         <v>0.21647630081289901</v>
       </c>
-      <c r="M132" s="43">
+      <c r="M132" s="11">
         <v>1.3197018471840493E-2</v>
       </c>
-      <c r="N132" s="40">
-        <v>95</v>
-      </c>
-      <c r="O132" s="40">
-        <v>100000</v>
-      </c>
-      <c r="P132" s="40"/>
-      <c r="Q132" s="40"/>
-      <c r="R132" s="40"/>
-      <c r="S132" s="40"/>
-      <c r="T132" s="40"/>
-      <c r="U132" s="40"/>
-    </row>
-    <row r="133" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N132" s="33">
+        <v>95</v>
+      </c>
+      <c r="O132" s="7">
+        <v>100000</v>
+      </c>
+      <c r="P132" s="7">
+        <f>-1*P112</f>
+        <v>10.720032333730494</v>
+      </c>
+      <c r="Q132" s="7">
+        <f>-1*R112</f>
+        <v>10.217980621454609</v>
+      </c>
+      <c r="R132" s="7">
+        <f>-1*Q112</f>
+        <v>11.220857220984691</v>
+      </c>
+      <c r="S132" s="7">
+        <f>1/S112</f>
+        <v>1.8747602744744141</v>
+      </c>
+      <c r="T132" s="7">
+        <f>1/U112</f>
+        <v>1.8176733941416052</v>
+      </c>
+      <c r="U132" s="7">
+        <f>1/T112</f>
+        <v>1.9337597570831719</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="7">
         <v>132</v>
       </c>
-      <c r="B133" s="39" t="s">
-        <v>32</v>
+      <c r="B133" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>22</v>
@@ -7853,49 +7880,49 @@
       <c r="E133" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F133" s="20">
+      <c r="F133" s="7">
         <v>2</v>
       </c>
-      <c r="G133" s="45">
-        <v>-200</v>
-      </c>
-      <c r="H133" s="22">
+      <c r="G133" s="9">
+        <v>32112</v>
+      </c>
+      <c r="H133" s="9">
         <v>6881</v>
       </c>
-      <c r="I133" s="23">
+      <c r="I133" s="10">
         <v>0.214281265570503</v>
       </c>
-      <c r="J133" s="40">
-        <v>0</v>
-      </c>
-      <c r="K133" s="23">
+      <c r="J133" s="7">
+        <v>2</v>
+      </c>
+      <c r="K133" s="10">
         <v>0.209827711465288</v>
       </c>
-      <c r="L133" s="23">
+      <c r="L133" s="10">
         <v>0.218803170788612</v>
       </c>
-      <c r="M133" s="24">
+      <c r="M133" s="11">
         <v>1.3599402535469379E-2</v>
       </c>
-      <c r="N133" s="20">
-        <v>95</v>
-      </c>
-      <c r="O133" s="20">
-        <v>100000</v>
-      </c>
-      <c r="P133" s="20"/>
-      <c r="Q133" s="20"/>
-      <c r="R133" s="20"/>
-      <c r="S133" s="20"/>
-      <c r="T133" s="20"/>
-      <c r="U133" s="20"/>
-    </row>
-    <row r="134" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N133" s="7">
+        <v>95</v>
+      </c>
+      <c r="O133" s="7">
+        <v>100000</v>
+      </c>
+      <c r="P133" s="7"/>
+      <c r="Q133" s="7"/>
+      <c r="R133" s="7"/>
+      <c r="S133" s="7"/>
+      <c r="T133" s="7"/>
+      <c r="U133" s="7"/>
+    </row>
+    <row r="134" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="7">
         <v>133</v>
       </c>
-      <c r="B134" s="39" t="s">
-        <v>32</v>
+      <c r="B134" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>22</v>
@@ -7906,49 +7933,49 @@
       <c r="E134" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F134" s="20">
+      <c r="F134" s="7">
         <v>3</v>
       </c>
-      <c r="G134" s="22">
+      <c r="G134" s="9">
         <v>27715</v>
       </c>
-      <c r="H134" s="22">
+      <c r="H134" s="9">
         <v>5656</v>
       </c>
-      <c r="I134" s="23">
+      <c r="I134" s="10">
         <v>0.204077214504781</v>
       </c>
-      <c r="J134" s="40">
-        <v>0</v>
-      </c>
-      <c r="K134" s="23">
+      <c r="J134" s="7">
+        <v>2</v>
+      </c>
+      <c r="K134" s="10">
         <v>0.19937351725899902</v>
       </c>
-      <c r="L134" s="23">
+      <c r="L134" s="10">
         <v>0.208862933590925</v>
       </c>
-      <c r="M134" s="24">
+      <c r="M134" s="11">
         <v>1.4903436058054755E-2</v>
       </c>
-      <c r="N134" s="20">
-        <v>95</v>
-      </c>
-      <c r="O134" s="20">
-        <v>100000</v>
-      </c>
-      <c r="P134" s="20"/>
-      <c r="Q134" s="20"/>
-      <c r="R134" s="20"/>
-      <c r="S134" s="20"/>
-      <c r="T134" s="20"/>
-      <c r="U134" s="20"/>
-    </row>
-    <row r="135" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N134" s="7">
+        <v>95</v>
+      </c>
+      <c r="O134" s="7">
+        <v>100000</v>
+      </c>
+      <c r="P134" s="7"/>
+      <c r="Q134" s="7"/>
+      <c r="R134" s="7"/>
+      <c r="S134" s="7"/>
+      <c r="T134" s="7"/>
+      <c r="U134" s="7"/>
+    </row>
+    <row r="135" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="7">
         <v>134</v>
       </c>
-      <c r="B135" s="39" t="s">
-        <v>32</v>
+      <c r="B135" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>22</v>
@@ -7959,49 +7986,49 @@
       <c r="E135" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F135" s="20">
+      <c r="F135" s="7">
         <v>4</v>
       </c>
-      <c r="G135" s="22">
+      <c r="G135" s="9">
         <v>25372</v>
       </c>
-      <c r="H135" s="22">
+      <c r="H135" s="9">
         <v>4868</v>
       </c>
-      <c r="I135" s="23">
+      <c r="I135" s="10">
         <v>0.19186504808450303</v>
       </c>
-      <c r="J135" s="40">
-        <v>0</v>
-      </c>
-      <c r="K135" s="23">
+      <c r="J135" s="7">
+        <v>2</v>
+      </c>
+      <c r="K135" s="10">
         <v>0.187066648694241</v>
       </c>
-      <c r="L135" s="23">
+      <c r="L135" s="10">
         <v>0.19675673996564999</v>
       </c>
-      <c r="M135" s="24">
+      <c r="M135" s="11">
         <v>1.5942525582502205E-2</v>
       </c>
-      <c r="N135" s="20">
-        <v>95</v>
-      </c>
-      <c r="O135" s="20">
-        <v>100000</v>
-      </c>
-      <c r="P135" s="20"/>
-      <c r="Q135" s="20"/>
-      <c r="R135" s="20"/>
-      <c r="S135" s="20"/>
-      <c r="T135" s="20"/>
-      <c r="U135" s="20"/>
-    </row>
-    <row r="136" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N135" s="7">
+        <v>95</v>
+      </c>
+      <c r="O135" s="7">
+        <v>100000</v>
+      </c>
+      <c r="P135" s="7"/>
+      <c r="Q135" s="7"/>
+      <c r="R135" s="7"/>
+      <c r="S135" s="7"/>
+      <c r="T135" s="7"/>
+      <c r="U135" s="7"/>
+    </row>
+    <row r="136" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="7">
         <v>135</v>
       </c>
-      <c r="B136" s="39" t="s">
-        <v>32</v>
+      <c r="B136" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>22</v>
@@ -8012,49 +8039,49 @@
       <c r="E136" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F136" s="20">
+      <c r="F136" s="7">
         <v>5</v>
       </c>
-      <c r="G136" s="22">
+      <c r="G136" s="9">
         <v>23889</v>
       </c>
-      <c r="H136" s="22">
+      <c r="H136" s="9">
         <v>4176</v>
       </c>
-      <c r="I136" s="23">
+      <c r="I136" s="10">
         <v>0.17480848926284101</v>
       </c>
-      <c r="J136" s="40">
-        <v>0</v>
-      </c>
-      <c r="K136" s="23">
+      <c r="J136" s="7">
+        <v>2</v>
+      </c>
+      <c r="K136" s="10">
         <v>0.17004464070303801</v>
       </c>
-      <c r="L136" s="23">
+      <c r="L136" s="10">
         <v>0.17967690552753499</v>
       </c>
-      <c r="M136" s="24">
+      <c r="M136" s="11">
         <v>1.7033905269793169E-2</v>
       </c>
-      <c r="N136" s="20">
-        <v>95</v>
-      </c>
-      <c r="O136" s="20">
-        <v>100000</v>
-      </c>
-      <c r="P136" s="20"/>
-      <c r="Q136" s="20"/>
-      <c r="R136" s="20"/>
-      <c r="S136" s="20"/>
-      <c r="T136" s="20"/>
-      <c r="U136" s="20"/>
-    </row>
-    <row r="137" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N136" s="7">
+        <v>95</v>
+      </c>
+      <c r="O136" s="7">
+        <v>100000</v>
+      </c>
+      <c r="P136" s="7"/>
+      <c r="Q136" s="7"/>
+      <c r="R136" s="7"/>
+      <c r="S136" s="7"/>
+      <c r="T136" s="7"/>
+      <c r="U136" s="7"/>
+    </row>
+    <row r="137" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="7">
         <v>136</v>
       </c>
-      <c r="B137" s="39" t="s">
-        <v>32</v>
+      <c r="B137" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>22</v>
@@ -8065,49 +8092,49 @@
       <c r="E137" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F137" s="20">
+      <c r="F137" s="7">
         <v>6</v>
       </c>
-      <c r="G137" s="22">
+      <c r="G137" s="9">
         <v>23260</v>
       </c>
-      <c r="H137" s="22">
+      <c r="H137" s="9">
         <v>3876</v>
       </c>
-      <c r="I137" s="23">
+      <c r="I137" s="10">
         <v>0.16663800515907098</v>
       </c>
-      <c r="J137" s="40">
-        <v>0</v>
-      </c>
-      <c r="K137" s="23">
+      <c r="J137" s="7">
+        <v>2</v>
+      </c>
+      <c r="K137" s="10">
         <v>0.16190410576997</v>
       </c>
-      <c r="L137" s="23">
+      <c r="L137" s="10">
         <v>0.17148199783416998</v>
       </c>
-      <c r="M137" s="24">
+      <c r="M137" s="11">
         <v>1.7593885815626962E-2</v>
       </c>
-      <c r="N137" s="20">
-        <v>95</v>
-      </c>
-      <c r="O137" s="20">
-        <v>100000</v>
-      </c>
-      <c r="P137" s="20"/>
-      <c r="Q137" s="20"/>
-      <c r="R137" s="20"/>
-      <c r="S137" s="20"/>
-      <c r="T137" s="20"/>
-      <c r="U137" s="20"/>
-    </row>
-    <row r="138" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N137" s="7">
+        <v>95</v>
+      </c>
+      <c r="O137" s="7">
+        <v>100000</v>
+      </c>
+      <c r="P137" s="7"/>
+      <c r="Q137" s="7"/>
+      <c r="R137" s="7"/>
+      <c r="S137" s="7"/>
+      <c r="T137" s="7"/>
+      <c r="U137" s="7"/>
+    </row>
+    <row r="138" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="7">
         <v>137</v>
       </c>
-      <c r="B138" s="39" t="s">
-        <v>32</v>
+      <c r="B138" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>22</v>
@@ -8118,49 +8145,49 @@
       <c r="E138" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F138" s="20">
+      <c r="F138" s="7">
         <v>7</v>
       </c>
-      <c r="G138" s="22">
+      <c r="G138" s="9">
         <v>23180</v>
       </c>
-      <c r="H138" s="22">
+      <c r="H138" s="9">
         <v>3617</v>
       </c>
-      <c r="I138" s="23">
+      <c r="I138" s="10">
         <v>0.15603968938740301</v>
       </c>
-      <c r="J138" s="40">
-        <v>0</v>
-      </c>
-      <c r="K138" s="23">
+      <c r="J138" s="7">
+        <v>2</v>
+      </c>
+      <c r="K138" s="10">
         <v>0.15142507546851799</v>
       </c>
-      <c r="L138" s="23">
+      <c r="L138" s="10">
         <v>0.16076828867592699</v>
       </c>
-      <c r="M138" s="24">
+      <c r="M138" s="11">
         <v>1.8098141690297317E-2</v>
       </c>
-      <c r="N138" s="20">
-        <v>95</v>
-      </c>
-      <c r="O138" s="20">
-        <v>100000</v>
-      </c>
-      <c r="P138" s="20"/>
-      <c r="Q138" s="20"/>
-      <c r="R138" s="20"/>
-      <c r="S138" s="20"/>
-      <c r="T138" s="20"/>
-      <c r="U138" s="20"/>
-    </row>
-    <row r="139" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N138" s="7">
+        <v>95</v>
+      </c>
+      <c r="O138" s="7">
+        <v>100000</v>
+      </c>
+      <c r="P138" s="7"/>
+      <c r="Q138" s="7"/>
+      <c r="R138" s="7"/>
+      <c r="S138" s="7"/>
+      <c r="T138" s="7"/>
+      <c r="U138" s="7"/>
+    </row>
+    <row r="139" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="7">
         <v>138</v>
       </c>
-      <c r="B139" s="39" t="s">
-        <v>32</v>
+      <c r="B139" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>22</v>
@@ -8171,49 +8198,49 @@
       <c r="E139" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F139" s="20">
+      <c r="F139" s="7">
         <v>8</v>
       </c>
-      <c r="G139" s="22">
+      <c r="G139" s="9">
         <v>24193</v>
       </c>
-      <c r="H139" s="22">
-        <v>3314</v>
-      </c>
-      <c r="I139" s="23">
+      <c r="H139" s="9">
+        <v>3546</v>
+      </c>
+      <c r="I139" s="10">
         <v>0.14657132228330499</v>
       </c>
-      <c r="J139" s="40">
-        <v>0</v>
-      </c>
-      <c r="K139" s="23">
+      <c r="J139" s="7">
+        <v>2</v>
+      </c>
+      <c r="K139" s="10">
         <v>0.142170753783533</v>
       </c>
-      <c r="L139" s="23">
+      <c r="L139" s="10">
         <v>0.15108411052992399</v>
       </c>
-      <c r="M139" s="24">
+      <c r="M139" s="11">
         <v>1.8176743057472546E-2</v>
       </c>
-      <c r="N139" s="20">
-        <v>95</v>
-      </c>
-      <c r="O139" s="20">
-        <v>100000</v>
-      </c>
-      <c r="P139" s="20"/>
-      <c r="Q139" s="20"/>
-      <c r="R139" s="20"/>
-      <c r="S139" s="20"/>
-      <c r="T139" s="20"/>
-      <c r="U139" s="20"/>
-    </row>
-    <row r="140" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N139" s="7">
+        <v>95</v>
+      </c>
+      <c r="O139" s="7">
+        <v>100000</v>
+      </c>
+      <c r="P139" s="7"/>
+      <c r="Q139" s="7"/>
+      <c r="R139" s="7"/>
+      <c r="S139" s="7"/>
+      <c r="T139" s="7"/>
+      <c r="U139" s="7"/>
+    </row>
+    <row r="140" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="7">
         <v>139</v>
       </c>
-      <c r="B140" s="39" t="s">
-        <v>32</v>
+      <c r="B140" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>22</v>
@@ -8224,632 +8251,650 @@
       <c r="E140" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F140" s="20">
+      <c r="F140" s="7">
         <v>9</v>
       </c>
-      <c r="G140" s="22">
+      <c r="G140" s="9">
         <v>23609</v>
       </c>
-      <c r="H140" s="22">
+      <c r="H140" s="9">
         <v>3314</v>
       </c>
-      <c r="I140" s="23">
+      <c r="I140" s="10">
         <v>0.140370197805921</v>
       </c>
-      <c r="J140" s="40">
-        <v>0</v>
-      </c>
-      <c r="K140" s="23">
+      <c r="J140" s="7">
+        <v>2</v>
+      </c>
+      <c r="K140" s="10">
         <v>0.13599767093637602</v>
       </c>
-      <c r="L140" s="23">
+      <c r="L140" s="10">
         <v>0.144859737537153</v>
       </c>
-      <c r="M140" s="24">
+      <c r="M140" s="11">
         <v>1.873422095544007E-2</v>
       </c>
-      <c r="N140" s="20">
-        <v>95</v>
-      </c>
-      <c r="O140" s="20">
-        <v>100000</v>
-      </c>
-      <c r="P140" s="20"/>
-      <c r="Q140" s="20"/>
-      <c r="R140" s="20"/>
-      <c r="S140" s="20"/>
-      <c r="T140" s="20"/>
-      <c r="U140" s="20"/>
-    </row>
-    <row r="141" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="46">
+      <c r="N140" s="7">
+        <v>95</v>
+      </c>
+      <c r="O140" s="7">
+        <v>100000</v>
+      </c>
+      <c r="P140" s="7"/>
+      <c r="Q140" s="7"/>
+      <c r="R140" s="7"/>
+      <c r="S140" s="7"/>
+      <c r="T140" s="7"/>
+      <c r="U140" s="7"/>
+    </row>
+    <row r="141" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="7">
         <v>140</v>
       </c>
-      <c r="B141" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C141" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="D141" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="E141" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="F141" s="49">
+      <c r="B141" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F141" s="7">
         <v>10</v>
       </c>
-      <c r="G141" s="50">
+      <c r="G141" s="9">
         <v>24488</v>
       </c>
-      <c r="H141" s="50">
+      <c r="H141" s="9">
         <v>2960</v>
       </c>
-      <c r="I141" s="51">
+      <c r="I141" s="10">
         <v>0.12087553087226401</v>
       </c>
-      <c r="J141" s="52">
-        <v>0</v>
-      </c>
-      <c r="K141" s="51">
+      <c r="J141" s="7">
+        <v>2</v>
+      </c>
+      <c r="K141" s="10">
         <v>0.11685200990738201</v>
       </c>
-      <c r="L141" s="51">
+      <c r="L141" s="10">
         <v>0.12501798050476101</v>
       </c>
-      <c r="M141" s="53">
+      <c r="M141" s="11">
         <v>1.9601724030759937E-2</v>
       </c>
-      <c r="N141" s="49">
-        <v>95</v>
-      </c>
-      <c r="O141" s="49">
-        <v>100000</v>
-      </c>
-      <c r="P141" s="49"/>
-      <c r="Q141" s="49"/>
-      <c r="R141" s="49"/>
-      <c r="S141" s="49"/>
-      <c r="T141" s="49"/>
-      <c r="U141" s="49"/>
-    </row>
-    <row r="142" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="33">
+      <c r="N141" s="7">
+        <v>95</v>
+      </c>
+      <c r="O141" s="7">
+        <v>100000</v>
+      </c>
+      <c r="P141" s="7"/>
+      <c r="Q141" s="7"/>
+      <c r="R141" s="7"/>
+      <c r="S141" s="7"/>
+      <c r="T141" s="7"/>
+      <c r="U141" s="7"/>
+    </row>
+    <row r="142" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="12">
         <v>141</v>
       </c>
-      <c r="B142" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C142" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D142" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E142" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F142" s="40">
+      <c r="B142" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D142" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E142" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F142" s="12">
         <v>1</v>
       </c>
-      <c r="G142" s="41">
-        <v>34353</v>
-      </c>
-      <c r="H142" s="41">
-        <v>7287</v>
-      </c>
-      <c r="I142" s="42">
+      <c r="G142" s="15">
+        <v>36111</v>
+      </c>
+      <c r="H142" s="15">
+        <v>4362</v>
+      </c>
+      <c r="I142" s="16">
         <v>0.12079421782836301</v>
       </c>
-      <c r="J142" s="40">
-        <v>0</v>
-      </c>
-      <c r="K142" s="42">
+      <c r="J142" s="12">
+        <v>2</v>
+      </c>
+      <c r="K142" s="16">
         <v>0.117473271937339</v>
       </c>
-      <c r="L142" s="42">
+      <c r="L142" s="16">
         <v>0.12419583434331499</v>
       </c>
-      <c r="M142" s="43">
+      <c r="M142" s="17">
         <v>1.6146775138005474E-2</v>
       </c>
-      <c r="N142" s="40">
-        <v>95</v>
-      </c>
-      <c r="O142" s="40">
-        <v>100000</v>
-      </c>
-      <c r="P142" s="40"/>
-      <c r="Q142" s="40"/>
-      <c r="R142" s="40"/>
-      <c r="S142" s="40"/>
-      <c r="T142" s="40"/>
-      <c r="U142" s="40"/>
-    </row>
-    <row r="143" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="7">
+      <c r="N142" s="12">
+        <v>95</v>
+      </c>
+      <c r="O142" s="12">
+        <v>100000</v>
+      </c>
+      <c r="P142" s="12">
+        <f>-1*P122</f>
+        <v>5.81854710713103</v>
+      </c>
+      <c r="Q142" s="12">
+        <f>-1*R122</f>
+        <v>5.4174547731294345</v>
+      </c>
+      <c r="R142" s="12">
+        <f>-1*Q122</f>
+        <v>6.216629570885849</v>
+      </c>
+      <c r="S142" s="12">
+        <f>1/S122</f>
+        <v>1.8281106321873277</v>
+      </c>
+      <c r="T142" s="12">
+        <f>1/U122</f>
+        <v>1.7498985362997128</v>
+      </c>
+      <c r="U142" s="12">
+        <f>1/T122</f>
+        <v>1.909437271392602</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="12">
         <v>142</v>
       </c>
-      <c r="B143" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E143" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F143" s="20">
+      <c r="B143" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D143" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F143" s="12">
         <v>2</v>
       </c>
-      <c r="G143" s="22">
-        <v>32112</v>
-      </c>
-      <c r="H143" s="22">
-        <v>6881</v>
-      </c>
-      <c r="I143" s="23">
+      <c r="G143" s="15">
+        <v>31803</v>
+      </c>
+      <c r="H143" s="15">
+        <v>3734</v>
+      </c>
+      <c r="I143" s="16">
         <v>0.117410307203723</v>
       </c>
-      <c r="J143" s="40">
-        <v>0</v>
-      </c>
-      <c r="K143" s="23">
+      <c r="J143" s="12">
+        <v>2</v>
+      </c>
+      <c r="K143" s="16">
         <v>0.11391851782536101</v>
       </c>
-      <c r="L143" s="23">
+      <c r="L143" s="16">
         <v>0.12099451082271299</v>
       </c>
-      <c r="M143" s="24">
+      <c r="M143" s="17">
         <v>1.7418243061058977E-2</v>
       </c>
-      <c r="N143" s="20">
-        <v>95</v>
-      </c>
-      <c r="O143" s="20">
-        <v>100000</v>
-      </c>
-      <c r="P143" s="20"/>
-      <c r="Q143" s="20"/>
-      <c r="R143" s="20"/>
-      <c r="S143" s="20"/>
-      <c r="T143" s="20"/>
-      <c r="U143" s="20"/>
-    </row>
-    <row r="144" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="7">
+      <c r="N143" s="12">
+        <v>95</v>
+      </c>
+      <c r="O143" s="12">
+        <v>100000</v>
+      </c>
+      <c r="P143" s="12"/>
+      <c r="Q143" s="12"/>
+      <c r="R143" s="12"/>
+      <c r="S143" s="12"/>
+      <c r="T143" s="12"/>
+      <c r="U143" s="12"/>
+    </row>
+    <row r="144" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="12">
         <v>143</v>
       </c>
-      <c r="B144" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E144" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F144" s="20">
+      <c r="B144" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D144" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E144" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F144" s="12">
         <v>3</v>
       </c>
-      <c r="G144" s="22">
-        <v>27715</v>
-      </c>
-      <c r="H144" s="22">
-        <v>5656</v>
-      </c>
-      <c r="I144" s="23">
+      <c r="G144" s="15">
+        <v>26681</v>
+      </c>
+      <c r="H144" s="15">
+        <v>3032</v>
+      </c>
+      <c r="I144" s="16">
         <v>0.11363891908099401</v>
       </c>
-      <c r="J144" s="40">
-        <v>0</v>
-      </c>
-      <c r="K144" s="23">
+      <c r="J144" s="12">
+        <v>2</v>
+      </c>
+      <c r="K144" s="16">
         <v>0.109886239767609</v>
       </c>
-      <c r="L144" s="23">
+      <c r="L144" s="16">
         <v>0.11750283684296101</v>
       </c>
-      <c r="M144" s="54">
-        <v>-5</v>
-      </c>
-      <c r="N144" s="20">
-        <v>95</v>
-      </c>
-      <c r="O144" s="20">
-        <v>100000</v>
-      </c>
-      <c r="P144" s="20"/>
-      <c r="Q144" s="20"/>
-      <c r="R144" s="20"/>
-      <c r="S144" s="20"/>
-      <c r="T144" s="20"/>
-      <c r="U144" s="20"/>
-    </row>
-    <row r="145" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="7">
+      <c r="M144" s="17">
+        <v>1.9288400690570365E-2</v>
+      </c>
+      <c r="N144" s="12">
+        <v>95</v>
+      </c>
+      <c r="O144" s="12">
+        <v>100000</v>
+      </c>
+      <c r="P144" s="12"/>
+      <c r="Q144" s="12"/>
+      <c r="R144" s="12"/>
+      <c r="S144" s="12"/>
+      <c r="T144" s="12"/>
+      <c r="U144" s="12"/>
+    </row>
+    <row r="145" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="12">
         <v>144</v>
       </c>
-      <c r="B145" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F145" s="20">
+      <c r="B145" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D145" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F145" s="12">
         <v>4</v>
       </c>
-      <c r="G145" s="22">
-        <v>25372</v>
-      </c>
-      <c r="H145" s="22">
-        <v>4868</v>
-      </c>
-      <c r="I145" s="23">
+      <c r="G145" s="15">
+        <v>24184</v>
+      </c>
+      <c r="H145" s="15">
+        <v>2561</v>
+      </c>
+      <c r="I145" s="16">
         <v>0.105896460469732</v>
       </c>
-      <c r="J145" s="40">
-        <v>0</v>
-      </c>
-      <c r="K145" s="23">
+      <c r="J145" s="12">
+        <v>2</v>
+      </c>
+      <c r="K145" s="16">
         <v>0.102080757108839</v>
       </c>
-      <c r="L145" s="23">
+      <c r="L145" s="16">
         <v>0.10983734511402099</v>
       </c>
-      <c r="M145" s="24">
+      <c r="M145" s="17">
         <v>2.0895990883188453E-2</v>
       </c>
-      <c r="N145" s="20">
-        <v>95</v>
-      </c>
-      <c r="O145" s="20">
-        <v>100000</v>
-      </c>
-      <c r="P145" s="20"/>
-      <c r="Q145" s="20"/>
-      <c r="R145" s="20"/>
-      <c r="S145" s="20"/>
-      <c r="T145" s="20"/>
-      <c r="U145" s="20"/>
-    </row>
-    <row r="146" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="7">
+      <c r="N145" s="12">
+        <v>95</v>
+      </c>
+      <c r="O145" s="12">
+        <v>100000</v>
+      </c>
+      <c r="P145" s="12"/>
+      <c r="Q145" s="12"/>
+      <c r="R145" s="12"/>
+      <c r="S145" s="12"/>
+      <c r="T145" s="12"/>
+      <c r="U145" s="12"/>
+    </row>
+    <row r="146" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="12">
         <v>145</v>
       </c>
-      <c r="B146" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F146" s="20">
+      <c r="B146" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D146" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F146" s="12">
         <v>5</v>
       </c>
-      <c r="G146" s="22">
-        <v>23889</v>
-      </c>
-      <c r="H146" s="22">
-        <v>4176</v>
-      </c>
-      <c r="I146" s="23">
+      <c r="G146" s="15">
+        <v>23023</v>
+      </c>
+      <c r="H146" s="15">
+        <v>2304</v>
+      </c>
+      <c r="I146" s="16">
         <v>0.10007383920427401</v>
       </c>
-      <c r="J146" s="40">
-        <v>0</v>
-      </c>
-      <c r="K146" s="23">
+      <c r="J146" s="12">
+        <v>2</v>
+      </c>
+      <c r="K146" s="16">
         <v>9.626388594689321E-2</v>
       </c>
-      <c r="L146" s="23">
+      <c r="L146" s="16">
         <v>0.10401722803342101</v>
       </c>
-      <c r="M146" s="24">
+      <c r="M146" s="17">
         <v>2.1959063959307659E-2</v>
       </c>
-      <c r="N146" s="20">
-        <v>95</v>
-      </c>
-      <c r="O146" s="20">
-        <v>100000</v>
-      </c>
-      <c r="P146" s="20"/>
-      <c r="Q146" s="20"/>
-      <c r="R146" s="20"/>
-      <c r="S146" s="20"/>
-      <c r="T146" s="20"/>
-      <c r="U146" s="20"/>
-    </row>
-    <row r="147" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="7">
+      <c r="N146" s="12">
+        <v>95</v>
+      </c>
+      <c r="O146" s="12">
+        <v>100000</v>
+      </c>
+      <c r="P146" s="12"/>
+      <c r="Q146" s="12"/>
+      <c r="R146" s="12"/>
+      <c r="S146" s="12"/>
+      <c r="T146" s="12"/>
+      <c r="U146" s="12"/>
+    </row>
+    <row r="147" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="12">
         <v>146</v>
       </c>
-      <c r="B147" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F147" s="20">
+      <c r="B147" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D147" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E147" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F147" s="12">
         <v>6</v>
       </c>
-      <c r="G147" s="22">
-        <v>23260</v>
-      </c>
-      <c r="H147" s="22">
-        <v>3876</v>
-      </c>
-      <c r="I147" s="23">
+      <c r="G147" s="15">
+        <v>21506</v>
+      </c>
+      <c r="H147" s="15">
+        <v>2024</v>
+      </c>
+      <c r="I147" s="16">
         <v>9.4113270715149314E-2</v>
       </c>
-      <c r="J147" s="40">
-        <v>0</v>
-      </c>
-      <c r="K147" s="23">
+      <c r="J147" s="12">
+        <v>2</v>
+      </c>
+      <c r="K147" s="16">
         <v>9.0283043734646198E-2</v>
       </c>
-      <c r="L147" s="23">
+      <c r="L147" s="16">
         <v>9.8088472930304607E-2</v>
       </c>
-      <c r="M147" s="24">
+      <c r="M147" s="17">
         <v>2.3351345596214483E-2</v>
       </c>
-      <c r="N147" s="20">
-        <v>95</v>
-      </c>
-      <c r="O147" s="20">
-        <v>100000</v>
-      </c>
-      <c r="P147" s="20"/>
-      <c r="Q147" s="20"/>
-      <c r="R147" s="20"/>
-      <c r="S147" s="20"/>
-      <c r="T147" s="20"/>
-      <c r="U147" s="20"/>
-    </row>
-    <row r="148" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="7">
+      <c r="N147" s="12">
+        <v>95</v>
+      </c>
+      <c r="O147" s="12">
+        <v>100000</v>
+      </c>
+      <c r="P147" s="12"/>
+      <c r="Q147" s="12"/>
+      <c r="R147" s="12"/>
+      <c r="S147" s="12"/>
+      <c r="T147" s="12"/>
+      <c r="U147" s="12"/>
+    </row>
+    <row r="148" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="12">
         <v>147</v>
       </c>
-      <c r="B148" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F148" s="20">
+      <c r="B148" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C148" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D148" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F148" s="12">
         <v>7</v>
       </c>
-      <c r="G148" s="22">
-        <v>23180</v>
-      </c>
-      <c r="H148" s="22">
-        <v>3617</v>
-      </c>
-      <c r="I148" s="23">
+      <c r="G148" s="15">
+        <v>22197</v>
+      </c>
+      <c r="H148" s="15">
+        <v>1938</v>
+      </c>
+      <c r="I148" s="16">
         <v>8.7309095823760008E-2</v>
       </c>
-      <c r="J148" s="40">
-        <v>0</v>
-      </c>
-      <c r="K148" s="23">
+      <c r="J148" s="12">
+        <v>2</v>
+      </c>
+      <c r="K148" s="16">
         <v>8.3666561293740796E-2</v>
       </c>
-      <c r="L148" s="23">
+      <c r="L148" s="16">
         <v>9.1094447923735611E-2</v>
       </c>
-      <c r="M148" s="24">
+      <c r="M148" s="17">
         <v>2.3774641670136969E-2</v>
       </c>
-      <c r="N148" s="20">
-        <v>95</v>
-      </c>
-      <c r="O148" s="20">
-        <v>100000</v>
-      </c>
-      <c r="P148" s="20"/>
-      <c r="Q148" s="20"/>
-      <c r="R148" s="20"/>
-      <c r="S148" s="20"/>
-      <c r="T148" s="20"/>
-      <c r="U148" s="20"/>
-    </row>
-    <row r="149" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="7">
+      <c r="N148" s="12">
+        <v>95</v>
+      </c>
+      <c r="O148" s="12">
+        <v>100000</v>
+      </c>
+      <c r="P148" s="12"/>
+      <c r="Q148" s="12"/>
+      <c r="R148" s="12"/>
+      <c r="S148" s="12"/>
+      <c r="T148" s="12"/>
+      <c r="U148" s="12"/>
+    </row>
+    <row r="149" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="12">
         <v>148</v>
       </c>
-      <c r="B149" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D149" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E149" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F149" s="20">
+      <c r="B149" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D149" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F149" s="12">
         <v>8</v>
       </c>
-      <c r="G149" s="22">
-        <v>24193</v>
-      </c>
-      <c r="H149" s="45">
-        <v>0</v>
-      </c>
-      <c r="I149" s="23">
+      <c r="G149" s="15">
+        <v>23679</v>
+      </c>
+      <c r="H149" s="15">
+        <v>1981</v>
+      </c>
+      <c r="I149" s="16">
         <v>8.36606275602855E-2</v>
       </c>
-      <c r="J149" s="40">
-        <v>0</v>
-      </c>
-      <c r="K149" s="23">
+      <c r="J149" s="12">
+        <v>2</v>
+      </c>
+      <c r="K149" s="16">
         <v>8.0201207626008811E-2</v>
       </c>
-      <c r="L149" s="23">
+      <c r="L149" s="16">
         <v>8.7255111571011096E-2</v>
       </c>
-      <c r="M149" s="24">
+      <c r="M149" s="17">
         <v>2.346839135649071E-2</v>
       </c>
-      <c r="N149" s="20">
-        <v>95</v>
-      </c>
-      <c r="O149" s="20">
-        <v>100000</v>
-      </c>
-      <c r="P149" s="20"/>
-      <c r="Q149" s="20"/>
-      <c r="R149" s="20"/>
-      <c r="S149" s="20"/>
-      <c r="T149" s="20"/>
-      <c r="U149" s="20"/>
-    </row>
-    <row r="150" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="7">
+      <c r="N149" s="12">
+        <v>95</v>
+      </c>
+      <c r="O149" s="12">
+        <v>100000</v>
+      </c>
+      <c r="P149" s="12"/>
+      <c r="Q149" s="12"/>
+      <c r="R149" s="12"/>
+      <c r="S149" s="12"/>
+      <c r="T149" s="12"/>
+      <c r="U149" s="12"/>
+    </row>
+    <row r="150" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="12">
         <v>149</v>
       </c>
-      <c r="B150" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E150" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F150" s="20">
+      <c r="B150" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D150" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F150" s="12">
         <v>9</v>
       </c>
-      <c r="G150" s="22">
-        <v>23609</v>
-      </c>
-      <c r="H150" s="22">
-        <v>3314</v>
-      </c>
-      <c r="I150" s="23">
+      <c r="G150" s="15">
+        <v>23271</v>
+      </c>
+      <c r="H150" s="15">
+        <v>1856</v>
+      </c>
+      <c r="I150" s="16">
         <v>7.9755919384641799E-2</v>
       </c>
-      <c r="J150" s="40">
-        <v>0</v>
-      </c>
-      <c r="K150" s="23">
+      <c r="J150" s="12">
+        <v>2</v>
+      </c>
+      <c r="K150" s="16">
         <v>7.6344120171020893E-2</v>
       </c>
-      <c r="L150" s="23">
+      <c r="L150" s="16">
         <v>8.3306439227847306E-2</v>
       </c>
-      <c r="M150" s="24">
+      <c r="M150" s="17">
         <v>2.4194175488285865E-2</v>
       </c>
-      <c r="N150" s="20">
-        <v>95</v>
-      </c>
-      <c r="O150" s="20">
-        <v>100000</v>
-      </c>
-      <c r="P150" s="20"/>
-      <c r="Q150" s="20"/>
-      <c r="R150" s="20"/>
-      <c r="S150" s="20"/>
-      <c r="T150" s="20"/>
-      <c r="U150" s="20"/>
-    </row>
-    <row r="151" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="46">
+      <c r="N150" s="12">
+        <v>95</v>
+      </c>
+      <c r="O150" s="12">
+        <v>100000</v>
+      </c>
+      <c r="P150" s="12"/>
+      <c r="Q150" s="12"/>
+      <c r="R150" s="12"/>
+      <c r="S150" s="12"/>
+      <c r="T150" s="12"/>
+      <c r="U150" s="12"/>
+    </row>
+    <row r="151" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="26">
         <v>150</v>
       </c>
-      <c r="B151" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="C151" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="D151" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="E151" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="F151" s="49">
+      <c r="B151" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C151" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D151" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E151" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F151" s="26">
         <v>10</v>
       </c>
-      <c r="G151" s="50">
-        <v>24488</v>
-      </c>
-      <c r="H151" s="50">
-        <v>2960</v>
-      </c>
-      <c r="I151" s="51">
+      <c r="G151" s="30">
+        <v>23464</v>
+      </c>
+      <c r="H151" s="30">
+        <v>1635</v>
+      </c>
+      <c r="I151" s="31">
         <v>6.9681213774292497E-2</v>
       </c>
-      <c r="J151" s="52">
-        <v>0</v>
-      </c>
-      <c r="K151" s="51">
+      <c r="J151" s="26">
+        <v>2</v>
+      </c>
+      <c r="K151" s="31">
         <v>6.6493384995075303E-2</v>
       </c>
-      <c r="L151" s="51">
+      <c r="L151" s="31">
         <v>7.3009920605712195E-2</v>
       </c>
-      <c r="M151" s="53">
+      <c r="M151" s="32">
         <v>2.563725693767251E-2</v>
       </c>
-      <c r="N151" s="49">
-        <v>95</v>
-      </c>
-      <c r="O151" s="49">
-        <v>100000</v>
-      </c>
-      <c r="P151" s="49"/>
-      <c r="Q151" s="49"/>
-      <c r="R151" s="49"/>
-      <c r="S151" s="49"/>
-      <c r="T151" s="49"/>
-      <c r="U151" s="49"/>
+      <c r="N151" s="26">
+        <v>95</v>
+      </c>
+      <c r="O151" s="26">
+        <v>100000</v>
+      </c>
+      <c r="P151" s="26"/>
+      <c r="Q151" s="26"/>
+      <c r="R151" s="26"/>
+      <c r="S151" s="26"/>
+      <c r="T151" s="26"/>
+      <c r="U151" s="26"/>
     </row>
     <row r="152" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="33">
         <v>151</v>
       </c>
       <c r="B152" s="39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C152" s="33" t="s">
         <v>22</v>
@@ -8870,19 +8915,19 @@
         <v>7287</v>
       </c>
       <c r="I152" s="42">
-        <v>0.12079421782836301</v>
+        <v>0.21212121212121202</v>
       </c>
       <c r="J152" s="40">
         <v>0</v>
       </c>
       <c r="K152" s="42">
-        <v>0.117473271937339</v>
+        <v>0.20783049922555499</v>
       </c>
       <c r="L152" s="42">
-        <v>0.12419583434331499</v>
+        <v>0.21647630081289901</v>
       </c>
       <c r="M152" s="43">
-        <v>1.6146775138005474E-2</v>
+        <v>1.3197018471840493E-2</v>
       </c>
       <c r="N152" s="40">
         <v>95</v>
@@ -8902,7 +8947,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>22</v>
@@ -8916,26 +8961,26 @@
       <c r="F153" s="20">
         <v>2</v>
       </c>
-      <c r="G153" s="22">
-        <v>32112</v>
+      <c r="G153" s="45">
+        <v>-200</v>
       </c>
       <c r="H153" s="22">
         <v>6881</v>
       </c>
       <c r="I153" s="23">
-        <v>0.117410307203723</v>
+        <v>0.214281265570503</v>
       </c>
       <c r="J153" s="40">
         <v>0</v>
       </c>
       <c r="K153" s="23">
-        <v>0.11391851782536101</v>
+        <v>0.209827711465288</v>
       </c>
       <c r="L153" s="23">
-        <v>0.12099451082271299</v>
+        <v>0.218803170788612</v>
       </c>
       <c r="M153" s="24">
-        <v>1.7418243061058977E-2</v>
+        <v>1.3599402535469379E-2</v>
       </c>
       <c r="N153" s="20">
         <v>95</v>
@@ -8955,7 +9000,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>22</v>
@@ -8976,19 +9021,19 @@
         <v>5656</v>
       </c>
       <c r="I154" s="23">
-        <v>0.11363891908099401</v>
+        <v>0.204077214504781</v>
       </c>
       <c r="J154" s="40">
         <v>0</v>
       </c>
       <c r="K154" s="23">
-        <v>0.109886239767609</v>
+        <v>0.19937351725899902</v>
       </c>
       <c r="L154" s="23">
-        <v>0.11750283684296101</v>
+        <v>0.208862933590925</v>
       </c>
       <c r="M154" s="24">
-        <v>1.9288400690570365E-2</v>
+        <v>1.4903436058054755E-2</v>
       </c>
       <c r="N154" s="20">
         <v>95</v>
@@ -9008,7 +9053,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>22</v>
@@ -9029,19 +9074,19 @@
         <v>4868</v>
       </c>
       <c r="I155" s="23">
-        <v>0.105896460469732</v>
+        <v>0.19186504808450303</v>
       </c>
       <c r="J155" s="40">
         <v>0</v>
       </c>
       <c r="K155" s="23">
-        <v>0.102080757108839</v>
-      </c>
-      <c r="L155" s="55">
-        <v>11</v>
+        <v>0.187066648694241</v>
+      </c>
+      <c r="L155" s="23">
+        <v>0.19675673996564999</v>
       </c>
       <c r="M155" s="24">
-        <v>2.0895990883188453E-2</v>
+        <v>1.5942525582502205E-2</v>
       </c>
       <c r="N155" s="20">
         <v>95</v>
@@ -9061,7 +9106,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>22</v>
@@ -9082,19 +9127,19 @@
         <v>4176</v>
       </c>
       <c r="I156" s="23">
-        <v>0.10007383920427401</v>
+        <v>0.17480848926284101</v>
       </c>
       <c r="J156" s="40">
         <v>0</v>
       </c>
       <c r="K156" s="23">
-        <v>9.626388594689321E-2</v>
+        <v>0.17004464070303801</v>
       </c>
       <c r="L156" s="23">
-        <v>0.10401722803342101</v>
+        <v>0.17967690552753499</v>
       </c>
       <c r="M156" s="24">
-        <v>2.1959063959307659E-2</v>
+        <v>1.7033905269793169E-2</v>
       </c>
       <c r="N156" s="20">
         <v>95</v>
@@ -9114,7 +9159,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>22</v>
@@ -9135,19 +9180,19 @@
         <v>3876</v>
       </c>
       <c r="I157" s="23">
-        <v>9.4113270715149314E-2</v>
+        <v>0.16663800515907098</v>
       </c>
       <c r="J157" s="40">
         <v>0</v>
       </c>
       <c r="K157" s="23">
-        <v>9.0283043734646198E-2</v>
+        <v>0.16190410576997</v>
       </c>
       <c r="L157" s="23">
-        <v>9.8088472930304607E-2</v>
+        <v>0.17148199783416998</v>
       </c>
       <c r="M157" s="24">
-        <v>2.3351345596214483E-2</v>
+        <v>1.7593885815626962E-2</v>
       </c>
       <c r="N157" s="20">
         <v>95</v>
@@ -9167,7 +9212,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>22</v>
@@ -9188,19 +9233,19 @@
         <v>3617</v>
       </c>
       <c r="I158" s="23">
-        <v>8.7309095823760008E-2</v>
+        <v>0.15603968938740301</v>
       </c>
       <c r="J158" s="40">
         <v>0</v>
       </c>
-      <c r="K158" s="55">
-        <v>8</v>
+      <c r="K158" s="23">
+        <v>0.15142507546851799</v>
       </c>
       <c r="L158" s="23">
-        <v>9.1094447923735611E-2</v>
+        <v>0.16076828867592699</v>
       </c>
       <c r="M158" s="24">
-        <v>2.3774641670136969E-2</v>
+        <v>1.8098141690297317E-2</v>
       </c>
       <c r="N158" s="20">
         <v>95</v>
@@ -9220,7 +9265,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>22</v>
@@ -9238,22 +9283,22 @@
         <v>24193</v>
       </c>
       <c r="H159" s="22">
-        <v>4000</v>
+        <v>3314</v>
       </c>
       <c r="I159" s="23">
-        <v>8.36606275602855E-2</v>
+        <v>0.14657132228330499</v>
       </c>
       <c r="J159" s="40">
         <v>0</v>
       </c>
       <c r="K159" s="23">
-        <v>8.0201207626008811E-2</v>
+        <v>0.142170753783533</v>
       </c>
       <c r="L159" s="23">
-        <v>8.7255111571011096E-2</v>
+        <v>0.15108411052992399</v>
       </c>
       <c r="M159" s="24">
-        <v>2.346839135649071E-2</v>
+        <v>1.8176743057472546E-2</v>
       </c>
       <c r="N159" s="20">
         <v>95</v>
@@ -9273,7 +9318,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>22</v>
@@ -9294,19 +9339,19 @@
         <v>3314</v>
       </c>
       <c r="I160" s="23">
-        <v>7.9755919384641799E-2</v>
+        <v>0.140370197805921</v>
       </c>
       <c r="J160" s="40">
         <v>0</v>
       </c>
       <c r="K160" s="23">
-        <v>7.6344120171020893E-2</v>
+        <v>0.13599767093637602</v>
       </c>
       <c r="L160" s="23">
-        <v>8.3306439227847306E-2</v>
+        <v>0.144859737537153</v>
       </c>
       <c r="M160" s="24">
-        <v>2.4194175488285865E-2</v>
+        <v>1.873422095544007E-2</v>
       </c>
       <c r="N160" s="20">
         <v>95</v>
@@ -9326,7 +9371,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C161" s="46" t="s">
         <v>22</v>
@@ -9347,19 +9392,19 @@
         <v>2960</v>
       </c>
       <c r="I161" s="51">
-        <v>6.9681213774292497E-2</v>
+        <v>0.12087553087226401</v>
       </c>
       <c r="J161" s="52">
         <v>0</v>
       </c>
       <c r="K161" s="51">
-        <v>6.6493384995075303E-2</v>
+        <v>0.11685200990738201</v>
       </c>
       <c r="L161" s="51">
-        <v>7.3009920605712195E-2</v>
+        <v>0.12501798050476101</v>
       </c>
       <c r="M161" s="53">
-        <v>2.563725693767251E-2</v>
+        <v>1.9601724030759937E-2</v>
       </c>
       <c r="N161" s="49">
         <v>95</v>
@@ -9379,10 +9424,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C162" s="33" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D162" s="35" t="s">
         <v>23</v>
@@ -9400,14 +9445,20 @@
         <v>7287</v>
       </c>
       <c r="I162" s="42">
-        <v>21.212121</v>
+        <v>0.12079421782836301</v>
       </c>
       <c r="J162" s="40">
         <v>0</v>
       </c>
-      <c r="K162" s="56"/>
-      <c r="L162" s="56"/>
-      <c r="M162" s="57"/>
+      <c r="K162" s="42">
+        <v>0.117473271937339</v>
+      </c>
+      <c r="L162" s="42">
+        <v>0.12419583434331499</v>
+      </c>
+      <c r="M162" s="43">
+        <v>1.6146775138005474E-2</v>
+      </c>
       <c r="N162" s="40">
         <v>95</v>
       </c>
@@ -9426,10 +9477,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D163" s="8" t="s">
         <v>23</v>
@@ -9447,14 +9498,20 @@
         <v>6881</v>
       </c>
       <c r="I163" s="23">
-        <v>21.428127</v>
+        <v>0.117410307203723</v>
       </c>
       <c r="J163" s="40">
         <v>0</v>
       </c>
-      <c r="K163" s="55"/>
-      <c r="L163" s="55"/>
-      <c r="M163" s="54"/>
+      <c r="K163" s="23">
+        <v>0.11391851782536101</v>
+      </c>
+      <c r="L163" s="23">
+        <v>0.12099451082271299</v>
+      </c>
+      <c r="M163" s="24">
+        <v>1.7418243061058977E-2</v>
+      </c>
       <c r="N163" s="20">
         <v>95</v>
       </c>
@@ -9473,10 +9530,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D164" s="8" t="s">
         <v>23</v>
@@ -9494,14 +9551,20 @@
         <v>5656</v>
       </c>
       <c r="I164" s="23">
-        <v>20.407720999999999</v>
+        <v>0.11363891908099401</v>
       </c>
       <c r="J164" s="40">
         <v>0</v>
       </c>
-      <c r="K164" s="55"/>
-      <c r="L164" s="55"/>
-      <c r="M164" s="54"/>
+      <c r="K164" s="23">
+        <v>0.109886239767609</v>
+      </c>
+      <c r="L164" s="23">
+        <v>0.11750283684296101</v>
+      </c>
+      <c r="M164" s="54">
+        <v>-5</v>
+      </c>
       <c r="N164" s="20">
         <v>95</v>
       </c>
@@ -9520,10 +9583,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D165" s="8" t="s">
         <v>23</v>
@@ -9541,14 +9604,20 @@
         <v>4868</v>
       </c>
       <c r="I165" s="23">
-        <v>19.186505</v>
+        <v>0.105896460469732</v>
       </c>
       <c r="J165" s="40">
         <v>0</v>
       </c>
-      <c r="K165" s="55"/>
-      <c r="L165" s="55"/>
-      <c r="M165" s="54"/>
+      <c r="K165" s="23">
+        <v>0.102080757108839</v>
+      </c>
+      <c r="L165" s="23">
+        <v>0.10983734511402099</v>
+      </c>
+      <c r="M165" s="24">
+        <v>2.0895990883188453E-2</v>
+      </c>
       <c r="N165" s="20">
         <v>95</v>
       </c>
@@ -9567,10 +9636,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D166" s="8" t="s">
         <v>23</v>
@@ -9588,14 +9657,20 @@
         <v>4176</v>
       </c>
       <c r="I166" s="23">
-        <v>17.480848999999999</v>
+        <v>0.10007383920427401</v>
       </c>
       <c r="J166" s="40">
         <v>0</v>
       </c>
-      <c r="K166" s="55"/>
-      <c r="L166" s="55"/>
-      <c r="M166" s="54"/>
+      <c r="K166" s="23">
+        <v>9.626388594689321E-2</v>
+      </c>
+      <c r="L166" s="23">
+        <v>0.10401722803342101</v>
+      </c>
+      <c r="M166" s="24">
+        <v>2.1959063959307659E-2</v>
+      </c>
       <c r="N166" s="20">
         <v>95</v>
       </c>
@@ -9614,10 +9689,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D167" s="8" t="s">
         <v>23</v>
@@ -9635,19 +9710,19 @@
         <v>3876</v>
       </c>
       <c r="I167" s="23">
-        <v>16.663800999999999</v>
+        <v>9.4113270715149314E-2</v>
       </c>
       <c r="J167" s="40">
         <v>0</v>
       </c>
       <c r="K167" s="23">
-        <v>16.190411000000001</v>
+        <v>9.0283043734646198E-2</v>
       </c>
       <c r="L167" s="23">
-        <v>17.148199999999999</v>
+        <v>9.8088472930304607E-2</v>
       </c>
       <c r="M167" s="24">
-        <v>0.24433849999999999</v>
+        <v>2.3351345596214483E-2</v>
       </c>
       <c r="N167" s="20">
         <v>95</v>
@@ -9667,10 +9742,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D168" s="8" t="s">
         <v>23</v>
@@ -9688,19 +9763,19 @@
         <v>3617</v>
       </c>
       <c r="I168" s="23">
-        <v>15.603968999999999</v>
+        <v>8.7309095823760008E-2</v>
       </c>
       <c r="J168" s="40">
         <v>0</v>
       </c>
       <c r="K168" s="23">
-        <v>15.142507999999999</v>
+        <v>8.3666561293740796E-2</v>
       </c>
       <c r="L168" s="23">
-        <v>16.076829</v>
+        <v>9.1094447923735611E-2</v>
       </c>
       <c r="M168" s="24">
-        <v>0.2383517</v>
+        <v>2.3774641670136969E-2</v>
       </c>
       <c r="N168" s="20">
         <v>95</v>
@@ -9720,10 +9795,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D169" s="8" t="s">
         <v>23</v>
@@ -9737,23 +9812,23 @@
       <c r="G169" s="22">
         <v>24193</v>
       </c>
-      <c r="H169" s="22">
-        <v>3546</v>
+      <c r="H169" s="45">
+        <v>0</v>
       </c>
       <c r="I169" s="23">
-        <v>14.657132000000001</v>
+        <v>8.36606275602855E-2</v>
       </c>
       <c r="J169" s="40">
         <v>0</v>
       </c>
       <c r="K169" s="23">
-        <v>14.217074999999999</v>
+        <v>8.0201207626008811E-2</v>
       </c>
       <c r="L169" s="23">
-        <v>15.108411</v>
+        <v>8.7255111571011096E-2</v>
       </c>
       <c r="M169" s="24">
-        <v>0.2273857</v>
+        <v>2.346839135649071E-2</v>
       </c>
       <c r="N169" s="20">
         <v>95</v>
@@ -9773,10 +9848,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D170" s="8" t="s">
         <v>23</v>
@@ -9794,19 +9869,19 @@
         <v>3314</v>
       </c>
       <c r="I170" s="23">
-        <v>14.03702</v>
+        <v>7.9755919384641799E-2</v>
       </c>
       <c r="J170" s="40">
         <v>0</v>
       </c>
       <c r="K170" s="23">
-        <v>13.599767</v>
+        <v>7.6344120171020893E-2</v>
       </c>
       <c r="L170" s="23">
-        <v>14.485974000000001</v>
+        <v>8.3306439227847306E-2</v>
       </c>
       <c r="M170" s="24">
-        <v>0.22607730000000001</v>
+        <v>2.4194175488285865E-2</v>
       </c>
       <c r="N170" s="20">
         <v>95</v>
@@ -9826,10 +9901,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C171" s="46" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D171" s="48" t="s">
         <v>23</v>
@@ -9847,19 +9922,19 @@
         <v>2960</v>
       </c>
       <c r="I171" s="51">
-        <v>12.087553</v>
+        <v>6.9681213774292497E-2</v>
       </c>
       <c r="J171" s="52">
         <v>0</v>
       </c>
       <c r="K171" s="51">
-        <v>11.685200999999999</v>
+        <v>6.6493384995075303E-2</v>
       </c>
       <c r="L171" s="51">
-        <v>12.501798000000001</v>
+        <v>7.3009920605712195E-2</v>
       </c>
       <c r="M171" s="53">
-        <v>0.20831939999999999</v>
+        <v>2.563725693767251E-2</v>
       </c>
       <c r="N171" s="49">
         <v>95</v>
@@ -9874,12 +9949,12 @@
       <c r="T171" s="49"/>
       <c r="U171" s="49"/>
     </row>
-    <row r="172" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="33">
         <v>171</v>
       </c>
-      <c r="B172" s="58" t="s">
-        <v>37</v>
+      <c r="B172" s="39" t="s">
+        <v>34</v>
       </c>
       <c r="C172" s="33" t="s">
         <v>22</v>
@@ -9900,19 +9975,19 @@
         <v>7287</v>
       </c>
       <c r="I172" s="42">
-        <v>21.212121</v>
+        <v>0.12079421782836301</v>
       </c>
       <c r="J172" s="40">
         <v>0</v>
       </c>
       <c r="K172" s="42">
-        <v>20.783049999999999</v>
+        <v>0.117473271937339</v>
       </c>
       <c r="L172" s="42">
-        <v>21.647629999999999</v>
+        <v>0.12419583434331499</v>
       </c>
       <c r="M172" s="43">
-        <v>0.22056020000000001</v>
+        <v>1.6146775138005474E-2</v>
       </c>
       <c r="N172" s="40">
         <v>95</v>
@@ -9927,12 +10002,12 @@
       <c r="T172" s="40"/>
       <c r="U172" s="40"/>
     </row>
-    <row r="173" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="7">
         <v>172</v>
       </c>
-      <c r="B173" s="59" t="s">
-        <v>37</v>
+      <c r="B173" s="39" t="s">
+        <v>34</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>22</v>
@@ -9949,21 +10024,23 @@
       <c r="G173" s="22">
         <v>32112</v>
       </c>
-      <c r="H173" s="45"/>
+      <c r="H173" s="22">
+        <v>6881</v>
+      </c>
       <c r="I173" s="23">
-        <v>21.428127</v>
+        <v>0.117410307203723</v>
       </c>
       <c r="J173" s="40">
         <v>0</v>
       </c>
       <c r="K173" s="23">
-        <v>20.982771</v>
+        <v>0.11391851782536101</v>
       </c>
       <c r="L173" s="23">
-        <v>21.880317000000002</v>
+        <v>0.12099451082271299</v>
       </c>
       <c r="M173" s="24">
-        <v>0.22897000000000001</v>
+        <v>1.7418243061058977E-2</v>
       </c>
       <c r="N173" s="20">
         <v>95</v>
@@ -9978,12 +10055,12 @@
       <c r="T173" s="20"/>
       <c r="U173" s="20"/>
     </row>
-    <row r="174" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="7">
         <v>173</v>
       </c>
-      <c r="B174" s="59" t="s">
-        <v>37</v>
+      <c r="B174" s="39" t="s">
+        <v>34</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>22</v>
@@ -10004,19 +10081,19 @@
         <v>5656</v>
       </c>
       <c r="I174" s="23">
-        <v>20.407720999999999</v>
+        <v>0.11363891908099401</v>
       </c>
       <c r="J174" s="40">
         <v>0</v>
       </c>
       <c r="K174" s="23">
-        <v>19.937352000000001</v>
+        <v>0.109886239767609</v>
       </c>
       <c r="L174" s="23">
-        <v>20.886292999999998</v>
+        <v>0.11750283684296101</v>
       </c>
       <c r="M174" s="24">
-        <v>0.2420814</v>
+        <v>1.9288400690570365E-2</v>
       </c>
       <c r="N174" s="20">
         <v>95</v>
@@ -10031,12 +10108,12 @@
       <c r="T174" s="20"/>
       <c r="U174" s="20"/>
     </row>
-    <row r="175" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="7">
         <v>174</v>
       </c>
-      <c r="B175" s="59" t="s">
-        <v>37</v>
+      <c r="B175" s="39" t="s">
+        <v>34</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>22</v>
@@ -10057,19 +10134,19 @@
         <v>4868</v>
       </c>
       <c r="I175" s="23">
-        <v>19.186505</v>
+        <v>0.105896460469732</v>
       </c>
       <c r="J175" s="40">
         <v>0</v>
       </c>
       <c r="K175" s="23">
-        <v>18.706665000000001</v>
-      </c>
-      <c r="L175" s="23">
-        <v>19.675674000000001</v>
+        <v>0.102080757108839</v>
+      </c>
+      <c r="L175" s="55">
+        <v>11</v>
       </c>
       <c r="M175" s="24">
-        <v>0.2472007</v>
+        <v>2.0895990883188453E-2</v>
       </c>
       <c r="N175" s="20">
         <v>95</v>
@@ -10084,12 +10161,12 @@
       <c r="T175" s="20"/>
       <c r="U175" s="20"/>
     </row>
-    <row r="176" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="7">
         <v>175</v>
       </c>
-      <c r="B176" s="59" t="s">
-        <v>37</v>
+      <c r="B176" s="39" t="s">
+        <v>34</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>22</v>
@@ -10103,24 +10180,26 @@
       <c r="F176" s="20">
         <v>5</v>
       </c>
-      <c r="G176" s="45"/>
+      <c r="G176" s="22">
+        <v>23889</v>
+      </c>
       <c r="H176" s="22">
         <v>4176</v>
       </c>
       <c r="I176" s="23">
-        <v>17.480848999999999</v>
+        <v>0.10007383920427401</v>
       </c>
       <c r="J176" s="40">
         <v>0</v>
       </c>
       <c r="K176" s="23">
-        <v>17.004463999999999</v>
+        <v>9.626388594689321E-2</v>
       </c>
       <c r="L176" s="23">
-        <v>17.967690999999999</v>
+        <v>0.10401722803342101</v>
       </c>
       <c r="M176" s="24">
-        <v>0.24572559999999999</v>
+        <v>2.1959063959307659E-2</v>
       </c>
       <c r="N176" s="20">
         <v>95</v>
@@ -10135,12 +10214,12 @@
       <c r="T176" s="20"/>
       <c r="U176" s="20"/>
     </row>
-    <row r="177" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="7">
         <v>176</v>
       </c>
-      <c r="B177" s="59" t="s">
-        <v>37</v>
+      <c r="B177" s="39" t="s">
+        <v>34</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>22</v>
@@ -10161,19 +10240,19 @@
         <v>3876</v>
       </c>
       <c r="I177" s="23">
-        <v>16.663800999999999</v>
+        <v>9.4113270715149314E-2</v>
       </c>
       <c r="J177" s="40">
         <v>0</v>
       </c>
       <c r="K177" s="23">
-        <v>16.190411000000001</v>
+        <v>9.0283043734646198E-2</v>
       </c>
       <c r="L177" s="23">
-        <v>17.148199999999999</v>
+        <v>9.8088472930304607E-2</v>
       </c>
       <c r="M177" s="24">
-        <v>0.24433849999999999</v>
+        <v>2.3351345596214483E-2</v>
       </c>
       <c r="N177" s="20">
         <v>95</v>
@@ -10188,12 +10267,12 @@
       <c r="T177" s="20"/>
       <c r="U177" s="20"/>
     </row>
-    <row r="178" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="7">
         <v>177</v>
       </c>
-      <c r="B178" s="59" t="s">
-        <v>37</v>
+      <c r="B178" s="39" t="s">
+        <v>34</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>22</v>
@@ -10214,19 +10293,19 @@
         <v>3617</v>
       </c>
       <c r="I178" s="23">
-        <v>15.603968999999999</v>
+        <v>8.7309095823760008E-2</v>
       </c>
       <c r="J178" s="40">
         <v>0</v>
       </c>
-      <c r="K178" s="23">
-        <v>15.142507999999999</v>
+      <c r="K178" s="55">
+        <v>8</v>
       </c>
       <c r="L178" s="23">
-        <v>16.076829</v>
+        <v>9.1094447923735611E-2</v>
       </c>
       <c r="M178" s="24">
-        <v>0.2383517</v>
+        <v>2.3774641670136969E-2</v>
       </c>
       <c r="N178" s="20">
         <v>95</v>
@@ -10241,12 +10320,12 @@
       <c r="T178" s="20"/>
       <c r="U178" s="20"/>
     </row>
-    <row r="179" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="7">
         <v>178</v>
       </c>
-      <c r="B179" s="59" t="s">
-        <v>37</v>
+      <c r="B179" s="39" t="s">
+        <v>34</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>22</v>
@@ -10264,20 +10343,22 @@
         <v>24193</v>
       </c>
       <c r="H179" s="22">
-        <v>3546</v>
-      </c>
-      <c r="I179" s="55"/>
+        <v>4000</v>
+      </c>
+      <c r="I179" s="23">
+        <v>8.36606275602855E-2</v>
+      </c>
       <c r="J179" s="40">
         <v>0</v>
       </c>
       <c r="K179" s="23">
-        <v>14.217074999999999</v>
+        <v>8.0201207626008811E-2</v>
       </c>
       <c r="L179" s="23">
-        <v>15.108411</v>
+        <v>8.7255111571011096E-2</v>
       </c>
       <c r="M179" s="24">
-        <v>0.2273857</v>
+        <v>2.346839135649071E-2</v>
       </c>
       <c r="N179" s="20">
         <v>95</v>
@@ -10292,12 +10373,12 @@
       <c r="T179" s="20"/>
       <c r="U179" s="20"/>
     </row>
-    <row r="180" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="7">
         <v>179</v>
       </c>
-      <c r="B180" s="59" t="s">
-        <v>37</v>
+      <c r="B180" s="39" t="s">
+        <v>34</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>22</v>
@@ -10318,19 +10399,19 @@
         <v>3314</v>
       </c>
       <c r="I180" s="23">
-        <v>14.03702</v>
+        <v>7.9755919384641799E-2</v>
       </c>
       <c r="J180" s="40">
         <v>0</v>
       </c>
       <c r="K180" s="23">
-        <v>13.599767</v>
+        <v>7.6344120171020893E-2</v>
       </c>
       <c r="L180" s="23">
-        <v>14.485974000000001</v>
+        <v>8.3306439227847306E-2</v>
       </c>
       <c r="M180" s="24">
-        <v>0.22607730000000001</v>
+        <v>2.4194175488285865E-2</v>
       </c>
       <c r="N180" s="20">
         <v>95</v>
@@ -10345,12 +10426,12 @@
       <c r="T180" s="20"/>
       <c r="U180" s="20"/>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="46">
         <v>180</v>
       </c>
-      <c r="B181" s="60" t="s">
-        <v>37</v>
+      <c r="B181" s="47" t="s">
+        <v>34</v>
       </c>
       <c r="C181" s="46" t="s">
         <v>22</v>
@@ -10371,19 +10452,19 @@
         <v>2960</v>
       </c>
       <c r="I181" s="51">
-        <v>12.087553</v>
+        <v>6.9681213774292497E-2</v>
       </c>
       <c r="J181" s="52">
         <v>0</v>
       </c>
       <c r="K181" s="51">
-        <v>11.685200999999999</v>
+        <v>6.6493384995075303E-2</v>
       </c>
       <c r="L181" s="51">
-        <v>12.501798000000001</v>
+        <v>7.3009920605712195E-2</v>
       </c>
       <c r="M181" s="53">
-        <v>0.20831939999999999</v>
+        <v>2.563725693767251E-2</v>
       </c>
       <c r="N181" s="49">
         <v>95</v>
@@ -10398,15 +10479,15 @@
       <c r="T181" s="49"/>
       <c r="U181" s="49"/>
     </row>
-    <row r="182" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="33">
         <v>181</v>
       </c>
-      <c r="B182" s="58" t="s">
-        <v>38</v>
+      <c r="B182" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="C182" s="33" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D182" s="35" t="s">
         <v>23</v>
@@ -10423,9 +10504,7 @@
       <c r="H182" s="41">
         <v>7287</v>
       </c>
-      <c r="I182" s="42">
-        <v>21.212121</v>
-      </c>
+      <c r="I182" s="56"/>
       <c r="J182" s="40">
         <v>0</v>
       </c>
@@ -10451,15 +10530,15 @@
       <c r="T182" s="40"/>
       <c r="U182" s="40"/>
     </row>
-    <row r="183" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="7">
         <v>182</v>
       </c>
-      <c r="B183" s="58" t="s">
-        <v>38</v>
+      <c r="B183" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D183" s="8" t="s">
         <v>23</v>
@@ -10473,10 +10552,10 @@
       <c r="G183" s="22">
         <v>32112</v>
       </c>
-      <c r="H183" s="45"/>
-      <c r="I183" s="23">
-        <v>21.428127</v>
-      </c>
+      <c r="H183" s="22">
+        <v>6881</v>
+      </c>
+      <c r="I183" s="55"/>
       <c r="J183" s="40">
         <v>0</v>
       </c>
@@ -10502,15 +10581,15 @@
       <c r="T183" s="20"/>
       <c r="U183" s="20"/>
     </row>
-    <row r="184" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="7">
         <v>183</v>
       </c>
-      <c r="B184" s="58" t="s">
-        <v>38</v>
+      <c r="B184" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D184" s="8" t="s">
         <v>23</v>
@@ -10527,9 +10606,7 @@
       <c r="H184" s="22">
         <v>5656</v>
       </c>
-      <c r="I184" s="23">
-        <v>20.407720999999999</v>
-      </c>
+      <c r="I184" s="55"/>
       <c r="J184" s="40">
         <v>0</v>
       </c>
@@ -10555,15 +10632,15 @@
       <c r="T184" s="20"/>
       <c r="U184" s="20"/>
     </row>
-    <row r="185" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="7">
         <v>184</v>
       </c>
-      <c r="B185" s="58" t="s">
-        <v>38</v>
+      <c r="B185" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D185" s="8" t="s">
         <v>23</v>
@@ -10580,9 +10657,7 @@
       <c r="H185" s="22">
         <v>4868</v>
       </c>
-      <c r="I185" s="23">
-        <v>19.186505</v>
-      </c>
+      <c r="I185" s="55"/>
       <c r="J185" s="40">
         <v>0</v>
       </c>
@@ -10608,15 +10683,15 @@
       <c r="T185" s="20"/>
       <c r="U185" s="20"/>
     </row>
-    <row r="186" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="7">
         <v>185</v>
       </c>
-      <c r="B186" s="58" t="s">
-        <v>38</v>
+      <c r="B186" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D186" s="8" t="s">
         <v>23</v>
@@ -10627,13 +10702,13 @@
       <c r="F186" s="20">
         <v>5</v>
       </c>
-      <c r="G186" s="45"/>
+      <c r="G186" s="22">
+        <v>23889</v>
+      </c>
       <c r="H186" s="22">
         <v>4176</v>
       </c>
-      <c r="I186" s="23">
-        <v>17.480848999999999</v>
-      </c>
+      <c r="I186" s="55"/>
       <c r="J186" s="40">
         <v>0</v>
       </c>
@@ -10659,15 +10734,15 @@
       <c r="T186" s="20"/>
       <c r="U186" s="20"/>
     </row>
-    <row r="187" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="7">
         <v>186</v>
       </c>
-      <c r="B187" s="58" t="s">
-        <v>38</v>
+      <c r="B187" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D187" s="8" t="s">
         <v>23</v>
@@ -10684,9 +10759,7 @@
       <c r="H187" s="22">
         <v>3876</v>
       </c>
-      <c r="I187" s="23">
-        <v>16.663800999999999</v>
-      </c>
+      <c r="I187" s="55"/>
       <c r="J187" s="40">
         <v>0</v>
       </c>
@@ -10712,15 +10785,15 @@
       <c r="T187" s="20"/>
       <c r="U187" s="20"/>
     </row>
-    <row r="188" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="7">
         <v>187</v>
       </c>
-      <c r="B188" s="58" t="s">
-        <v>38</v>
+      <c r="B188" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D188" s="8" t="s">
         <v>23</v>
@@ -10737,9 +10810,7 @@
       <c r="H188" s="22">
         <v>3617</v>
       </c>
-      <c r="I188" s="23">
-        <v>15.603968999999999</v>
-      </c>
+      <c r="I188" s="55"/>
       <c r="J188" s="40">
         <v>0</v>
       </c>
@@ -10765,15 +10836,15 @@
       <c r="T188" s="20"/>
       <c r="U188" s="20"/>
     </row>
-    <row r="189" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="7">
         <v>188</v>
       </c>
-      <c r="B189" s="58" t="s">
-        <v>38</v>
+      <c r="B189" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D189" s="8" t="s">
         <v>23</v>
@@ -10816,15 +10887,15 @@
       <c r="T189" s="20"/>
       <c r="U189" s="20"/>
     </row>
-    <row r="190" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="7">
         <v>189</v>
       </c>
-      <c r="B190" s="58" t="s">
-        <v>38</v>
+      <c r="B190" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D190" s="8" t="s">
         <v>23</v>
@@ -10841,9 +10912,7 @@
       <c r="H190" s="22">
         <v>3314</v>
       </c>
-      <c r="I190" s="23">
-        <v>14.03702</v>
-      </c>
+      <c r="I190" s="55"/>
       <c r="J190" s="40">
         <v>0</v>
       </c>
@@ -10869,121 +10938,113 @@
       <c r="T190" s="20"/>
       <c r="U190" s="20"/>
     </row>
-    <row r="191" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="7">
+    <row r="191" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="46">
         <v>190</v>
       </c>
-      <c r="B191" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="C191" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D191" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E191" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F191" s="20">
+      <c r="B191" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C191" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D191" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="E191" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="F191" s="49">
         <v>10</v>
       </c>
-      <c r="G191" s="22">
+      <c r="G191" s="50">
         <v>24488</v>
       </c>
-      <c r="H191" s="22">
+      <c r="H191" s="50">
         <v>2960</v>
       </c>
-      <c r="I191" s="23">
-        <v>12.087553</v>
-      </c>
-      <c r="J191" s="40">
-        <v>0</v>
-      </c>
-      <c r="K191" s="23">
+      <c r="I191" s="65"/>
+      <c r="J191" s="52">
+        <v>0</v>
+      </c>
+      <c r="K191" s="51">
         <v>11.685200999999999</v>
       </c>
-      <c r="L191" s="23">
+      <c r="L191" s="51">
         <v>12.501798000000001</v>
       </c>
-      <c r="M191" s="24">
+      <c r="M191" s="53">
         <v>0.20831939999999999</v>
       </c>
-      <c r="N191" s="20">
-        <v>95</v>
-      </c>
-      <c r="O191" s="20">
-        <v>100000</v>
-      </c>
-      <c r="P191" s="20"/>
-      <c r="Q191" s="20"/>
-      <c r="R191" s="20"/>
-      <c r="S191" s="20"/>
-      <c r="T191" s="20"/>
-      <c r="U191" s="20"/>
-    </row>
-    <row r="192" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="7">
+      <c r="N191" s="49">
+        <v>95</v>
+      </c>
+      <c r="O191" s="49">
+        <v>100000</v>
+      </c>
+      <c r="P191" s="49"/>
+      <c r="Q191" s="49"/>
+      <c r="R191" s="49"/>
+      <c r="S191" s="49"/>
+      <c r="T191" s="49"/>
+      <c r="U191" s="49"/>
+    </row>
+    <row r="192" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="33">
         <v>191</v>
       </c>
-      <c r="B192" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D192" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E192" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F192" s="20">
-        <v>11</v>
-      </c>
-      <c r="G192" s="22">
-        <v>23260</v>
-      </c>
-      <c r="H192" s="22">
-        <v>3876</v>
-      </c>
-      <c r="I192" s="23">
-        <v>16.663800999999999</v>
+      <c r="B192" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C192" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D192" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E192" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F192" s="40">
+        <v>1</v>
+      </c>
+      <c r="G192" s="41">
+        <v>34353</v>
+      </c>
+      <c r="H192" s="41">
+        <v>7287</v>
+      </c>
+      <c r="I192" s="42">
+        <v>21.212121</v>
       </c>
       <c r="J192" s="40">
         <v>0</v>
       </c>
-      <c r="K192" s="23">
-        <v>16.190411000000001</v>
-      </c>
-      <c r="L192" s="23">
-        <v>17.148199999999999</v>
-      </c>
-      <c r="M192" s="24">
-        <v>0.24433849999999999</v>
-      </c>
-      <c r="N192" s="20">
-        <v>95</v>
-      </c>
-      <c r="O192" s="20">
-        <v>100000</v>
-      </c>
-      <c r="P192" s="20"/>
-      <c r="Q192" s="20"/>
-      <c r="R192" s="20"/>
-      <c r="S192" s="20"/>
-      <c r="T192" s="20"/>
-      <c r="U192" s="20"/>
-    </row>
-    <row r="193" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K192" s="56"/>
+      <c r="L192" s="56"/>
+      <c r="M192" s="57"/>
+      <c r="N192" s="40">
+        <v>95</v>
+      </c>
+      <c r="O192" s="40">
+        <v>100000</v>
+      </c>
+      <c r="P192" s="40"/>
+      <c r="Q192" s="40"/>
+      <c r="R192" s="40"/>
+      <c r="S192" s="40"/>
+      <c r="T192" s="40"/>
+      <c r="U192" s="40"/>
+    </row>
+    <row r="193" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="7">
         <v>192</v>
       </c>
-      <c r="B193" s="58" t="s">
-        <v>38</v>
+      <c r="B193" s="39" t="s">
+        <v>35</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D193" s="8" t="s">
         <v>23</v>
@@ -10992,29 +11053,23 @@
         <v>24</v>
       </c>
       <c r="F193" s="20">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G193" s="22">
-        <v>23180</v>
+        <v>32112</v>
       </c>
       <c r="H193" s="22">
-        <v>3617</v>
+        <v>6881</v>
       </c>
       <c r="I193" s="23">
-        <v>15.603968999999999</v>
+        <v>21.428127</v>
       </c>
       <c r="J193" s="40">
         <v>0</v>
       </c>
-      <c r="K193" s="23">
-        <v>15.142507999999999</v>
-      </c>
-      <c r="L193" s="23">
-        <v>16.076829</v>
-      </c>
-      <c r="M193" s="24">
-        <v>0.2383517</v>
-      </c>
+      <c r="K193" s="55"/>
+      <c r="L193" s="55"/>
+      <c r="M193" s="54"/>
       <c r="N193" s="20">
         <v>95</v>
       </c>
@@ -11028,15 +11083,15 @@
       <c r="T193" s="20"/>
       <c r="U193" s="20"/>
     </row>
-    <row r="194" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="7">
         <v>193</v>
       </c>
-      <c r="B194" s="58" t="s">
-        <v>38</v>
+      <c r="B194" s="39" t="s">
+        <v>35</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D194" s="8" t="s">
         <v>23</v>
@@ -11045,27 +11100,23 @@
         <v>24</v>
       </c>
       <c r="F194" s="20">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G194" s="22">
-        <v>24193</v>
+        <v>27715</v>
       </c>
       <c r="H194" s="22">
-        <v>3546</v>
-      </c>
-      <c r="I194" s="55"/>
+        <v>5656</v>
+      </c>
+      <c r="I194" s="23">
+        <v>20.407720999999999</v>
+      </c>
       <c r="J194" s="40">
         <v>0</v>
       </c>
-      <c r="K194" s="23">
-        <v>14.217074999999999</v>
-      </c>
-      <c r="L194" s="23">
-        <v>15.108411</v>
-      </c>
-      <c r="M194" s="24">
-        <v>0.2273857</v>
-      </c>
+      <c r="K194" s="55"/>
+      <c r="L194" s="55"/>
+      <c r="M194" s="54"/>
       <c r="N194" s="20">
         <v>95</v>
       </c>
@@ -11079,15 +11130,15 @@
       <c r="T194" s="20"/>
       <c r="U194" s="20"/>
     </row>
-    <row r="195" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="7">
         <v>194</v>
       </c>
-      <c r="B195" s="58" t="s">
-        <v>38</v>
+      <c r="B195" s="39" t="s">
+        <v>35</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D195" s="8" t="s">
         <v>23</v>
@@ -11096,29 +11147,23 @@
         <v>24</v>
       </c>
       <c r="F195" s="20">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G195" s="22">
-        <v>23609</v>
+        <v>25372</v>
       </c>
       <c r="H195" s="22">
-        <v>3314</v>
+        <v>4868</v>
       </c>
       <c r="I195" s="23">
-        <v>14.03702</v>
+        <v>19.186505</v>
       </c>
       <c r="J195" s="40">
         <v>0</v>
       </c>
-      <c r="K195" s="23">
-        <v>13.599767</v>
-      </c>
-      <c r="L195" s="23">
-        <v>14.485974000000001</v>
-      </c>
-      <c r="M195" s="24">
-        <v>0.22607730000000001</v>
-      </c>
+      <c r="K195" s="55"/>
+      <c r="L195" s="55"/>
+      <c r="M195" s="54"/>
       <c r="N195" s="20">
         <v>95</v>
       </c>
@@ -11132,15 +11177,15 @@
       <c r="T195" s="20"/>
       <c r="U195" s="20"/>
     </row>
-    <row r="196" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="7">
         <v>195</v>
       </c>
-      <c r="B196" s="58" t="s">
-        <v>38</v>
+      <c r="B196" s="39" t="s">
+        <v>35</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D196" s="8" t="s">
         <v>23</v>
@@ -11149,29 +11194,23 @@
         <v>24</v>
       </c>
       <c r="F196" s="20">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G196" s="22">
-        <v>24488</v>
+        <v>23889</v>
       </c>
       <c r="H196" s="22">
-        <v>2960</v>
+        <v>4176</v>
       </c>
       <c r="I196" s="23">
-        <v>12.087553</v>
+        <v>17.480848999999999</v>
       </c>
       <c r="J196" s="40">
         <v>0</v>
       </c>
-      <c r="K196" s="23">
-        <v>11.685200999999999</v>
-      </c>
-      <c r="L196" s="23">
-        <v>12.501798000000001</v>
-      </c>
-      <c r="M196" s="24">
-        <v>0.20831939999999999</v>
-      </c>
+      <c r="K196" s="55"/>
+      <c r="L196" s="55"/>
+      <c r="M196" s="54"/>
       <c r="N196" s="20">
         <v>95</v>
       </c>
@@ -11185,6 +11224,1590 @@
       <c r="T196" s="20"/>
       <c r="U196" s="20"/>
     </row>
+    <row r="197" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="7">
+        <v>196</v>
+      </c>
+      <c r="B197" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E197" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F197" s="20">
+        <v>6</v>
+      </c>
+      <c r="G197" s="22">
+        <v>23260</v>
+      </c>
+      <c r="H197" s="22">
+        <v>3876</v>
+      </c>
+      <c r="I197" s="23">
+        <v>16.663800999999999</v>
+      </c>
+      <c r="J197" s="40">
+        <v>0</v>
+      </c>
+      <c r="K197" s="23">
+        <v>16.190411000000001</v>
+      </c>
+      <c r="L197" s="23">
+        <v>17.148199999999999</v>
+      </c>
+      <c r="M197" s="24">
+        <v>0.24433849999999999</v>
+      </c>
+      <c r="N197" s="20">
+        <v>95</v>
+      </c>
+      <c r="O197" s="20">
+        <v>100000</v>
+      </c>
+      <c r="P197" s="20"/>
+      <c r="Q197" s="20"/>
+      <c r="R197" s="20"/>
+      <c r="S197" s="20"/>
+      <c r="T197" s="20"/>
+      <c r="U197" s="20"/>
+    </row>
+    <row r="198" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="7">
+        <v>197</v>
+      </c>
+      <c r="B198" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E198" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F198" s="20">
+        <v>7</v>
+      </c>
+      <c r="G198" s="22">
+        <v>23180</v>
+      </c>
+      <c r="H198" s="22">
+        <v>3617</v>
+      </c>
+      <c r="I198" s="23">
+        <v>15.603968999999999</v>
+      </c>
+      <c r="J198" s="40">
+        <v>0</v>
+      </c>
+      <c r="K198" s="23">
+        <v>15.142507999999999</v>
+      </c>
+      <c r="L198" s="23">
+        <v>16.076829</v>
+      </c>
+      <c r="M198" s="24">
+        <v>0.2383517</v>
+      </c>
+      <c r="N198" s="20">
+        <v>95</v>
+      </c>
+      <c r="O198" s="20">
+        <v>100000</v>
+      </c>
+      <c r="P198" s="20"/>
+      <c r="Q198" s="20"/>
+      <c r="R198" s="20"/>
+      <c r="S198" s="20"/>
+      <c r="T198" s="20"/>
+      <c r="U198" s="20"/>
+    </row>
+    <row r="199" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="7">
+        <v>198</v>
+      </c>
+      <c r="B199" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F199" s="20">
+        <v>8</v>
+      </c>
+      <c r="G199" s="22">
+        <v>24193</v>
+      </c>
+      <c r="H199" s="22">
+        <v>3546</v>
+      </c>
+      <c r="I199" s="23">
+        <v>14.657132000000001</v>
+      </c>
+      <c r="J199" s="40">
+        <v>0</v>
+      </c>
+      <c r="K199" s="23">
+        <v>14.217074999999999</v>
+      </c>
+      <c r="L199" s="23">
+        <v>15.108411</v>
+      </c>
+      <c r="M199" s="24">
+        <v>0.2273857</v>
+      </c>
+      <c r="N199" s="20">
+        <v>95</v>
+      </c>
+      <c r="O199" s="20">
+        <v>100000</v>
+      </c>
+      <c r="P199" s="20"/>
+      <c r="Q199" s="20"/>
+      <c r="R199" s="20"/>
+      <c r="S199" s="20"/>
+      <c r="T199" s="20"/>
+      <c r="U199" s="20"/>
+    </row>
+    <row r="200" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="7">
+        <v>199</v>
+      </c>
+      <c r="B200" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E200" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F200" s="20">
+        <v>9</v>
+      </c>
+      <c r="G200" s="22">
+        <v>23609</v>
+      </c>
+      <c r="H200" s="22">
+        <v>3314</v>
+      </c>
+      <c r="I200" s="23">
+        <v>14.03702</v>
+      </c>
+      <c r="J200" s="40">
+        <v>0</v>
+      </c>
+      <c r="K200" s="23">
+        <v>13.599767</v>
+      </c>
+      <c r="L200" s="23">
+        <v>14.485974000000001</v>
+      </c>
+      <c r="M200" s="24">
+        <v>0.22607730000000001</v>
+      </c>
+      <c r="N200" s="20">
+        <v>95</v>
+      </c>
+      <c r="O200" s="20">
+        <v>100000</v>
+      </c>
+      <c r="P200" s="20"/>
+      <c r="Q200" s="20"/>
+      <c r="R200" s="20"/>
+      <c r="S200" s="20"/>
+      <c r="T200" s="20"/>
+      <c r="U200" s="20"/>
+    </row>
+    <row r="201" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="46">
+        <v>200</v>
+      </c>
+      <c r="B201" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C201" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D201" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="E201" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="F201" s="49">
+        <v>10</v>
+      </c>
+      <c r="G201" s="50">
+        <v>24488</v>
+      </c>
+      <c r="H201" s="50">
+        <v>2960</v>
+      </c>
+      <c r="I201" s="51">
+        <v>12.087553</v>
+      </c>
+      <c r="J201" s="52">
+        <v>0</v>
+      </c>
+      <c r="K201" s="51">
+        <v>11.685200999999999</v>
+      </c>
+      <c r="L201" s="51">
+        <v>12.501798000000001</v>
+      </c>
+      <c r="M201" s="53">
+        <v>0.20831939999999999</v>
+      </c>
+      <c r="N201" s="49">
+        <v>95</v>
+      </c>
+      <c r="O201" s="49">
+        <v>100000</v>
+      </c>
+      <c r="P201" s="49"/>
+      <c r="Q201" s="49"/>
+      <c r="R201" s="49"/>
+      <c r="S201" s="49"/>
+      <c r="T201" s="49"/>
+      <c r="U201" s="49"/>
+    </row>
+    <row r="202" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="33">
+        <v>201</v>
+      </c>
+      <c r="B202" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C202" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D202" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E202" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F202" s="40">
+        <v>1</v>
+      </c>
+      <c r="G202" s="41">
+        <v>34353</v>
+      </c>
+      <c r="H202" s="41">
+        <v>7287</v>
+      </c>
+      <c r="I202" s="42">
+        <v>21.212121</v>
+      </c>
+      <c r="J202" s="40">
+        <v>0</v>
+      </c>
+      <c r="K202" s="42">
+        <v>20.783049999999999</v>
+      </c>
+      <c r="L202" s="42">
+        <v>21.647629999999999</v>
+      </c>
+      <c r="M202" s="43">
+        <v>0.22056020000000001</v>
+      </c>
+      <c r="N202" s="40">
+        <v>95</v>
+      </c>
+      <c r="O202" s="40">
+        <v>100000</v>
+      </c>
+      <c r="P202" s="40"/>
+      <c r="Q202" s="40"/>
+      <c r="R202" s="40"/>
+      <c r="S202" s="40"/>
+      <c r="T202" s="40"/>
+      <c r="U202" s="40"/>
+    </row>
+    <row r="203" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="7">
+        <v>202</v>
+      </c>
+      <c r="B203" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E203" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F203" s="20">
+        <v>2</v>
+      </c>
+      <c r="G203" s="22">
+        <v>32112</v>
+      </c>
+      <c r="H203" s="45"/>
+      <c r="I203" s="23">
+        <v>21.428127</v>
+      </c>
+      <c r="J203" s="40">
+        <v>0</v>
+      </c>
+      <c r="K203" s="23">
+        <v>20.982771</v>
+      </c>
+      <c r="L203" s="23">
+        <v>21.880317000000002</v>
+      </c>
+      <c r="M203" s="24">
+        <v>0.22897000000000001</v>
+      </c>
+      <c r="N203" s="20">
+        <v>95</v>
+      </c>
+      <c r="O203" s="20">
+        <v>100000</v>
+      </c>
+      <c r="P203" s="20"/>
+      <c r="Q203" s="20"/>
+      <c r="R203" s="20"/>
+      <c r="S203" s="20"/>
+      <c r="T203" s="20"/>
+      <c r="U203" s="20"/>
+    </row>
+    <row r="204" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="7">
+        <v>203</v>
+      </c>
+      <c r="B204" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E204" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F204" s="20">
+        <v>3</v>
+      </c>
+      <c r="G204" s="22">
+        <v>27715</v>
+      </c>
+      <c r="H204" s="22">
+        <v>5656</v>
+      </c>
+      <c r="I204" s="23">
+        <v>20.407720999999999</v>
+      </c>
+      <c r="J204" s="40">
+        <v>0</v>
+      </c>
+      <c r="K204" s="23">
+        <v>19.937352000000001</v>
+      </c>
+      <c r="L204" s="23">
+        <v>20.886292999999998</v>
+      </c>
+      <c r="M204" s="24">
+        <v>0.2420814</v>
+      </c>
+      <c r="N204" s="20">
+        <v>95</v>
+      </c>
+      <c r="O204" s="20">
+        <v>100000</v>
+      </c>
+      <c r="P204" s="20"/>
+      <c r="Q204" s="20"/>
+      <c r="R204" s="20"/>
+      <c r="S204" s="20"/>
+      <c r="T204" s="20"/>
+      <c r="U204" s="20"/>
+    </row>
+    <row r="205" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="7">
+        <v>204</v>
+      </c>
+      <c r="B205" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E205" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F205" s="20">
+        <v>4</v>
+      </c>
+      <c r="G205" s="22">
+        <v>25372</v>
+      </c>
+      <c r="H205" s="22">
+        <v>4868</v>
+      </c>
+      <c r="I205" s="23">
+        <v>19.186505</v>
+      </c>
+      <c r="J205" s="40">
+        <v>0</v>
+      </c>
+      <c r="K205" s="23">
+        <v>18.706665000000001</v>
+      </c>
+      <c r="L205" s="23">
+        <v>19.675674000000001</v>
+      </c>
+      <c r="M205" s="24">
+        <v>0.2472007</v>
+      </c>
+      <c r="N205" s="20">
+        <v>95</v>
+      </c>
+      <c r="O205" s="20">
+        <v>100000</v>
+      </c>
+      <c r="P205" s="20"/>
+      <c r="Q205" s="20"/>
+      <c r="R205" s="20"/>
+      <c r="S205" s="20"/>
+      <c r="T205" s="20"/>
+      <c r="U205" s="20"/>
+    </row>
+    <row r="206" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="7">
+        <v>205</v>
+      </c>
+      <c r="B206" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E206" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F206" s="20">
+        <v>5</v>
+      </c>
+      <c r="G206" s="45"/>
+      <c r="H206" s="22">
+        <v>4176</v>
+      </c>
+      <c r="I206" s="23">
+        <v>17.480848999999999</v>
+      </c>
+      <c r="J206" s="40">
+        <v>0</v>
+      </c>
+      <c r="K206" s="23">
+        <v>17.004463999999999</v>
+      </c>
+      <c r="L206" s="23">
+        <v>17.967690999999999</v>
+      </c>
+      <c r="M206" s="24">
+        <v>0.24572559999999999</v>
+      </c>
+      <c r="N206" s="20">
+        <v>95</v>
+      </c>
+      <c r="O206" s="20">
+        <v>100000</v>
+      </c>
+      <c r="P206" s="20"/>
+      <c r="Q206" s="20"/>
+      <c r="R206" s="20"/>
+      <c r="S206" s="20"/>
+      <c r="T206" s="20"/>
+      <c r="U206" s="20"/>
+    </row>
+    <row r="207" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="7">
+        <v>206</v>
+      </c>
+      <c r="B207" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E207" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F207" s="20">
+        <v>6</v>
+      </c>
+      <c r="G207" s="22">
+        <v>23260</v>
+      </c>
+      <c r="H207" s="22">
+        <v>3876</v>
+      </c>
+      <c r="I207" s="23">
+        <v>16.663800999999999</v>
+      </c>
+      <c r="J207" s="40">
+        <v>0</v>
+      </c>
+      <c r="K207" s="23">
+        <v>16.190411000000001</v>
+      </c>
+      <c r="L207" s="23">
+        <v>17.148199999999999</v>
+      </c>
+      <c r="M207" s="24">
+        <v>0.24433849999999999</v>
+      </c>
+      <c r="N207" s="20">
+        <v>95</v>
+      </c>
+      <c r="O207" s="20">
+        <v>100000</v>
+      </c>
+      <c r="P207" s="20"/>
+      <c r="Q207" s="20"/>
+      <c r="R207" s="20"/>
+      <c r="S207" s="20"/>
+      <c r="T207" s="20"/>
+      <c r="U207" s="20"/>
+    </row>
+    <row r="208" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="7">
+        <v>207</v>
+      </c>
+      <c r="B208" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D208" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E208" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F208" s="20">
+        <v>7</v>
+      </c>
+      <c r="G208" s="22">
+        <v>23180</v>
+      </c>
+      <c r="H208" s="22">
+        <v>3617</v>
+      </c>
+      <c r="I208" s="23">
+        <v>15.603968999999999</v>
+      </c>
+      <c r="J208" s="40">
+        <v>0</v>
+      </c>
+      <c r="K208" s="23">
+        <v>15.142507999999999</v>
+      </c>
+      <c r="L208" s="23">
+        <v>16.076829</v>
+      </c>
+      <c r="M208" s="24">
+        <v>0.2383517</v>
+      </c>
+      <c r="N208" s="20">
+        <v>95</v>
+      </c>
+      <c r="O208" s="20">
+        <v>100000</v>
+      </c>
+      <c r="P208" s="20"/>
+      <c r="Q208" s="20"/>
+      <c r="R208" s="20"/>
+      <c r="S208" s="20"/>
+      <c r="T208" s="20"/>
+      <c r="U208" s="20"/>
+    </row>
+    <row r="209" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="7">
+        <v>208</v>
+      </c>
+      <c r="B209" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D209" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E209" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F209" s="20">
+        <v>8</v>
+      </c>
+      <c r="G209" s="22">
+        <v>24193</v>
+      </c>
+      <c r="H209" s="22">
+        <v>3546</v>
+      </c>
+      <c r="I209" s="55"/>
+      <c r="J209" s="40">
+        <v>0</v>
+      </c>
+      <c r="K209" s="23">
+        <v>14.217074999999999</v>
+      </c>
+      <c r="L209" s="23">
+        <v>15.108411</v>
+      </c>
+      <c r="M209" s="24">
+        <v>0.2273857</v>
+      </c>
+      <c r="N209" s="20">
+        <v>95</v>
+      </c>
+      <c r="O209" s="20">
+        <v>100000</v>
+      </c>
+      <c r="P209" s="20"/>
+      <c r="Q209" s="20"/>
+      <c r="R209" s="20"/>
+      <c r="S209" s="20"/>
+      <c r="T209" s="20"/>
+      <c r="U209" s="20"/>
+    </row>
+    <row r="210" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="7">
+        <v>209</v>
+      </c>
+      <c r="B210" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E210" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F210" s="20">
+        <v>9</v>
+      </c>
+      <c r="G210" s="22">
+        <v>23609</v>
+      </c>
+      <c r="H210" s="22">
+        <v>3314</v>
+      </c>
+      <c r="I210" s="23">
+        <v>14.03702</v>
+      </c>
+      <c r="J210" s="40">
+        <v>0</v>
+      </c>
+      <c r="K210" s="23">
+        <v>13.599767</v>
+      </c>
+      <c r="L210" s="23">
+        <v>14.485974000000001</v>
+      </c>
+      <c r="M210" s="24">
+        <v>0.22607730000000001</v>
+      </c>
+      <c r="N210" s="20">
+        <v>95</v>
+      </c>
+      <c r="O210" s="20">
+        <v>100000</v>
+      </c>
+      <c r="P210" s="20"/>
+      <c r="Q210" s="20"/>
+      <c r="R210" s="20"/>
+      <c r="S210" s="20"/>
+      <c r="T210" s="20"/>
+      <c r="U210" s="20"/>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A211" s="46">
+        <v>210</v>
+      </c>
+      <c r="B211" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C211" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D211" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="E211" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="F211" s="49">
+        <v>10</v>
+      </c>
+      <c r="G211" s="50">
+        <v>24488</v>
+      </c>
+      <c r="H211" s="50">
+        <v>2960</v>
+      </c>
+      <c r="I211" s="51">
+        <v>12.087553</v>
+      </c>
+      <c r="J211" s="52">
+        <v>0</v>
+      </c>
+      <c r="K211" s="51">
+        <v>11.685200999999999</v>
+      </c>
+      <c r="L211" s="51">
+        <v>12.501798000000001</v>
+      </c>
+      <c r="M211" s="53">
+        <v>0.20831939999999999</v>
+      </c>
+      <c r="N211" s="49">
+        <v>95</v>
+      </c>
+      <c r="O211" s="49">
+        <v>100000</v>
+      </c>
+      <c r="P211" s="49"/>
+      <c r="Q211" s="49"/>
+      <c r="R211" s="49"/>
+      <c r="S211" s="49"/>
+      <c r="T211" s="49"/>
+      <c r="U211" s="49"/>
+    </row>
+    <row r="212" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="33">
+        <v>211</v>
+      </c>
+      <c r="B212" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C212" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D212" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E212" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F212" s="40">
+        <v>1</v>
+      </c>
+      <c r="G212" s="41">
+        <v>34353</v>
+      </c>
+      <c r="H212" s="41">
+        <v>7287</v>
+      </c>
+      <c r="I212" s="42">
+        <v>21.212121</v>
+      </c>
+      <c r="J212" s="40">
+        <v>0</v>
+      </c>
+      <c r="K212" s="42">
+        <v>20.783049999999999</v>
+      </c>
+      <c r="L212" s="42">
+        <v>21.647629999999999</v>
+      </c>
+      <c r="M212" s="43">
+        <v>0.22056020000000001</v>
+      </c>
+      <c r="N212" s="40">
+        <v>95</v>
+      </c>
+      <c r="O212" s="40">
+        <v>100000</v>
+      </c>
+      <c r="P212" s="40"/>
+      <c r="Q212" s="40"/>
+      <c r="R212" s="40"/>
+      <c r="S212" s="40"/>
+      <c r="T212" s="40"/>
+      <c r="U212" s="40"/>
+    </row>
+    <row r="213" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="7">
+        <v>212</v>
+      </c>
+      <c r="B213" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E213" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F213" s="20">
+        <v>2</v>
+      </c>
+      <c r="G213" s="22">
+        <v>32112</v>
+      </c>
+      <c r="H213" s="41">
+        <v>7287</v>
+      </c>
+      <c r="I213" s="23">
+        <v>21.428127</v>
+      </c>
+      <c r="J213" s="40">
+        <v>0</v>
+      </c>
+      <c r="K213" s="23">
+        <v>20.982771</v>
+      </c>
+      <c r="L213" s="23">
+        <v>21.880317000000002</v>
+      </c>
+      <c r="M213" s="24">
+        <v>0.22897000000000001</v>
+      </c>
+      <c r="N213" s="20">
+        <v>95</v>
+      </c>
+      <c r="O213" s="20">
+        <v>100000</v>
+      </c>
+      <c r="P213" s="20"/>
+      <c r="Q213" s="20"/>
+      <c r="R213" s="20"/>
+      <c r="S213" s="20"/>
+      <c r="T213" s="20"/>
+      <c r="U213" s="20"/>
+    </row>
+    <row r="214" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="7">
+        <v>213</v>
+      </c>
+      <c r="B214" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D214" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E214" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F214" s="20">
+        <v>3</v>
+      </c>
+      <c r="G214" s="22">
+        <v>27715</v>
+      </c>
+      <c r="H214" s="22">
+        <v>5656</v>
+      </c>
+      <c r="I214" s="23">
+        <v>20.407720999999999</v>
+      </c>
+      <c r="J214" s="40">
+        <v>0</v>
+      </c>
+      <c r="K214" s="23">
+        <v>19.937352000000001</v>
+      </c>
+      <c r="L214" s="23">
+        <v>20.886292999999998</v>
+      </c>
+      <c r="M214" s="24">
+        <v>0.2420814</v>
+      </c>
+      <c r="N214" s="20">
+        <v>95</v>
+      </c>
+      <c r="O214" s="20">
+        <v>100000</v>
+      </c>
+      <c r="P214" s="20"/>
+      <c r="Q214" s="20"/>
+      <c r="R214" s="20"/>
+      <c r="S214" s="20"/>
+      <c r="T214" s="20"/>
+      <c r="U214" s="20"/>
+    </row>
+    <row r="215" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="7">
+        <v>214</v>
+      </c>
+      <c r="B215" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E215" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F215" s="20">
+        <v>4</v>
+      </c>
+      <c r="G215" s="22">
+        <v>25372</v>
+      </c>
+      <c r="H215" s="22">
+        <v>4868</v>
+      </c>
+      <c r="I215" s="23">
+        <v>19.186505</v>
+      </c>
+      <c r="J215" s="40">
+        <v>0</v>
+      </c>
+      <c r="K215" s="23">
+        <v>18.706665000000001</v>
+      </c>
+      <c r="L215" s="23">
+        <v>19.675674000000001</v>
+      </c>
+      <c r="M215" s="24">
+        <v>0.2472007</v>
+      </c>
+      <c r="N215" s="20">
+        <v>95</v>
+      </c>
+      <c r="O215" s="20">
+        <v>100000</v>
+      </c>
+      <c r="P215" s="20"/>
+      <c r="Q215" s="20"/>
+      <c r="R215" s="20"/>
+      <c r="S215" s="20"/>
+      <c r="T215" s="20"/>
+      <c r="U215" s="20"/>
+    </row>
+    <row r="216" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="7">
+        <v>215</v>
+      </c>
+      <c r="B216" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E216" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F216" s="20">
+        <v>5</v>
+      </c>
+      <c r="G216" s="22">
+        <v>25372</v>
+      </c>
+      <c r="H216" s="22">
+        <v>4176</v>
+      </c>
+      <c r="I216" s="23">
+        <v>17.480848999999999</v>
+      </c>
+      <c r="J216" s="40">
+        <v>0</v>
+      </c>
+      <c r="K216" s="23">
+        <v>17.004463999999999</v>
+      </c>
+      <c r="L216" s="23">
+        <v>17.967690999999999</v>
+      </c>
+      <c r="M216" s="24">
+        <v>0.24572559999999999</v>
+      </c>
+      <c r="N216" s="20">
+        <v>95</v>
+      </c>
+      <c r="O216" s="20">
+        <v>100000</v>
+      </c>
+      <c r="P216" s="20"/>
+      <c r="Q216" s="20"/>
+      <c r="R216" s="20"/>
+      <c r="S216" s="20"/>
+      <c r="T216" s="20"/>
+      <c r="U216" s="20"/>
+    </row>
+    <row r="217" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="7">
+        <v>216</v>
+      </c>
+      <c r="B217" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D217" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E217" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F217" s="20">
+        <v>6</v>
+      </c>
+      <c r="G217" s="22">
+        <v>23260</v>
+      </c>
+      <c r="H217" s="22">
+        <v>3876</v>
+      </c>
+      <c r="I217" s="23">
+        <v>16.663800999999999</v>
+      </c>
+      <c r="J217" s="40">
+        <v>0</v>
+      </c>
+      <c r="K217" s="23">
+        <v>16.190411000000001</v>
+      </c>
+      <c r="L217" s="23">
+        <v>17.148199999999999</v>
+      </c>
+      <c r="M217" s="24">
+        <v>0.24433849999999999</v>
+      </c>
+      <c r="N217" s="20">
+        <v>95</v>
+      </c>
+      <c r="O217" s="20">
+        <v>100000</v>
+      </c>
+      <c r="P217" s="20"/>
+      <c r="Q217" s="20"/>
+      <c r="R217" s="20"/>
+      <c r="S217" s="20"/>
+      <c r="T217" s="20"/>
+      <c r="U217" s="20"/>
+    </row>
+    <row r="218" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="7">
+        <v>217</v>
+      </c>
+      <c r="B218" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D218" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E218" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F218" s="20">
+        <v>7</v>
+      </c>
+      <c r="G218" s="22">
+        <v>23180</v>
+      </c>
+      <c r="H218" s="22">
+        <v>3617</v>
+      </c>
+      <c r="I218" s="23">
+        <v>15.603968999999999</v>
+      </c>
+      <c r="J218" s="40">
+        <v>0</v>
+      </c>
+      <c r="K218" s="23">
+        <v>15.142507999999999</v>
+      </c>
+      <c r="L218" s="23">
+        <v>16.076829</v>
+      </c>
+      <c r="M218" s="24">
+        <v>0.2383517</v>
+      </c>
+      <c r="N218" s="20">
+        <v>95</v>
+      </c>
+      <c r="O218" s="20">
+        <v>100000</v>
+      </c>
+      <c r="P218" s="20"/>
+      <c r="Q218" s="20"/>
+      <c r="R218" s="20"/>
+      <c r="S218" s="20"/>
+      <c r="T218" s="20"/>
+      <c r="U218" s="20"/>
+    </row>
+    <row r="219" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="7">
+        <v>218</v>
+      </c>
+      <c r="B219" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D219" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E219" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F219" s="20">
+        <v>8</v>
+      </c>
+      <c r="G219" s="22">
+        <v>24193</v>
+      </c>
+      <c r="H219" s="22">
+        <v>3546</v>
+      </c>
+      <c r="I219" s="23">
+        <v>15.603968999999999</v>
+      </c>
+      <c r="J219" s="40">
+        <v>0</v>
+      </c>
+      <c r="K219" s="23">
+        <v>14.217074999999999</v>
+      </c>
+      <c r="L219" s="23">
+        <v>15.108411</v>
+      </c>
+      <c r="M219" s="24">
+        <v>0.2273857</v>
+      </c>
+      <c r="N219" s="20">
+        <v>95</v>
+      </c>
+      <c r="O219" s="20">
+        <v>100000</v>
+      </c>
+      <c r="P219" s="20"/>
+      <c r="Q219" s="20"/>
+      <c r="R219" s="20"/>
+      <c r="S219" s="20"/>
+      <c r="T219" s="20"/>
+      <c r="U219" s="20"/>
+    </row>
+    <row r="220" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="7">
+        <v>219</v>
+      </c>
+      <c r="B220" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D220" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E220" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F220" s="20">
+        <v>9</v>
+      </c>
+      <c r="G220" s="22">
+        <v>23609</v>
+      </c>
+      <c r="H220" s="22">
+        <v>3314</v>
+      </c>
+      <c r="I220" s="23">
+        <v>14.03702</v>
+      </c>
+      <c r="J220" s="40">
+        <v>0</v>
+      </c>
+      <c r="K220" s="23">
+        <v>13.599767</v>
+      </c>
+      <c r="L220" s="23">
+        <v>14.485974000000001</v>
+      </c>
+      <c r="M220" s="24">
+        <v>0.22607730000000001</v>
+      </c>
+      <c r="N220" s="20">
+        <v>95</v>
+      </c>
+      <c r="O220" s="20">
+        <v>100000</v>
+      </c>
+      <c r="P220" s="20"/>
+      <c r="Q220" s="20"/>
+      <c r="R220" s="20"/>
+      <c r="S220" s="20"/>
+      <c r="T220" s="20"/>
+      <c r="U220" s="20"/>
+    </row>
+    <row r="221" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="7">
+        <v>220</v>
+      </c>
+      <c r="B221" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D221" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E221" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F221" s="20">
+        <v>10</v>
+      </c>
+      <c r="G221" s="22">
+        <v>24488</v>
+      </c>
+      <c r="H221" s="22">
+        <v>2960</v>
+      </c>
+      <c r="I221" s="23">
+        <v>12.087553</v>
+      </c>
+      <c r="J221" s="40">
+        <v>0</v>
+      </c>
+      <c r="K221" s="23">
+        <v>11.685200999999999</v>
+      </c>
+      <c r="L221" s="23">
+        <v>12.501798000000001</v>
+      </c>
+      <c r="M221" s="24">
+        <v>0.20831939999999999</v>
+      </c>
+      <c r="N221" s="20">
+        <v>95</v>
+      </c>
+      <c r="O221" s="20">
+        <v>100000</v>
+      </c>
+      <c r="P221" s="20"/>
+      <c r="Q221" s="20"/>
+      <c r="R221" s="20"/>
+      <c r="S221" s="20"/>
+      <c r="T221" s="20"/>
+      <c r="U221" s="20"/>
+    </row>
+    <row r="222" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="7">
+        <v>221</v>
+      </c>
+      <c r="B222" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D222" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E222" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F222" s="20">
+        <v>11</v>
+      </c>
+      <c r="G222" s="22">
+        <v>23260</v>
+      </c>
+      <c r="H222" s="22">
+        <v>3876</v>
+      </c>
+      <c r="I222" s="23">
+        <v>16.663800999999999</v>
+      </c>
+      <c r="J222" s="40">
+        <v>0</v>
+      </c>
+      <c r="K222" s="23">
+        <v>16.190411000000001</v>
+      </c>
+      <c r="L222" s="23">
+        <v>17.148199999999999</v>
+      </c>
+      <c r="M222" s="24">
+        <v>0.24433849999999999</v>
+      </c>
+      <c r="N222" s="20">
+        <v>95</v>
+      </c>
+      <c r="O222" s="20">
+        <v>100000</v>
+      </c>
+      <c r="P222" s="20"/>
+      <c r="Q222" s="20"/>
+      <c r="R222" s="20"/>
+      <c r="S222" s="20"/>
+      <c r="T222" s="20"/>
+      <c r="U222" s="20"/>
+    </row>
+    <row r="223" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="7">
+        <v>222</v>
+      </c>
+      <c r="B223" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D223" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E223" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F223" s="20">
+        <v>12</v>
+      </c>
+      <c r="G223" s="22">
+        <v>23180</v>
+      </c>
+      <c r="H223" s="22">
+        <v>3617</v>
+      </c>
+      <c r="I223" s="23">
+        <v>15.603968999999999</v>
+      </c>
+      <c r="J223" s="40">
+        <v>0</v>
+      </c>
+      <c r="K223" s="23">
+        <v>15.142507999999999</v>
+      </c>
+      <c r="L223" s="23">
+        <v>16.076829</v>
+      </c>
+      <c r="M223" s="24">
+        <v>0.2383517</v>
+      </c>
+      <c r="N223" s="20">
+        <v>95</v>
+      </c>
+      <c r="O223" s="20">
+        <v>100000</v>
+      </c>
+      <c r="P223" s="20"/>
+      <c r="Q223" s="20"/>
+      <c r="R223" s="20"/>
+      <c r="S223" s="20"/>
+      <c r="T223" s="20"/>
+      <c r="U223" s="20"/>
+    </row>
+    <row r="224" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="7">
+        <v>223</v>
+      </c>
+      <c r="B224" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D224" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E224" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F224" s="20">
+        <v>13</v>
+      </c>
+      <c r="G224" s="22">
+        <v>24193</v>
+      </c>
+      <c r="H224" s="22">
+        <v>3546</v>
+      </c>
+      <c r="I224" s="23">
+        <v>15.603968999999999</v>
+      </c>
+      <c r="J224" s="40">
+        <v>0</v>
+      </c>
+      <c r="K224" s="23">
+        <v>14.217074999999999</v>
+      </c>
+      <c r="L224" s="23">
+        <v>15.108411</v>
+      </c>
+      <c r="M224" s="24">
+        <v>0.2273857</v>
+      </c>
+      <c r="N224" s="20">
+        <v>95</v>
+      </c>
+      <c r="O224" s="20">
+        <v>100000</v>
+      </c>
+      <c r="P224" s="20"/>
+      <c r="Q224" s="20"/>
+      <c r="R224" s="20"/>
+      <c r="S224" s="20"/>
+      <c r="T224" s="20"/>
+      <c r="U224" s="20"/>
+    </row>
+    <row r="225" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="7">
+        <v>224</v>
+      </c>
+      <c r="B225" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D225" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E225" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F225" s="20">
+        <v>14</v>
+      </c>
+      <c r="G225" s="22">
+        <v>23609</v>
+      </c>
+      <c r="H225" s="22">
+        <v>3314</v>
+      </c>
+      <c r="I225" s="23">
+        <v>14.03702</v>
+      </c>
+      <c r="J225" s="40">
+        <v>0</v>
+      </c>
+      <c r="K225" s="23">
+        <v>13.599767</v>
+      </c>
+      <c r="L225" s="23">
+        <v>14.485974000000001</v>
+      </c>
+      <c r="M225" s="24">
+        <v>0.22607730000000001</v>
+      </c>
+      <c r="N225" s="20">
+        <v>95</v>
+      </c>
+      <c r="O225" s="20">
+        <v>100000</v>
+      </c>
+      <c r="P225" s="20"/>
+      <c r="Q225" s="20"/>
+      <c r="R225" s="20"/>
+      <c r="S225" s="20"/>
+      <c r="T225" s="20"/>
+      <c r="U225" s="20"/>
+    </row>
+    <row r="226" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="7">
+        <v>225</v>
+      </c>
+      <c r="B226" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D226" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E226" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F226" s="20">
+        <v>15</v>
+      </c>
+      <c r="G226" s="22">
+        <v>24488</v>
+      </c>
+      <c r="H226" s="22">
+        <v>2960</v>
+      </c>
+      <c r="I226" s="23">
+        <v>12.087553</v>
+      </c>
+      <c r="J226" s="40">
+        <v>0</v>
+      </c>
+      <c r="K226" s="23">
+        <v>11.685200999999999</v>
+      </c>
+      <c r="L226" s="23">
+        <v>12.501798000000001</v>
+      </c>
+      <c r="M226" s="24">
+        <v>0.20831939999999999</v>
+      </c>
+      <c r="N226" s="20">
+        <v>95</v>
+      </c>
+      <c r="O226" s="20">
+        <v>100000</v>
+      </c>
+      <c r="P226" s="20"/>
+      <c r="Q226" s="20"/>
+      <c r="R226" s="20"/>
+      <c r="S226" s="20"/>
+      <c r="T226" s="20"/>
+      <c r="U226" s="20"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tests/testthat/testdata_SII.xlsx
+++ b/tests/testthat/testdata_SII.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emma.clegg\Documents\PHEindicatormethods\tests\testthat\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{05381CB5-0ECB-4537-A9A2-DEB933F9C8FD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="21075" windowHeight="10545"/>
+    <workbookView xWindow="240" yWindow="78" windowWidth="21078" windowHeight="10548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata_SII" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="179017" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -142,7 +148,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
@@ -501,20 +507,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Comma 2" xfId="2"/>
-    <cellStyle name="Comma 3" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4"/>
-    <cellStyle name="Normal 3" xfId="1"/>
-    <cellStyle name="Normal 5" xfId="5"/>
-    <cellStyle name="Percent 2" xfId="6"/>
-    <cellStyle name="Percent 3" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Percent 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Percent 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -563,7 +572,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -596,9 +605,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -631,6 +657,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -806,35 +849,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F114" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R130" sqref="R130"/>
+      <selection pane="bottomRight" activeCell="R118" sqref="R118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="17.26171875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="47.15625" style="6" customWidth="1"/>
     <col min="3" max="3" width="13" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="61" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" style="62" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="63" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="63" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="63" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="64" customWidth="1"/>
-    <col min="14" max="21" width="12.7109375" style="6" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="4" width="12.41796875" style="61" customWidth="1"/>
+    <col min="5" max="5" width="10.68359375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.68359375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.68359375" style="62" customWidth="1"/>
+    <col min="9" max="9" width="12.68359375" style="63" customWidth="1"/>
+    <col min="10" max="10" width="12.68359375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11.578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.41796875" style="63" customWidth="1"/>
+    <col min="13" max="13" width="12.68359375" style="64" customWidth="1"/>
+    <col min="14" max="21" width="12.68359375" style="6" customWidth="1"/>
+    <col min="22" max="16384" width="9.15625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -884,13 +927,13 @@
         <v>15</v>
       </c>
       <c r="Q1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>19</v>
@@ -899,7 +942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -947,13 +990,13 @@
         <v>6.9346164736688189</v>
       </c>
       <c r="Q2" s="7">
+        <v>1.0888180804446217</v>
+      </c>
+      <c r="R2" s="7">
         <v>3.1275946176508169</v>
       </c>
-      <c r="R2" s="7">
+      <c r="S2" s="7">
         <v>10.7586873680794</v>
-      </c>
-      <c r="S2" s="7">
-        <v>1.0888180804446217</v>
       </c>
       <c r="T2" s="7">
         <v>1.0383690591642838</v>
@@ -962,7 +1005,7 @@
         <v>1.1412993360251238</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1013,7 +1056,7 @@
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1064,7 +1107,7 @@
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1115,7 +1158,7 @@
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
     </row>
-    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1166,7 +1209,7 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1217,7 +1260,7 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1268,7 +1311,7 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1319,7 +1362,7 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1370,7 +1413,7 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1421,7 +1464,7 @@
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
     </row>
-    <row r="12" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -1469,13 +1512,13 @@
         <v>12.547846636351798</v>
       </c>
       <c r="Q12" s="12">
+        <v>1.180885620848795</v>
+      </c>
+      <c r="R12" s="12">
         <v>11.936156426792138</v>
       </c>
-      <c r="R12" s="12">
+      <c r="S12" s="12">
         <v>13.163020132396579</v>
-      </c>
-      <c r="S12" s="12">
-        <v>1.180885620848795</v>
       </c>
       <c r="T12" s="12">
         <v>1.1713706914325628</v>
@@ -1484,7 +1527,7 @@
         <v>1.1904396357244886</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -1535,7 +1578,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
     </row>
-    <row r="14" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -1586,7 +1629,7 @@
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
     </row>
-    <row r="15" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -1637,7 +1680,7 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
     </row>
-    <row r="16" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -1688,7 +1731,7 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
     </row>
-    <row r="17" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -1739,7 +1782,7 @@
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
     </row>
-    <row r="18" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -1790,7 +1833,7 @@
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
     </row>
-    <row r="19" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -1841,7 +1884,7 @@
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
     </row>
-    <row r="20" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -1892,7 +1935,7 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
     </row>
-    <row r="21" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -1943,7 +1986,7 @@
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
     </row>
-    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -1991,13 +2034,13 @@
         <v>6.9346164736688189</v>
       </c>
       <c r="Q22" s="7">
+        <v>1.0888180804446217</v>
+      </c>
+      <c r="R22" s="7">
         <v>1.9243274437391116</v>
       </c>
-      <c r="R22" s="7">
+      <c r="S22" s="7">
         <v>11.99208403800279</v>
-      </c>
-      <c r="S22" s="7">
-        <v>1.0888180804446217</v>
       </c>
       <c r="T22" s="7">
         <v>1.0234148326541768</v>
@@ -2006,7 +2049,7 @@
         <v>1.1587677685047233</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2057,7 +2100,7 @@
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
     </row>
-    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -2108,7 +2151,7 @@
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
     </row>
-    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -2159,7 +2202,7 @@
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
     </row>
-    <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -2210,7 +2253,7 @@
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
     </row>
-    <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -2261,7 +2304,7 @@
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
     </row>
-    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -2312,7 +2355,7 @@
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
     </row>
-    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -2363,7 +2406,7 @@
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
     </row>
-    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -2414,7 +2457,7 @@
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
     </row>
-    <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -2465,7 +2508,7 @@
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
     </row>
-    <row r="32" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="12">
         <v>31</v>
       </c>
@@ -2513,13 +2556,13 @@
         <v>12.547846636351798</v>
       </c>
       <c r="Q32" s="12">
+        <v>1.180885620848795</v>
+      </c>
+      <c r="R32" s="12">
         <v>11.743647833205888</v>
       </c>
-      <c r="R32" s="12">
+      <c r="S32" s="12">
         <v>13.347203652453951</v>
-      </c>
-      <c r="S32" s="12">
-        <v>1.180885620848795</v>
       </c>
       <c r="T32" s="12">
         <v>1.168320603472105</v>
@@ -2528,7 +2571,7 @@
         <v>1.1934312559878586</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="12">
         <v>32</v>
       </c>
@@ -2579,7 +2622,7 @@
       <c r="T33" s="12"/>
       <c r="U33" s="12"/>
     </row>
-    <row r="34" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A34" s="12">
         <v>33</v>
       </c>
@@ -2630,7 +2673,7 @@
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
     </row>
-    <row r="35" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A35" s="12">
         <v>34</v>
       </c>
@@ -2681,7 +2724,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="12"/>
     </row>
-    <row r="36" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A36" s="12">
         <v>35</v>
       </c>
@@ -2732,7 +2775,7 @@
       <c r="T36" s="12"/>
       <c r="U36" s="12"/>
     </row>
-    <row r="37" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A37" s="12">
         <v>36</v>
       </c>
@@ -2783,7 +2826,7 @@
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
     </row>
-    <row r="38" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A38" s="12">
         <v>37</v>
       </c>
@@ -2834,7 +2877,7 @@
       <c r="T38" s="12"/>
       <c r="U38" s="12"/>
     </row>
-    <row r="39" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A39" s="12">
         <v>38</v>
       </c>
@@ -2885,7 +2928,7 @@
       <c r="T39" s="12"/>
       <c r="U39" s="12"/>
     </row>
-    <row r="40" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A40" s="12">
         <v>39</v>
       </c>
@@ -2936,7 +2979,7 @@
       <c r="T40" s="12"/>
       <c r="U40" s="12"/>
     </row>
-    <row r="41" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A41" s="12">
         <v>40</v>
       </c>
@@ -2987,7 +3030,7 @@
       <c r="T41" s="12"/>
       <c r="U41" s="12"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -3035,13 +3078,13 @@
         <v>6.9346164736688189</v>
       </c>
       <c r="Q42" s="7">
+        <v>1.0888180804446217</v>
+      </c>
+      <c r="R42" s="7">
         <v>3.1421243989944716</v>
       </c>
-      <c r="R42" s="7">
+      <c r="S42" s="7">
         <v>10.805621466984828</v>
-      </c>
-      <c r="S42" s="7">
-        <v>1.0888180804446217</v>
       </c>
       <c r="T42" s="7">
         <v>1.0391386444860844</v>
@@ -3050,7 +3093,7 @@
         <v>1.1407094261348529</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -3101,7 +3144,7 @@
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
     </row>
-    <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -3152,7 +3195,7 @@
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
     </row>
-    <row r="45" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -3203,7 +3246,7 @@
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
     </row>
-    <row r="46" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -3254,7 +3297,7 @@
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
     </row>
-    <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -3305,7 +3348,7 @@
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
     </row>
-    <row r="48" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -3356,7 +3399,7 @@
       <c r="T48" s="7"/>
       <c r="U48" s="7"/>
     </row>
-    <row r="49" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -3407,7 +3450,7 @@
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
     </row>
-    <row r="50" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -3458,7 +3501,7 @@
       <c r="T50" s="7"/>
       <c r="U50" s="7"/>
     </row>
-    <row r="51" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -3509,7 +3552,7 @@
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
     </row>
-    <row r="52" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A52" s="12">
         <v>51</v>
       </c>
@@ -3557,13 +3600,13 @@
         <v>12.547846636351798</v>
       </c>
       <c r="Q52" s="12">
+        <v>1.180885620848795</v>
+      </c>
+      <c r="R52" s="12">
         <v>11.937447333014509</v>
       </c>
-      <c r="R52" s="12">
+      <c r="S52" s="12">
         <v>13.16492301413779</v>
-      </c>
-      <c r="S52" s="12">
-        <v>1.180885620848795</v>
       </c>
       <c r="T52" s="12">
         <v>1.1713692255460837</v>
@@ -3572,7 +3615,7 @@
         <v>1.1905995616725575</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A53" s="12">
         <v>52</v>
       </c>
@@ -3623,7 +3666,7 @@
       <c r="T53" s="12"/>
       <c r="U53" s="12"/>
     </row>
-    <row r="54" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A54" s="12">
         <v>53</v>
       </c>
@@ -3674,7 +3717,7 @@
       <c r="T54" s="12"/>
       <c r="U54" s="12"/>
     </row>
-    <row r="55" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A55" s="12">
         <v>54</v>
       </c>
@@ -3725,7 +3768,7 @@
       <c r="T55" s="12"/>
       <c r="U55" s="12"/>
     </row>
-    <row r="56" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A56" s="12">
         <v>55</v>
       </c>
@@ -3776,7 +3819,7 @@
       <c r="T56" s="12"/>
       <c r="U56" s="12"/>
     </row>
-    <row r="57" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A57" s="12">
         <v>56</v>
       </c>
@@ -3827,7 +3870,7 @@
       <c r="T57" s="12"/>
       <c r="U57" s="12"/>
     </row>
-    <row r="58" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A58" s="12">
         <v>57</v>
       </c>
@@ -3878,7 +3921,7 @@
       <c r="T58" s="12"/>
       <c r="U58" s="12"/>
     </row>
-    <row r="59" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A59" s="12">
         <v>58</v>
       </c>
@@ -3929,7 +3972,7 @@
       <c r="T59" s="12"/>
       <c r="U59" s="12"/>
     </row>
-    <row r="60" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A60" s="12">
         <v>59</v>
       </c>
@@ -3980,7 +4023,7 @@
       <c r="T60" s="12"/>
       <c r="U60" s="12"/>
     </row>
-    <row r="61" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A61" s="12">
         <v>60</v>
       </c>
@@ -4031,7 +4074,7 @@
       <c r="T61" s="12"/>
       <c r="U61" s="12"/>
     </row>
-    <row r="62" spans="1:21" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" s="25" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A62" s="20">
         <v>61</v>
       </c>
@@ -4078,15 +4121,15 @@
       <c r="P62" s="20">
         <v>7.9193341471008738</v>
       </c>
-      <c r="Q62" s="20"/>
+      <c r="Q62" s="20">
+        <v>1.1037116952527257</v>
+      </c>
       <c r="R62" s="20"/>
-      <c r="S62" s="20">
-        <v>1.1037116952527257</v>
-      </c>
+      <c r="S62" s="20"/>
       <c r="T62" s="20"/>
       <c r="U62" s="20"/>
     </row>
-    <row r="63" spans="1:21" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" s="25" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A63" s="20">
         <v>62</v>
       </c>
@@ -4137,7 +4180,7 @@
       <c r="T63" s="20"/>
       <c r="U63" s="20"/>
     </row>
-    <row r="64" spans="1:21" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" s="25" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A64" s="20">
         <v>63</v>
       </c>
@@ -4188,7 +4231,7 @@
       <c r="T64" s="20"/>
       <c r="U64" s="20"/>
     </row>
-    <row r="65" spans="1:21" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" s="25" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A65" s="20">
         <v>64</v>
       </c>
@@ -4239,7 +4282,7 @@
       <c r="T65" s="20"/>
       <c r="U65" s="20"/>
     </row>
-    <row r="66" spans="1:21" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" s="25" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A66" s="20">
         <v>65</v>
       </c>
@@ -4290,7 +4333,7 @@
       <c r="T66" s="20"/>
       <c r="U66" s="20"/>
     </row>
-    <row r="67" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A67" s="12">
         <v>66</v>
       </c>
@@ -4337,15 +4380,15 @@
       <c r="P67" s="12">
         <v>3.6215563376545648</v>
       </c>
-      <c r="Q67" s="12"/>
+      <c r="Q67" s="12">
+        <v>1.0513892712719326</v>
+      </c>
       <c r="R67" s="12"/>
-      <c r="S67" s="12">
-        <v>1.0513892712719326</v>
-      </c>
+      <c r="S67" s="12"/>
       <c r="T67" s="12"/>
       <c r="U67" s="12"/>
     </row>
-    <row r="68" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A68" s="12">
         <v>67</v>
       </c>
@@ -4396,7 +4439,7 @@
       <c r="T68" s="12"/>
       <c r="U68" s="12"/>
     </row>
-    <row r="69" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A69" s="12">
         <v>68</v>
       </c>
@@ -4447,7 +4490,7 @@
       <c r="T69" s="12"/>
       <c r="U69" s="12"/>
     </row>
-    <row r="70" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A70" s="12">
         <v>69</v>
       </c>
@@ -4498,7 +4541,7 @@
       <c r="T70" s="12"/>
       <c r="U70" s="12"/>
     </row>
-    <row r="71" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="26">
         <v>70</v>
       </c>
@@ -4549,7 +4592,7 @@
       <c r="T71" s="26"/>
       <c r="U71" s="26"/>
     </row>
-    <row r="72" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A72" s="33">
         <v>71</v>
       </c>
@@ -4597,13 +4640,13 @@
         <v>-3.2752012326471758</v>
       </c>
       <c r="Q72" s="33">
+        <v>0.40600068953980034</v>
+      </c>
+      <c r="R72" s="33">
         <v>-3.5868233016744155</v>
       </c>
-      <c r="R72" s="33">
+      <c r="S72" s="33">
         <v>-2.9653170017272723</v>
-      </c>
-      <c r="S72" s="33">
-        <v>0.40600068953980034</v>
       </c>
       <c r="T72" s="33">
         <v>0.36888170199068804</v>
@@ -4612,7 +4655,7 @@
         <v>0.44624776652446996</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A73" s="7">
         <v>72</v>
       </c>
@@ -4663,7 +4706,7 @@
       <c r="T73" s="7"/>
       <c r="U73" s="7"/>
     </row>
-    <row r="74" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A74" s="7">
         <v>73</v>
       </c>
@@ -4714,7 +4757,7 @@
       <c r="T74" s="7"/>
       <c r="U74" s="7"/>
     </row>
-    <row r="75" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A75" s="7">
         <v>74</v>
       </c>
@@ -4765,7 +4808,7 @@
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
     </row>
-    <row r="76" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A76" s="7">
         <v>75</v>
       </c>
@@ -4816,7 +4859,7 @@
       <c r="T76" s="7"/>
       <c r="U76" s="7"/>
     </row>
-    <row r="77" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A77" s="7">
         <v>76</v>
       </c>
@@ -4867,7 +4910,7 @@
       <c r="T77" s="7"/>
       <c r="U77" s="7"/>
     </row>
-    <row r="78" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A78" s="7">
         <v>77</v>
       </c>
@@ -4918,7 +4961,7 @@
       <c r="T78" s="7"/>
       <c r="U78" s="7"/>
     </row>
-    <row r="79" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A79" s="7">
         <v>78</v>
       </c>
@@ -4969,7 +5012,7 @@
       <c r="T79" s="7"/>
       <c r="U79" s="7"/>
     </row>
-    <row r="80" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A80" s="7">
         <v>79</v>
       </c>
@@ -5020,7 +5063,7 @@
       <c r="T80" s="7"/>
       <c r="U80" s="7"/>
     </row>
-    <row r="81" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A81" s="7">
         <v>80</v>
       </c>
@@ -5071,7 +5114,7 @@
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
     </row>
-    <row r="82" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A82" s="12">
         <v>81</v>
       </c>
@@ -5121,13 +5164,13 @@
         <v>-2.2876789027787421</v>
       </c>
       <c r="Q82" s="12">
+        <v>0.53525176979876143</v>
+      </c>
+      <c r="R82" s="12">
         <v>-2.3985255584029543</v>
       </c>
-      <c r="R82" s="12">
+      <c r="S82" s="12">
         <v>-2.1761883614121236</v>
-      </c>
-      <c r="S82" s="12">
-        <v>0.53525176979876143</v>
       </c>
       <c r="T82" s="12">
         <v>0.51734312584916309</v>
@@ -5136,7 +5179,7 @@
         <v>0.55373948894972824</v>
       </c>
     </row>
-    <row r="83" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A83" s="12">
         <v>82</v>
       </c>
@@ -5189,7 +5232,7 @@
       <c r="T83" s="12"/>
       <c r="U83" s="12"/>
     </row>
-    <row r="84" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A84" s="12">
         <v>83</v>
       </c>
@@ -5242,7 +5285,7 @@
       <c r="T84" s="12"/>
       <c r="U84" s="12"/>
     </row>
-    <row r="85" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A85" s="12">
         <v>84</v>
       </c>
@@ -5295,7 +5338,7 @@
       <c r="T85" s="12"/>
       <c r="U85" s="12"/>
     </row>
-    <row r="86" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A86" s="12">
         <v>85</v>
       </c>
@@ -5348,7 +5391,7 @@
       <c r="T86" s="12"/>
       <c r="U86" s="12"/>
     </row>
-    <row r="87" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A87" s="12">
         <v>86</v>
       </c>
@@ -5401,7 +5444,7 @@
       <c r="T87" s="12"/>
       <c r="U87" s="12"/>
     </row>
-    <row r="88" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A88" s="12">
         <v>87</v>
       </c>
@@ -5454,7 +5497,7 @@
       <c r="T88" s="12"/>
       <c r="U88" s="12"/>
     </row>
-    <row r="89" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A89" s="12">
         <v>88</v>
       </c>
@@ -5507,7 +5550,7 @@
       <c r="T89" s="12"/>
       <c r="U89" s="12"/>
     </row>
-    <row r="90" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A90" s="12">
         <v>89</v>
       </c>
@@ -5560,7 +5603,7 @@
       <c r="T90" s="12"/>
       <c r="U90" s="12"/>
     </row>
-    <row r="91" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="26">
         <v>90</v>
       </c>
@@ -5613,7 +5656,7 @@
       <c r="T91" s="26"/>
       <c r="U91" s="26"/>
     </row>
-    <row r="92" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A92" s="33">
         <v>91</v>
       </c>
@@ -5663,13 +5706,13 @@
         <v>-0.10720032333730493</v>
       </c>
       <c r="Q92" s="33">
+        <v>0.53340153064655071</v>
+      </c>
+      <c r="R92" s="33">
         <v>-0.11220857220984691</v>
       </c>
-      <c r="R92" s="33">
+      <c r="S92" s="33">
         <v>-0.1021798062145461</v>
-      </c>
-      <c r="S92" s="33">
-        <v>0.53340153064655071</v>
       </c>
       <c r="T92" s="33">
         <v>0.51712731963580183</v>
@@ -5678,7 +5721,7 @@
         <v>0.55015384129130041</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A93" s="7">
         <v>92</v>
       </c>
@@ -5731,7 +5774,7 @@
       <c r="T93" s="7"/>
       <c r="U93" s="7"/>
     </row>
-    <row r="94" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A94" s="7">
         <v>93</v>
       </c>
@@ -5784,7 +5827,7 @@
       <c r="T94" s="7"/>
       <c r="U94" s="7"/>
     </row>
-    <row r="95" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A95" s="7">
         <v>94</v>
       </c>
@@ -5837,7 +5880,7 @@
       <c r="T95" s="7"/>
       <c r="U95" s="7"/>
     </row>
-    <row r="96" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A96" s="7">
         <v>95</v>
       </c>
@@ -5890,7 +5933,7 @@
       <c r="T96" s="7"/>
       <c r="U96" s="7"/>
     </row>
-    <row r="97" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A97" s="7">
         <v>96</v>
       </c>
@@ -5943,7 +5986,7 @@
       <c r="T97" s="7"/>
       <c r="U97" s="7"/>
     </row>
-    <row r="98" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A98" s="7">
         <v>97</v>
       </c>
@@ -5996,7 +6039,7 @@
       <c r="T98" s="7"/>
       <c r="U98" s="7"/>
     </row>
-    <row r="99" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A99" s="7">
         <v>98</v>
       </c>
@@ -6049,7 +6092,7 @@
       <c r="T99" s="7"/>
       <c r="U99" s="7"/>
     </row>
-    <row r="100" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A100" s="7">
         <v>99</v>
       </c>
@@ -6102,7 +6145,7 @@
       <c r="T100" s="7"/>
       <c r="U100" s="7"/>
     </row>
-    <row r="101" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A101" s="7">
         <v>100</v>
       </c>
@@ -6155,7 +6198,7 @@
       <c r="T101" s="7"/>
       <c r="U101" s="7"/>
     </row>
-    <row r="102" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A102" s="12">
         <v>101</v>
       </c>
@@ -6205,13 +6248,13 @@
         <v>-5.81854710713103E-2</v>
       </c>
       <c r="Q102" s="12">
+        <v>0.54701284615554346</v>
+      </c>
+      <c r="R102" s="12">
         <v>-6.2166295708858489E-2</v>
       </c>
-      <c r="R102" s="12">
+      <c r="S102" s="12">
         <v>-5.4174547731294348E-2</v>
-      </c>
-      <c r="S102" s="12">
-        <v>0.54701284615554346</v>
       </c>
       <c r="T102" s="12">
         <v>0.52371450740074543</v>
@@ -6220,7 +6263,7 @@
         <v>0.5714617043537692</v>
       </c>
     </row>
-    <row r="103" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A103" s="12">
         <v>102</v>
       </c>
@@ -6273,7 +6316,7 @@
       <c r="T103" s="12"/>
       <c r="U103" s="12"/>
     </row>
-    <row r="104" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A104" s="12">
         <v>103</v>
       </c>
@@ -6326,7 +6369,7 @@
       <c r="T104" s="12"/>
       <c r="U104" s="12"/>
     </row>
-    <row r="105" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A105" s="12">
         <v>104</v>
       </c>
@@ -6379,7 +6422,7 @@
       <c r="T105" s="12"/>
       <c r="U105" s="12"/>
     </row>
-    <row r="106" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A106" s="12">
         <v>105</v>
       </c>
@@ -6432,7 +6475,7 @@
       <c r="T106" s="12"/>
       <c r="U106" s="12"/>
     </row>
-    <row r="107" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A107" s="12">
         <v>106</v>
       </c>
@@ -6485,7 +6528,7 @@
       <c r="T107" s="12"/>
       <c r="U107" s="12"/>
     </row>
-    <row r="108" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A108" s="12">
         <v>107</v>
       </c>
@@ -6538,7 +6581,7 @@
       <c r="T108" s="12"/>
       <c r="U108" s="12"/>
     </row>
-    <row r="109" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A109" s="12">
         <v>108</v>
       </c>
@@ -6591,7 +6634,7 @@
       <c r="T109" s="12"/>
       <c r="U109" s="12"/>
     </row>
-    <row r="110" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A110" s="12">
         <v>109</v>
       </c>
@@ -6644,7 +6687,7 @@
       <c r="T110" s="12"/>
       <c r="U110" s="12"/>
     </row>
-    <row r="111" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A111" s="12">
         <v>110</v>
       </c>
@@ -6697,7 +6740,7 @@
       <c r="T111" s="12"/>
       <c r="U111" s="12"/>
     </row>
-    <row r="112" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A112" s="7">
         <v>111</v>
       </c>
@@ -6748,16 +6791,16 @@
         <v>-10.720032333730494</v>
       </c>
       <c r="Q112" s="7">
-        <f t="shared" ref="Q112" si="2">Q92*100</f>
+        <f>Q92</f>
+        <v>0.53340153064655071</v>
+      </c>
+      <c r="R112" s="7">
+        <f t="shared" ref="R112" si="2">R92*100</f>
         <v>-11.220857220984691</v>
       </c>
-      <c r="R112" s="7">
-        <f>R92*100</f>
+      <c r="S112" s="7">
+        <f>S92*100</f>
         <v>-10.217980621454609</v>
-      </c>
-      <c r="S112" s="7">
-        <f>S92</f>
-        <v>0.53340153064655071</v>
       </c>
       <c r="T112" s="7">
         <f t="shared" ref="T112:U112" si="3">T92</f>
@@ -6768,7 +6811,7 @@
         <v>0.55015384129130041</v>
       </c>
     </row>
-    <row r="113" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A113" s="7">
         <v>112</v>
       </c>
@@ -6821,7 +6864,7 @@
       <c r="T113" s="7"/>
       <c r="U113" s="7"/>
     </row>
-    <row r="114" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A114" s="7">
         <v>113</v>
       </c>
@@ -6874,7 +6917,7 @@
       <c r="T114" s="7"/>
       <c r="U114" s="7"/>
     </row>
-    <row r="115" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A115" s="7">
         <v>114</v>
       </c>
@@ -6927,7 +6970,7 @@
       <c r="T115" s="7"/>
       <c r="U115" s="7"/>
     </row>
-    <row r="116" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A116" s="7">
         <v>115</v>
       </c>
@@ -6980,7 +7023,7 @@
       <c r="T116" s="7"/>
       <c r="U116" s="7"/>
     </row>
-    <row r="117" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A117" s="7">
         <v>116</v>
       </c>
@@ -7033,7 +7076,7 @@
       <c r="T117" s="7"/>
       <c r="U117" s="7"/>
     </row>
-    <row r="118" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A118" s="7">
         <v>117</v>
       </c>
@@ -7086,7 +7129,7 @@
       <c r="T118" s="7"/>
       <c r="U118" s="7"/>
     </row>
-    <row r="119" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A119" s="7">
         <v>118</v>
       </c>
@@ -7139,7 +7182,7 @@
       <c r="T119" s="7"/>
       <c r="U119" s="7"/>
     </row>
-    <row r="120" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A120" s="7">
         <v>119</v>
       </c>
@@ -7192,7 +7235,7 @@
       <c r="T120" s="7"/>
       <c r="U120" s="7"/>
     </row>
-    <row r="121" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A121" s="7">
         <v>120</v>
       </c>
@@ -7245,7 +7288,7 @@
       <c r="T121" s="7"/>
       <c r="U121" s="7"/>
     </row>
-    <row r="122" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A122" s="12">
         <v>121</v>
       </c>
@@ -7296,16 +7339,16 @@
         <v>-5.81854710713103</v>
       </c>
       <c r="Q122" s="12">
-        <f t="shared" ref="Q122:R122" si="4">Q102*100</f>
+        <f>Q102</f>
+        <v>0.54701284615554346</v>
+      </c>
+      <c r="R122" s="12">
+        <f t="shared" ref="R122:S122" si="4">R102*100</f>
         <v>-6.216629570885849</v>
       </c>
-      <c r="R122" s="12">
+      <c r="S122" s="12">
         <f t="shared" si="4"/>
         <v>-5.4174547731294345</v>
-      </c>
-      <c r="S122" s="12">
-        <f>S102</f>
-        <v>0.54701284615554346</v>
       </c>
       <c r="T122" s="12">
         <f t="shared" ref="T122:U122" si="5">T102</f>
@@ -7316,7 +7359,7 @@
         <v>0.5714617043537692</v>
       </c>
     </row>
-    <row r="123" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A123" s="12">
         <v>122</v>
       </c>
@@ -7369,7 +7412,7 @@
       <c r="T123" s="12"/>
       <c r="U123" s="12"/>
     </row>
-    <row r="124" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A124" s="12">
         <v>123</v>
       </c>
@@ -7422,7 +7465,7 @@
       <c r="T124" s="12"/>
       <c r="U124" s="12"/>
     </row>
-    <row r="125" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A125" s="12">
         <v>124</v>
       </c>
@@ -7475,7 +7518,7 @@
       <c r="T125" s="12"/>
       <c r="U125" s="12"/>
     </row>
-    <row r="126" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A126" s="12">
         <v>125</v>
       </c>
@@ -7528,7 +7571,7 @@
       <c r="T126" s="12"/>
       <c r="U126" s="12"/>
     </row>
-    <row r="127" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A127" s="12">
         <v>126</v>
       </c>
@@ -7581,7 +7624,7 @@
       <c r="T127" s="12"/>
       <c r="U127" s="12"/>
     </row>
-    <row r="128" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A128" s="12">
         <v>127</v>
       </c>
@@ -7634,7 +7677,7 @@
       <c r="T128" s="12"/>
       <c r="U128" s="12"/>
     </row>
-    <row r="129" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A129" s="12">
         <v>128</v>
       </c>
@@ -7687,7 +7730,7 @@
       <c r="T129" s="12"/>
       <c r="U129" s="12"/>
     </row>
-    <row r="130" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A130" s="12">
         <v>129</v>
       </c>
@@ -7740,7 +7783,7 @@
       <c r="T130" s="12"/>
       <c r="U130" s="12"/>
     </row>
-    <row r="131" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="26">
         <v>130</v>
       </c>
@@ -7793,7 +7836,7 @@
       <c r="T131" s="26"/>
       <c r="U131" s="26"/>
     </row>
-    <row r="132" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A132" s="7">
         <v>131</v>
       </c>
@@ -7844,16 +7887,16 @@
         <v>10.720032333730494</v>
       </c>
       <c r="Q132" s="7">
+        <f>1/Q112</f>
+        <v>1.8747602744744141</v>
+      </c>
+      <c r="R132" s="7">
+        <f>-1*S112</f>
+        <v>10.217980621454609</v>
+      </c>
+      <c r="S132" s="7">
         <f>-1*R112</f>
-        <v>10.217980621454609</v>
-      </c>
-      <c r="R132" s="7">
-        <f>-1*Q112</f>
         <v>11.220857220984691</v>
-      </c>
-      <c r="S132" s="7">
-        <f>1/S112</f>
-        <v>1.8747602744744141</v>
       </c>
       <c r="T132" s="7">
         <f>1/U112</f>
@@ -7864,7 +7907,7 @@
         <v>1.9337597570831719</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A133" s="7">
         <v>132</v>
       </c>
@@ -7917,7 +7960,7 @@
       <c r="T133" s="7"/>
       <c r="U133" s="7"/>
     </row>
-    <row r="134" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A134" s="7">
         <v>133</v>
       </c>
@@ -7970,7 +8013,7 @@
       <c r="T134" s="7"/>
       <c r="U134" s="7"/>
     </row>
-    <row r="135" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A135" s="7">
         <v>134</v>
       </c>
@@ -8023,7 +8066,7 @@
       <c r="T135" s="7"/>
       <c r="U135" s="7"/>
     </row>
-    <row r="136" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A136" s="7">
         <v>135</v>
       </c>
@@ -8076,7 +8119,7 @@
       <c r="T136" s="7"/>
       <c r="U136" s="7"/>
     </row>
-    <row r="137" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A137" s="7">
         <v>136</v>
       </c>
@@ -8129,7 +8172,7 @@
       <c r="T137" s="7"/>
       <c r="U137" s="7"/>
     </row>
-    <row r="138" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A138" s="7">
         <v>137</v>
       </c>
@@ -8182,7 +8225,7 @@
       <c r="T138" s="7"/>
       <c r="U138" s="7"/>
     </row>
-    <row r="139" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A139" s="7">
         <v>138</v>
       </c>
@@ -8235,7 +8278,7 @@
       <c r="T139" s="7"/>
       <c r="U139" s="7"/>
     </row>
-    <row r="140" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A140" s="7">
         <v>139</v>
       </c>
@@ -8288,7 +8331,7 @@
       <c r="T140" s="7"/>
       <c r="U140" s="7"/>
     </row>
-    <row r="141" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A141" s="7">
         <v>140</v>
       </c>
@@ -8341,7 +8384,7 @@
       <c r="T141" s="7"/>
       <c r="U141" s="7"/>
     </row>
-    <row r="142" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A142" s="12">
         <v>141</v>
       </c>
@@ -8392,16 +8435,16 @@
         <v>5.81854710713103</v>
       </c>
       <c r="Q142" s="12">
+        <f>1/Q122</f>
+        <v>1.8281106321873277</v>
+      </c>
+      <c r="R142" s="12">
+        <f>-1*S122</f>
+        <v>5.4174547731294345</v>
+      </c>
+      <c r="S142" s="12">
         <f>-1*R122</f>
-        <v>5.4174547731294345</v>
-      </c>
-      <c r="R142" s="12">
-        <f>-1*Q122</f>
         <v>6.216629570885849</v>
-      </c>
-      <c r="S142" s="12">
-        <f>1/S122</f>
-        <v>1.8281106321873277</v>
       </c>
       <c r="T142" s="12">
         <f>1/U122</f>
@@ -8412,7 +8455,7 @@
         <v>1.909437271392602</v>
       </c>
     </row>
-    <row r="143" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A143" s="12">
         <v>142</v>
       </c>
@@ -8465,7 +8508,7 @@
       <c r="T143" s="12"/>
       <c r="U143" s="12"/>
     </row>
-    <row r="144" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A144" s="12">
         <v>143</v>
       </c>
@@ -8518,7 +8561,7 @@
       <c r="T144" s="12"/>
       <c r="U144" s="12"/>
     </row>
-    <row r="145" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A145" s="12">
         <v>144</v>
       </c>
@@ -8571,7 +8614,7 @@
       <c r="T145" s="12"/>
       <c r="U145" s="12"/>
     </row>
-    <row r="146" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A146" s="12">
         <v>145</v>
       </c>
@@ -8624,7 +8667,7 @@
       <c r="T146" s="12"/>
       <c r="U146" s="12"/>
     </row>
-    <row r="147" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A147" s="12">
         <v>146</v>
       </c>
@@ -8677,7 +8720,7 @@
       <c r="T147" s="12"/>
       <c r="U147" s="12"/>
     </row>
-    <row r="148" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A148" s="12">
         <v>147</v>
       </c>
@@ -8730,7 +8773,7 @@
       <c r="T148" s="12"/>
       <c r="U148" s="12"/>
     </row>
-    <row r="149" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A149" s="12">
         <v>148</v>
       </c>
@@ -8783,7 +8826,7 @@
       <c r="T149" s="12"/>
       <c r="U149" s="12"/>
     </row>
-    <row r="150" spans="1:21" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A150" s="12">
         <v>149</v>
       </c>
@@ -8836,7 +8879,7 @@
       <c r="T150" s="12"/>
       <c r="U150" s="12"/>
     </row>
-    <row r="151" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="26">
         <v>150</v>
       </c>
@@ -8889,7 +8932,7 @@
       <c r="T151" s="26"/>
       <c r="U151" s="26"/>
     </row>
-    <row r="152" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A152" s="33">
         <v>151</v>
       </c>
@@ -8942,7 +8985,7 @@
       <c r="T152" s="40"/>
       <c r="U152" s="40"/>
     </row>
-    <row r="153" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A153" s="7">
         <v>152</v>
       </c>
@@ -8995,7 +9038,7 @@
       <c r="T153" s="20"/>
       <c r="U153" s="20"/>
     </row>
-    <row r="154" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A154" s="7">
         <v>153</v>
       </c>
@@ -9048,7 +9091,7 @@
       <c r="T154" s="20"/>
       <c r="U154" s="20"/>
     </row>
-    <row r="155" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A155" s="7">
         <v>154</v>
       </c>
@@ -9101,7 +9144,7 @@
       <c r="T155" s="20"/>
       <c r="U155" s="20"/>
     </row>
-    <row r="156" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A156" s="7">
         <v>155</v>
       </c>
@@ -9154,7 +9197,7 @@
       <c r="T156" s="20"/>
       <c r="U156" s="20"/>
     </row>
-    <row r="157" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A157" s="7">
         <v>156</v>
       </c>
@@ -9207,7 +9250,7 @@
       <c r="T157" s="20"/>
       <c r="U157" s="20"/>
     </row>
-    <row r="158" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A158" s="7">
         <v>157</v>
       </c>
@@ -9260,7 +9303,7 @@
       <c r="T158" s="20"/>
       <c r="U158" s="20"/>
     </row>
-    <row r="159" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A159" s="7">
         <v>158</v>
       </c>
@@ -9313,7 +9356,7 @@
       <c r="T159" s="20"/>
       <c r="U159" s="20"/>
     </row>
-    <row r="160" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A160" s="7">
         <v>159</v>
       </c>
@@ -9366,7 +9409,7 @@
       <c r="T160" s="20"/>
       <c r="U160" s="20"/>
     </row>
-    <row r="161" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="46">
         <v>160</v>
       </c>
@@ -9419,7 +9462,7 @@
       <c r="T161" s="49"/>
       <c r="U161" s="49"/>
     </row>
-    <row r="162" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A162" s="33">
         <v>161</v>
       </c>
@@ -9472,7 +9515,7 @@
       <c r="T162" s="40"/>
       <c r="U162" s="40"/>
     </row>
-    <row r="163" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A163" s="7">
         <v>162</v>
       </c>
@@ -9525,7 +9568,7 @@
       <c r="T163" s="20"/>
       <c r="U163" s="20"/>
     </row>
-    <row r="164" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A164" s="7">
         <v>163</v>
       </c>
@@ -9578,7 +9621,7 @@
       <c r="T164" s="20"/>
       <c r="U164" s="20"/>
     </row>
-    <row r="165" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A165" s="7">
         <v>164</v>
       </c>
@@ -9631,7 +9674,7 @@
       <c r="T165" s="20"/>
       <c r="U165" s="20"/>
     </row>
-    <row r="166" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A166" s="7">
         <v>165</v>
       </c>
@@ -9684,7 +9727,7 @@
       <c r="T166" s="20"/>
       <c r="U166" s="20"/>
     </row>
-    <row r="167" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A167" s="7">
         <v>166</v>
       </c>
@@ -9737,7 +9780,7 @@
       <c r="T167" s="20"/>
       <c r="U167" s="20"/>
     </row>
-    <row r="168" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A168" s="7">
         <v>167</v>
       </c>
@@ -9790,7 +9833,7 @@
       <c r="T168" s="20"/>
       <c r="U168" s="20"/>
     </row>
-    <row r="169" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A169" s="7">
         <v>168</v>
       </c>
@@ -9843,7 +9886,7 @@
       <c r="T169" s="20"/>
       <c r="U169" s="20"/>
     </row>
-    <row r="170" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A170" s="7">
         <v>169</v>
       </c>
@@ -9896,7 +9939,7 @@
       <c r="T170" s="20"/>
       <c r="U170" s="20"/>
     </row>
-    <row r="171" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="46">
         <v>170</v>
       </c>
@@ -9949,7 +9992,7 @@
       <c r="T171" s="49"/>
       <c r="U171" s="49"/>
     </row>
-    <row r="172" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A172" s="33">
         <v>171</v>
       </c>
@@ -10002,7 +10045,7 @@
       <c r="T172" s="40"/>
       <c r="U172" s="40"/>
     </row>
-    <row r="173" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A173" s="7">
         <v>172</v>
       </c>
@@ -10055,7 +10098,7 @@
       <c r="T173" s="20"/>
       <c r="U173" s="20"/>
     </row>
-    <row r="174" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A174" s="7">
         <v>173</v>
       </c>
@@ -10108,7 +10151,7 @@
       <c r="T174" s="20"/>
       <c r="U174" s="20"/>
     </row>
-    <row r="175" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A175" s="7">
         <v>174</v>
       </c>
@@ -10161,7 +10204,7 @@
       <c r="T175" s="20"/>
       <c r="U175" s="20"/>
     </row>
-    <row r="176" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A176" s="7">
         <v>175</v>
       </c>
@@ -10214,7 +10257,7 @@
       <c r="T176" s="20"/>
       <c r="U176" s="20"/>
     </row>
-    <row r="177" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A177" s="7">
         <v>176</v>
       </c>
@@ -10267,7 +10310,7 @@
       <c r="T177" s="20"/>
       <c r="U177" s="20"/>
     </row>
-    <row r="178" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A178" s="7">
         <v>177</v>
       </c>
@@ -10320,7 +10363,7 @@
       <c r="T178" s="20"/>
       <c r="U178" s="20"/>
     </row>
-    <row r="179" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A179" s="7">
         <v>178</v>
       </c>
@@ -10373,7 +10416,7 @@
       <c r="T179" s="20"/>
       <c r="U179" s="20"/>
     </row>
-    <row r="180" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A180" s="7">
         <v>179</v>
       </c>
@@ -10426,7 +10469,7 @@
       <c r="T180" s="20"/>
       <c r="U180" s="20"/>
     </row>
-    <row r="181" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="46">
         <v>180</v>
       </c>
@@ -10479,7 +10522,7 @@
       <c r="T181" s="49"/>
       <c r="U181" s="49"/>
     </row>
-    <row r="182" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A182" s="33">
         <v>181</v>
       </c>
@@ -10530,7 +10573,7 @@
       <c r="T182" s="40"/>
       <c r="U182" s="40"/>
     </row>
-    <row r="183" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A183" s="7">
         <v>182</v>
       </c>
@@ -10581,7 +10624,7 @@
       <c r="T183" s="20"/>
       <c r="U183" s="20"/>
     </row>
-    <row r="184" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A184" s="7">
         <v>183</v>
       </c>
@@ -10632,7 +10675,7 @@
       <c r="T184" s="20"/>
       <c r="U184" s="20"/>
     </row>
-    <row r="185" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A185" s="7">
         <v>184</v>
       </c>
@@ -10683,7 +10726,7 @@
       <c r="T185" s="20"/>
       <c r="U185" s="20"/>
     </row>
-    <row r="186" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A186" s="7">
         <v>185</v>
       </c>
@@ -10734,7 +10777,7 @@
       <c r="T186" s="20"/>
       <c r="U186" s="20"/>
     </row>
-    <row r="187" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A187" s="7">
         <v>186</v>
       </c>
@@ -10785,7 +10828,7 @@
       <c r="T187" s="20"/>
       <c r="U187" s="20"/>
     </row>
-    <row r="188" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A188" s="7">
         <v>187</v>
       </c>
@@ -10836,7 +10879,7 @@
       <c r="T188" s="20"/>
       <c r="U188" s="20"/>
     </row>
-    <row r="189" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A189" s="7">
         <v>188</v>
       </c>
@@ -10887,7 +10930,7 @@
       <c r="T189" s="20"/>
       <c r="U189" s="20"/>
     </row>
-    <row r="190" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A190" s="7">
         <v>189</v>
       </c>
@@ -10938,7 +10981,7 @@
       <c r="T190" s="20"/>
       <c r="U190" s="20"/>
     </row>
-    <row r="191" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="46">
         <v>190</v>
       </c>
@@ -10989,7 +11032,7 @@
       <c r="T191" s="49"/>
       <c r="U191" s="49"/>
     </row>
-    <row r="192" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A192" s="33">
         <v>191</v>
       </c>
@@ -11036,7 +11079,7 @@
       <c r="T192" s="40"/>
       <c r="U192" s="40"/>
     </row>
-    <row r="193" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A193" s="7">
         <v>192</v>
       </c>
@@ -11083,7 +11126,7 @@
       <c r="T193" s="20"/>
       <c r="U193" s="20"/>
     </row>
-    <row r="194" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A194" s="7">
         <v>193</v>
       </c>
@@ -11130,7 +11173,7 @@
       <c r="T194" s="20"/>
       <c r="U194" s="20"/>
     </row>
-    <row r="195" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A195" s="7">
         <v>194</v>
       </c>
@@ -11177,7 +11220,7 @@
       <c r="T195" s="20"/>
       <c r="U195" s="20"/>
     </row>
-    <row r="196" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A196" s="7">
         <v>195</v>
       </c>
@@ -11224,7 +11267,7 @@
       <c r="T196" s="20"/>
       <c r="U196" s="20"/>
     </row>
-    <row r="197" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A197" s="7">
         <v>196</v>
       </c>
@@ -11277,7 +11320,7 @@
       <c r="T197" s="20"/>
       <c r="U197" s="20"/>
     </row>
-    <row r="198" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A198" s="7">
         <v>197</v>
       </c>
@@ -11330,7 +11373,7 @@
       <c r="T198" s="20"/>
       <c r="U198" s="20"/>
     </row>
-    <row r="199" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A199" s="7">
         <v>198</v>
       </c>
@@ -11383,7 +11426,7 @@
       <c r="T199" s="20"/>
       <c r="U199" s="20"/>
     </row>
-    <row r="200" spans="1:21" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A200" s="7">
         <v>199</v>
       </c>
@@ -11436,7 +11479,7 @@
       <c r="T200" s="20"/>
       <c r="U200" s="20"/>
     </row>
-    <row r="201" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="46">
         <v>200</v>
       </c>
@@ -11489,7 +11532,7 @@
       <c r="T201" s="49"/>
       <c r="U201" s="49"/>
     </row>
-    <row r="202" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A202" s="33">
         <v>201</v>
       </c>
@@ -11542,7 +11585,7 @@
       <c r="T202" s="40"/>
       <c r="U202" s="40"/>
     </row>
-    <row r="203" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A203" s="7">
         <v>202</v>
       </c>
@@ -11593,7 +11636,7 @@
       <c r="T203" s="20"/>
       <c r="U203" s="20"/>
     </row>
-    <row r="204" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A204" s="7">
         <v>203</v>
       </c>
@@ -11646,7 +11689,7 @@
       <c r="T204" s="20"/>
       <c r="U204" s="20"/>
     </row>
-    <row r="205" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A205" s="7">
         <v>204</v>
       </c>
@@ -11699,7 +11742,7 @@
       <c r="T205" s="20"/>
       <c r="U205" s="20"/>
     </row>
-    <row r="206" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A206" s="7">
         <v>205</v>
       </c>
@@ -11750,7 +11793,7 @@
       <c r="T206" s="20"/>
       <c r="U206" s="20"/>
     </row>
-    <row r="207" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A207" s="7">
         <v>206</v>
       </c>
@@ -11803,7 +11846,7 @@
       <c r="T207" s="20"/>
       <c r="U207" s="20"/>
     </row>
-    <row r="208" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A208" s="7">
         <v>207</v>
       </c>
@@ -11856,7 +11899,7 @@
       <c r="T208" s="20"/>
       <c r="U208" s="20"/>
     </row>
-    <row r="209" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A209" s="7">
         <v>208</v>
       </c>
@@ -11907,7 +11950,7 @@
       <c r="T209" s="20"/>
       <c r="U209" s="20"/>
     </row>
-    <row r="210" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A210" s="7">
         <v>209</v>
       </c>
@@ -11960,7 +12003,7 @@
       <c r="T210" s="20"/>
       <c r="U210" s="20"/>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="46">
         <v>210</v>
       </c>
@@ -12013,7 +12056,7 @@
       <c r="T211" s="49"/>
       <c r="U211" s="49"/>
     </row>
-    <row r="212" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A212" s="33">
         <v>211</v>
       </c>
@@ -12066,7 +12109,7 @@
       <c r="T212" s="40"/>
       <c r="U212" s="40"/>
     </row>
-    <row r="213" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A213" s="7">
         <v>212</v>
       </c>
@@ -12119,7 +12162,7 @@
       <c r="T213" s="20"/>
       <c r="U213" s="20"/>
     </row>
-    <row r="214" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A214" s="7">
         <v>213</v>
       </c>
@@ -12172,7 +12215,7 @@
       <c r="T214" s="20"/>
       <c r="U214" s="20"/>
     </row>
-    <row r="215" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A215" s="7">
         <v>214</v>
       </c>
@@ -12225,7 +12268,7 @@
       <c r="T215" s="20"/>
       <c r="U215" s="20"/>
     </row>
-    <row r="216" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A216" s="7">
         <v>215</v>
       </c>
@@ -12278,7 +12321,7 @@
       <c r="T216" s="20"/>
       <c r="U216" s="20"/>
     </row>
-    <row r="217" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A217" s="7">
         <v>216</v>
       </c>
@@ -12331,7 +12374,7 @@
       <c r="T217" s="20"/>
       <c r="U217" s="20"/>
     </row>
-    <row r="218" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A218" s="7">
         <v>217</v>
       </c>
@@ -12384,7 +12427,7 @@
       <c r="T218" s="20"/>
       <c r="U218" s="20"/>
     </row>
-    <row r="219" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A219" s="7">
         <v>218</v>
       </c>
@@ -12437,7 +12480,7 @@
       <c r="T219" s="20"/>
       <c r="U219" s="20"/>
     </row>
-    <row r="220" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A220" s="7">
         <v>219</v>
       </c>
@@ -12490,7 +12533,7 @@
       <c r="T220" s="20"/>
       <c r="U220" s="20"/>
     </row>
-    <row r="221" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A221" s="7">
         <v>220</v>
       </c>
@@ -12543,7 +12586,7 @@
       <c r="T221" s="20"/>
       <c r="U221" s="20"/>
     </row>
-    <row r="222" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A222" s="7">
         <v>221</v>
       </c>
@@ -12596,7 +12639,7 @@
       <c r="T222" s="20"/>
       <c r="U222" s="20"/>
     </row>
-    <row r="223" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A223" s="7">
         <v>222</v>
       </c>
@@ -12649,7 +12692,7 @@
       <c r="T223" s="20"/>
       <c r="U223" s="20"/>
     </row>
-    <row r="224" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A224" s="7">
         <v>223</v>
       </c>
@@ -12702,7 +12745,7 @@
       <c r="T224" s="20"/>
       <c r="U224" s="20"/>
     </row>
-    <row r="225" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A225" s="7">
         <v>224</v>
       </c>
@@ -12755,7 +12798,7 @@
       <c r="T225" s="20"/>
       <c r="U225" s="20"/>
     </row>
-    <row r="226" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A226" s="7">
         <v>225</v>
       </c>

--- a/tests/testthat/testdata_SII.xlsx
+++ b/tests/testthat/testdata_SII.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emma.clegg\Documents\PHEindicatormethods\tests\testthat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{05381CB5-0ECB-4537-A9A2-DEB933F9C8FD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{828EB62C-3158-49E0-A02C-F2733B650F41}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="78" windowWidth="21078" windowHeight="10548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata_SII" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017" calcMode="manual"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="47">
   <si>
     <t>RecordNo</t>
   </si>
@@ -70,19 +70,7 @@
     <t>sii</t>
   </si>
   <si>
-    <t>sii_lowercl</t>
-  </si>
-  <si>
-    <t>sii_uppercl</t>
-  </si>
-  <si>
     <t>rii</t>
-  </si>
-  <si>
-    <t>rii_lowercl</t>
-  </si>
-  <si>
-    <t>rii_uppercl</t>
   </si>
   <si>
     <t>default (e.g. life expectancy) - default parameters</t>
@@ -143,6 +131,36 @@
   </si>
   <si>
     <t>proportion - testing multiplier (x -100)</t>
+  </si>
+  <si>
+    <t>sii_lowercl_1</t>
+  </si>
+  <si>
+    <t>sii_uppercl_1</t>
+  </si>
+  <si>
+    <t>rii_lowercl_1</t>
+  </si>
+  <si>
+    <t>rii_uppercl_1</t>
+  </si>
+  <si>
+    <t>sii_lowercl_2</t>
+  </si>
+  <si>
+    <t>sii_uppercl_2</t>
+  </si>
+  <si>
+    <t>rii_lowercl_2</t>
+  </si>
+  <si>
+    <t>rii_uppercl_2</t>
+  </si>
+  <si>
+    <t>default (e.g. life expectancy) - multiple CIs</t>
+  </si>
+  <si>
+    <t>c(95, 99)</t>
   </si>
 </sst>
 </file>
@@ -322,7 +340,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -504,6 +522,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="3" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -850,18 +874,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U226"/>
+  <dimension ref="A1:Y246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L114" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C216" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R118" sqref="R118"/>
+      <selection pane="bottomRight" activeCell="A222" sqref="A222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.26171875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.05078125" style="6" customWidth="1"/>
     <col min="2" max="2" width="47.15625" style="6" customWidth="1"/>
     <col min="3" max="3" width="13" style="6" customWidth="1"/>
     <col min="4" max="4" width="12.41796875" style="61" customWidth="1"/>
@@ -873,11 +897,11 @@
     <col min="11" max="11" width="11.578125" style="63" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.41796875" style="63" customWidth="1"/>
     <col min="13" max="13" width="12.68359375" style="64" customWidth="1"/>
-    <col min="14" max="21" width="12.68359375" style="6" customWidth="1"/>
-    <col min="22" max="16384" width="9.15625" style="6"/>
+    <col min="14" max="25" width="12.68359375" style="6" customWidth="1"/>
+    <col min="26" max="16384" width="9.15625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -927,36 +951,48 @@
         <v>15</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <v>40</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F2" s="7">
         <v>1</v>
@@ -1004,22 +1040,26 @@
       <c r="U2" s="7">
         <v>1.1412993360251238</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+    </row>
+    <row r="3" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F3" s="7">
         <v>2</v>
@@ -1055,22 +1095,26 @@
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
-    </row>
-    <row r="4" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+    </row>
+    <row r="4" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F4" s="7">
         <v>3</v>
@@ -1106,22 +1150,26 @@
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-    </row>
-    <row r="5" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+    </row>
+    <row r="5" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7">
         <v>4</v>
@@ -1157,22 +1205,26 @@
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+    </row>
+    <row r="6" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7">
         <v>5</v>
@@ -1208,22 +1260,26 @@
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+    </row>
+    <row r="7" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F7" s="7">
         <v>6</v>
@@ -1259,22 +1315,26 @@
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+    </row>
+    <row r="8" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7">
         <v>7</v>
@@ -1310,22 +1370,26 @@
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+    </row>
+    <row r="9" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F9" s="7">
         <v>8</v>
@@ -1361,22 +1425,26 @@
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+    </row>
+    <row r="10" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F10" s="7">
         <v>9</v>
@@ -1412,22 +1480,26 @@
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+    </row>
+    <row r="11" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7">
         <v>10</v>
@@ -1463,22 +1535,26 @@
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+    </row>
+    <row r="12" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="12">
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F12" s="12">
         <v>1</v>
@@ -1526,22 +1602,26 @@
       <c r="U12" s="12">
         <v>1.1904396357244886</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+    </row>
+    <row r="13" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="12">
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F13" s="12">
         <v>2</v>
@@ -1577,22 +1657,26 @@
       <c r="S13" s="12"/>
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
-    </row>
-    <row r="14" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+    </row>
+    <row r="14" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="12">
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="D14" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F14" s="12">
         <v>3</v>
@@ -1628,22 +1712,26 @@
       <c r="S14" s="12"/>
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
-    </row>
-    <row r="15" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+    </row>
+    <row r="15" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="12">
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F15" s="12">
         <v>4</v>
@@ -1679,22 +1767,26 @@
       <c r="S15" s="12"/>
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
-    </row>
-    <row r="16" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+    </row>
+    <row r="16" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="12">
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F16" s="12">
         <v>5</v>
@@ -1730,22 +1822,26 @@
       <c r="S16" s="12"/>
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
-    </row>
-    <row r="17" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+    </row>
+    <row r="17" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="12">
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="D17" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F17" s="12">
         <v>6</v>
@@ -1781,22 +1877,26 @@
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
-    </row>
-    <row r="18" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+    </row>
+    <row r="18" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="12">
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="D18" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F18" s="12">
         <v>7</v>
@@ -1832,22 +1932,26 @@
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
-    </row>
-    <row r="19" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+    </row>
+    <row r="19" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="12">
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="D19" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F19" s="12">
         <v>8</v>
@@ -1883,22 +1987,26 @@
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
-    </row>
-    <row r="20" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+    </row>
+    <row r="20" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="12">
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="D20" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F20" s="12">
         <v>9</v>
@@ -1934,22 +2042,26 @@
       <c r="S20" s="12"/>
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
-    </row>
-    <row r="21" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+    </row>
+    <row r="21" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="12">
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="D21" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F21" s="12">
         <v>10</v>
@@ -1985,22 +2097,26 @@
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
-    </row>
-    <row r="22" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+    </row>
+    <row r="22" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F22" s="7">
         <v>1</v>
@@ -2048,22 +2164,26 @@
       <c r="U22" s="7">
         <v>1.1587677685047233</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+    </row>
+    <row r="23" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F23" s="7">
         <v>2</v>
@@ -2099,22 +2219,26 @@
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
-    </row>
-    <row r="24" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+    </row>
+    <row r="24" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F24" s="7">
         <v>3</v>
@@ -2150,22 +2274,26 @@
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
-    </row>
-    <row r="25" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+    </row>
+    <row r="25" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F25" s="7">
         <v>4</v>
@@ -2201,22 +2329,26 @@
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
-    </row>
-    <row r="26" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+    </row>
+    <row r="26" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="7">
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F26" s="7">
         <v>5</v>
@@ -2252,22 +2384,26 @@
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
-    </row>
-    <row r="27" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+    </row>
+    <row r="27" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F27" s="7">
         <v>6</v>
@@ -2303,22 +2439,26 @@
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
-    </row>
-    <row r="28" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+    </row>
+    <row r="28" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F28" s="7">
         <v>7</v>
@@ -2354,22 +2494,26 @@
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
-    </row>
-    <row r="29" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+    </row>
+    <row r="29" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F29" s="7">
         <v>8</v>
@@ -2405,22 +2549,26 @@
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
-    </row>
-    <row r="30" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+    </row>
+    <row r="30" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F30" s="7">
         <v>9</v>
@@ -2456,22 +2604,26 @@
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
-    </row>
-    <row r="31" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+    </row>
+    <row r="31" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F31" s="7">
         <v>10</v>
@@ -2507,22 +2659,26 @@
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
-    </row>
-    <row r="32" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+    </row>
+    <row r="32" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="12">
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F32" s="12">
         <v>1</v>
@@ -2570,22 +2726,26 @@
       <c r="U32" s="12">
         <v>1.1934312559878586</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+    </row>
+    <row r="33" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="12">
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F33" s="12">
         <v>2</v>
@@ -2621,22 +2781,26 @@
       <c r="S33" s="12"/>
       <c r="T33" s="12"/>
       <c r="U33" s="12"/>
-    </row>
-    <row r="34" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+    </row>
+    <row r="34" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A34" s="12">
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F34" s="12">
         <v>3</v>
@@ -2672,22 +2836,26 @@
       <c r="S34" s="12"/>
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
-    </row>
-    <row r="35" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+    </row>
+    <row r="35" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A35" s="12">
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F35" s="12">
         <v>4</v>
@@ -2723,22 +2891,26 @@
       <c r="S35" s="12"/>
       <c r="T35" s="12"/>
       <c r="U35" s="12"/>
-    </row>
-    <row r="36" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+    </row>
+    <row r="36" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A36" s="12">
         <v>35</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F36" s="12">
         <v>5</v>
@@ -2774,22 +2946,26 @@
       <c r="S36" s="12"/>
       <c r="T36" s="12"/>
       <c r="U36" s="12"/>
-    </row>
-    <row r="37" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+    </row>
+    <row r="37" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A37" s="12">
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F37" s="12">
         <v>6</v>
@@ -2825,22 +3001,26 @@
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
-    </row>
-    <row r="38" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+    </row>
+    <row r="38" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A38" s="12">
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F38" s="12">
         <v>7</v>
@@ -2876,22 +3056,26 @@
       <c r="S38" s="12"/>
       <c r="T38" s="12"/>
       <c r="U38" s="12"/>
-    </row>
-    <row r="39" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+    </row>
+    <row r="39" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A39" s="12">
         <v>38</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F39" s="12">
         <v>8</v>
@@ -2927,22 +3111,26 @@
       <c r="S39" s="12"/>
       <c r="T39" s="12"/>
       <c r="U39" s="12"/>
-    </row>
-    <row r="40" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+    </row>
+    <row r="40" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A40" s="12">
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F40" s="12">
         <v>9</v>
@@ -2978,22 +3166,26 @@
       <c r="S40" s="12"/>
       <c r="T40" s="12"/>
       <c r="U40" s="12"/>
-    </row>
-    <row r="41" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+    </row>
+    <row r="41" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A41" s="12">
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F41" s="12">
         <v>10</v>
@@ -3029,22 +3221,26 @@
       <c r="S41" s="12"/>
       <c r="T41" s="12"/>
       <c r="U41" s="12"/>
-    </row>
-    <row r="42" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+    </row>
+    <row r="42" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A42" s="7">
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F42" s="7">
         <v>1</v>
@@ -3092,22 +3288,26 @@
       <c r="U42" s="7">
         <v>1.1407094261348529</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+    </row>
+    <row r="43" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A43" s="7">
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F43" s="7">
         <v>2</v>
@@ -3143,22 +3343,26 @@
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
-    </row>
-    <row r="44" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+    </row>
+    <row r="44" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A44" s="7">
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F44" s="7">
         <v>3</v>
@@ -3194,22 +3398,26 @@
       <c r="S44" s="7"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
-    </row>
-    <row r="45" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+    </row>
+    <row r="45" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A45" s="7">
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F45" s="7">
         <v>4</v>
@@ -3245,22 +3453,26 @@
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
-    </row>
-    <row r="46" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+    </row>
+    <row r="46" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A46" s="7">
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F46" s="7">
         <v>5</v>
@@ -3296,22 +3508,26 @@
       <c r="S46" s="7"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
-    </row>
-    <row r="47" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+    </row>
+    <row r="47" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47" s="7">
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F47" s="7">
         <v>6</v>
@@ -3347,22 +3563,26 @@
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
-    </row>
-    <row r="48" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+    </row>
+    <row r="48" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A48" s="7">
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F48" s="7">
         <v>7</v>
@@ -3398,22 +3618,26 @@
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
       <c r="U48" s="7"/>
-    </row>
-    <row r="49" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+    </row>
+    <row r="49" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A49" s="7">
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F49" s="7">
         <v>8</v>
@@ -3449,22 +3673,26 @@
       <c r="S49" s="7"/>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
-    </row>
-    <row r="50" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+    </row>
+    <row r="50" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A50" s="7">
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F50" s="7">
         <v>9</v>
@@ -3500,22 +3728,26 @@
       <c r="S50" s="7"/>
       <c r="T50" s="7"/>
       <c r="U50" s="7"/>
-    </row>
-    <row r="51" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+    </row>
+    <row r="51" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A51" s="7">
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F51" s="7">
         <v>10</v>
@@ -3551,22 +3783,26 @@
       <c r="S51" s="7"/>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
-    </row>
-    <row r="52" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+    </row>
+    <row r="52" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A52" s="12">
         <v>51</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F52" s="12">
         <v>1</v>
@@ -3614,22 +3850,26 @@
       <c r="U52" s="12">
         <v>1.1905995616725575</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="12"/>
+      <c r="Y52" s="12"/>
+    </row>
+    <row r="53" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A53" s="12">
         <v>52</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F53" s="12">
         <v>2</v>
@@ -3665,22 +3905,26 @@
       <c r="S53" s="12"/>
       <c r="T53" s="12"/>
       <c r="U53" s="12"/>
-    </row>
-    <row r="54" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="12"/>
+    </row>
+    <row r="54" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A54" s="12">
         <v>53</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F54" s="12">
         <v>3</v>
@@ -3716,22 +3960,26 @@
       <c r="S54" s="12"/>
       <c r="T54" s="12"/>
       <c r="U54" s="12"/>
-    </row>
-    <row r="55" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
+    </row>
+    <row r="55" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A55" s="12">
         <v>54</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F55" s="12">
         <v>4</v>
@@ -3767,22 +4015,26 @@
       <c r="S55" s="12"/>
       <c r="T55" s="12"/>
       <c r="U55" s="12"/>
-    </row>
-    <row r="56" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="12"/>
+    </row>
+    <row r="56" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A56" s="12">
         <v>55</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F56" s="12">
         <v>5</v>
@@ -3818,22 +4070,26 @@
       <c r="S56" s="12"/>
       <c r="T56" s="12"/>
       <c r="U56" s="12"/>
-    </row>
-    <row r="57" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="12"/>
+    </row>
+    <row r="57" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A57" s="12">
         <v>56</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F57" s="12">
         <v>6</v>
@@ -3869,22 +4125,26 @@
       <c r="S57" s="12"/>
       <c r="T57" s="12"/>
       <c r="U57" s="12"/>
-    </row>
-    <row r="58" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
+    </row>
+    <row r="58" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A58" s="12">
         <v>57</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F58" s="12">
         <v>7</v>
@@ -3920,22 +4180,26 @@
       <c r="S58" s="12"/>
       <c r="T58" s="12"/>
       <c r="U58" s="12"/>
-    </row>
-    <row r="59" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="12"/>
+    </row>
+    <row r="59" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A59" s="12">
         <v>58</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F59" s="12">
         <v>8</v>
@@ -3971,22 +4235,26 @@
       <c r="S59" s="12"/>
       <c r="T59" s="12"/>
       <c r="U59" s="12"/>
-    </row>
-    <row r="60" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V59" s="12"/>
+      <c r="W59" s="12"/>
+      <c r="X59" s="12"/>
+      <c r="Y59" s="12"/>
+    </row>
+    <row r="60" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A60" s="12">
         <v>59</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F60" s="12">
         <v>9</v>
@@ -4022,22 +4290,26 @@
       <c r="S60" s="12"/>
       <c r="T60" s="12"/>
       <c r="U60" s="12"/>
-    </row>
-    <row r="61" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="12"/>
+      <c r="Y60" s="12"/>
+    </row>
+    <row r="61" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A61" s="12">
         <v>60</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F61" s="12">
         <v>10</v>
@@ -4073,22 +4345,26 @@
       <c r="S61" s="12"/>
       <c r="T61" s="12"/>
       <c r="U61" s="12"/>
-    </row>
-    <row r="62" spans="1:21" s="25" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V61" s="12"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="12"/>
+    </row>
+    <row r="62" spans="1:25" s="25" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A62" s="20">
         <v>61</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F62" s="19">
         <v>1</v>
@@ -4128,22 +4404,26 @@
       <c r="S62" s="20"/>
       <c r="T62" s="20"/>
       <c r="U62" s="20"/>
-    </row>
-    <row r="63" spans="1:21" s="25" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V62" s="20"/>
+      <c r="W62" s="20"/>
+      <c r="X62" s="20"/>
+      <c r="Y62" s="20"/>
+    </row>
+    <row r="63" spans="1:25" s="25" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A63" s="20">
         <v>62</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F63" s="19">
         <v>2</v>
@@ -4179,22 +4459,26 @@
       <c r="S63" s="20"/>
       <c r="T63" s="20"/>
       <c r="U63" s="20"/>
-    </row>
-    <row r="64" spans="1:21" s="25" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V63" s="20"/>
+      <c r="W63" s="20"/>
+      <c r="X63" s="20"/>
+      <c r="Y63" s="20"/>
+    </row>
+    <row r="64" spans="1:25" s="25" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A64" s="20">
         <v>63</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F64" s="19">
         <v>3</v>
@@ -4230,22 +4514,26 @@
       <c r="S64" s="20"/>
       <c r="T64" s="20"/>
       <c r="U64" s="20"/>
-    </row>
-    <row r="65" spans="1:21" s="25" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V64" s="20"/>
+      <c r="W64" s="20"/>
+      <c r="X64" s="20"/>
+      <c r="Y64" s="20"/>
+    </row>
+    <row r="65" spans="1:25" s="25" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A65" s="20">
         <v>64</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F65" s="19">
         <v>4</v>
@@ -4281,22 +4569,26 @@
       <c r="S65" s="20"/>
       <c r="T65" s="20"/>
       <c r="U65" s="20"/>
-    </row>
-    <row r="66" spans="1:21" s="25" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V65" s="20"/>
+      <c r="W65" s="20"/>
+      <c r="X65" s="20"/>
+      <c r="Y65" s="20"/>
+    </row>
+    <row r="66" spans="1:25" s="25" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A66" s="20">
         <v>65</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F66" s="19">
         <v>5</v>
@@ -4332,22 +4624,26 @@
       <c r="S66" s="20"/>
       <c r="T66" s="20"/>
       <c r="U66" s="20"/>
-    </row>
-    <row r="67" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V66" s="20"/>
+      <c r="W66" s="20"/>
+      <c r="X66" s="20"/>
+      <c r="Y66" s="20"/>
+    </row>
+    <row r="67" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A67" s="12">
         <v>66</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F67" s="19">
         <v>1</v>
@@ -4387,22 +4683,26 @@
       <c r="S67" s="12"/>
       <c r="T67" s="12"/>
       <c r="U67" s="12"/>
-    </row>
-    <row r="68" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V67" s="12"/>
+      <c r="W67" s="12"/>
+      <c r="X67" s="12"/>
+      <c r="Y67" s="12"/>
+    </row>
+    <row r="68" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A68" s="12">
         <v>67</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F68" s="19">
         <v>2</v>
@@ -4438,22 +4738,26 @@
       <c r="S68" s="12"/>
       <c r="T68" s="12"/>
       <c r="U68" s="12"/>
-    </row>
-    <row r="69" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V68" s="12"/>
+      <c r="W68" s="12"/>
+      <c r="X68" s="12"/>
+      <c r="Y68" s="12"/>
+    </row>
+    <row r="69" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A69" s="12">
         <v>68</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F69" s="19">
         <v>3</v>
@@ -4489,22 +4793,26 @@
       <c r="S69" s="12"/>
       <c r="T69" s="12"/>
       <c r="U69" s="12"/>
-    </row>
-    <row r="70" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V69" s="12"/>
+      <c r="W69" s="12"/>
+      <c r="X69" s="12"/>
+      <c r="Y69" s="12"/>
+    </row>
+    <row r="70" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A70" s="12">
         <v>69</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F70" s="19">
         <v>4</v>
@@ -4540,22 +4848,26 @@
       <c r="S70" s="12"/>
       <c r="T70" s="12"/>
       <c r="U70" s="12"/>
-    </row>
-    <row r="71" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="V70" s="12"/>
+      <c r="W70" s="12"/>
+      <c r="X70" s="12"/>
+      <c r="Y70" s="12"/>
+    </row>
+    <row r="71" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="26">
         <v>70</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F71" s="29">
         <v>5</v>
@@ -4591,22 +4903,26 @@
       <c r="S71" s="26"/>
       <c r="T71" s="26"/>
       <c r="U71" s="26"/>
-    </row>
-    <row r="72" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V71" s="26"/>
+      <c r="W71" s="26"/>
+      <c r="X71" s="26"/>
+      <c r="Y71" s="26"/>
+    </row>
+    <row r="72" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A72" s="33">
         <v>71</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C72" s="34" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E72" s="33" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F72" s="33">
         <v>1</v>
@@ -4654,22 +4970,26 @@
       <c r="U72" s="33">
         <v>0.44624776652446996</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V72" s="33"/>
+      <c r="W72" s="33"/>
+      <c r="X72" s="33"/>
+      <c r="Y72" s="33"/>
+    </row>
+    <row r="73" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A73" s="7">
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F73" s="7">
         <v>2</v>
@@ -4705,22 +5025,26 @@
       <c r="S73" s="7"/>
       <c r="T73" s="7"/>
       <c r="U73" s="7"/>
-    </row>
-    <row r="74" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7"/>
+    </row>
+    <row r="74" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A74" s="7">
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F74" s="7">
         <v>3</v>
@@ -4756,22 +5080,26 @@
       <c r="S74" s="7"/>
       <c r="T74" s="7"/>
       <c r="U74" s="7"/>
-    </row>
-    <row r="75" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
+      <c r="X74" s="7"/>
+      <c r="Y74" s="7"/>
+    </row>
+    <row r="75" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A75" s="7">
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F75" s="7">
         <v>4</v>
@@ -4807,22 +5135,26 @@
       <c r="S75" s="7"/>
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
-    </row>
-    <row r="76" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+    </row>
+    <row r="76" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A76" s="7">
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F76" s="7">
         <v>5</v>
@@ -4858,22 +5190,26 @@
       <c r="S76" s="7"/>
       <c r="T76" s="7"/>
       <c r="U76" s="7"/>
-    </row>
-    <row r="77" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V76" s="7"/>
+      <c r="W76" s="7"/>
+      <c r="X76" s="7"/>
+      <c r="Y76" s="7"/>
+    </row>
+    <row r="77" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A77" s="7">
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F77" s="7">
         <v>6</v>
@@ -4909,22 +5245,26 @@
       <c r="S77" s="7"/>
       <c r="T77" s="7"/>
       <c r="U77" s="7"/>
-    </row>
-    <row r="78" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V77" s="7"/>
+      <c r="W77" s="7"/>
+      <c r="X77" s="7"/>
+      <c r="Y77" s="7"/>
+    </row>
+    <row r="78" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A78" s="7">
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F78" s="7">
         <v>7</v>
@@ -4960,22 +5300,26 @@
       <c r="S78" s="7"/>
       <c r="T78" s="7"/>
       <c r="U78" s="7"/>
-    </row>
-    <row r="79" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V78" s="7"/>
+      <c r="W78" s="7"/>
+      <c r="X78" s="7"/>
+      <c r="Y78" s="7"/>
+    </row>
+    <row r="79" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A79" s="7">
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F79" s="7">
         <v>8</v>
@@ -5011,22 +5355,26 @@
       <c r="S79" s="7"/>
       <c r="T79" s="7"/>
       <c r="U79" s="7"/>
-    </row>
-    <row r="80" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+      <c r="Y79" s="7"/>
+    </row>
+    <row r="80" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A80" s="7">
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F80" s="7">
         <v>9</v>
@@ -5062,22 +5410,26 @@
       <c r="S80" s="7"/>
       <c r="T80" s="7"/>
       <c r="U80" s="7"/>
-    </row>
-    <row r="81" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V80" s="7"/>
+      <c r="W80" s="7"/>
+      <c r="X80" s="7"/>
+      <c r="Y80" s="7"/>
+    </row>
+    <row r="81" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A81" s="7">
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F81" s="7">
         <v>10</v>
@@ -5113,22 +5465,26 @@
       <c r="S81" s="7"/>
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
-    </row>
-    <row r="82" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V81" s="7"/>
+      <c r="W81" s="7"/>
+      <c r="X81" s="7"/>
+      <c r="Y81" s="7"/>
+    </row>
+    <row r="82" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A82" s="12">
         <v>81</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F82" s="12">
         <v>1</v>
@@ -5178,22 +5534,26 @@
       <c r="U82" s="12">
         <v>0.55373948894972824</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V82" s="12"/>
+      <c r="W82" s="12"/>
+      <c r="X82" s="12"/>
+      <c r="Y82" s="12"/>
+    </row>
+    <row r="83" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A83" s="12">
         <v>82</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F83" s="12">
         <v>2</v>
@@ -5231,22 +5591,26 @@
       <c r="S83" s="12"/>
       <c r="T83" s="12"/>
       <c r="U83" s="12"/>
-    </row>
-    <row r="84" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V83" s="12"/>
+      <c r="W83" s="12"/>
+      <c r="X83" s="12"/>
+      <c r="Y83" s="12"/>
+    </row>
+    <row r="84" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A84" s="12">
         <v>83</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F84" s="12">
         <v>3</v>
@@ -5284,22 +5648,26 @@
       <c r="S84" s="12"/>
       <c r="T84" s="12"/>
       <c r="U84" s="12"/>
-    </row>
-    <row r="85" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V84" s="12"/>
+      <c r="W84" s="12"/>
+      <c r="X84" s="12"/>
+      <c r="Y84" s="12"/>
+    </row>
+    <row r="85" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A85" s="12">
         <v>84</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F85" s="12">
         <v>4</v>
@@ -5337,22 +5705,26 @@
       <c r="S85" s="12"/>
       <c r="T85" s="12"/>
       <c r="U85" s="12"/>
-    </row>
-    <row r="86" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V85" s="12"/>
+      <c r="W85" s="12"/>
+      <c r="X85" s="12"/>
+      <c r="Y85" s="12"/>
+    </row>
+    <row r="86" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A86" s="12">
         <v>85</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F86" s="12">
         <v>5</v>
@@ -5390,22 +5762,26 @@
       <c r="S86" s="12"/>
       <c r="T86" s="12"/>
       <c r="U86" s="12"/>
-    </row>
-    <row r="87" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V86" s="12"/>
+      <c r="W86" s="12"/>
+      <c r="X86" s="12"/>
+      <c r="Y86" s="12"/>
+    </row>
+    <row r="87" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A87" s="12">
         <v>86</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F87" s="12">
         <v>6</v>
@@ -5443,22 +5819,26 @@
       <c r="S87" s="12"/>
       <c r="T87" s="12"/>
       <c r="U87" s="12"/>
-    </row>
-    <row r="88" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V87" s="12"/>
+      <c r="W87" s="12"/>
+      <c r="X87" s="12"/>
+      <c r="Y87" s="12"/>
+    </row>
+    <row r="88" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A88" s="12">
         <v>87</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F88" s="12">
         <v>7</v>
@@ -5496,22 +5876,26 @@
       <c r="S88" s="12"/>
       <c r="T88" s="12"/>
       <c r="U88" s="12"/>
-    </row>
-    <row r="89" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V88" s="12"/>
+      <c r="W88" s="12"/>
+      <c r="X88" s="12"/>
+      <c r="Y88" s="12"/>
+    </row>
+    <row r="89" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A89" s="12">
         <v>88</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F89" s="12">
         <v>8</v>
@@ -5549,22 +5933,26 @@
       <c r="S89" s="12"/>
       <c r="T89" s="12"/>
       <c r="U89" s="12"/>
-    </row>
-    <row r="90" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V89" s="12"/>
+      <c r="W89" s="12"/>
+      <c r="X89" s="12"/>
+      <c r="Y89" s="12"/>
+    </row>
+    <row r="90" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A90" s="12">
         <v>89</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F90" s="12">
         <v>9</v>
@@ -5602,22 +5990,26 @@
       <c r="S90" s="12"/>
       <c r="T90" s="12"/>
       <c r="U90" s="12"/>
-    </row>
-    <row r="91" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="V90" s="12"/>
+      <c r="W90" s="12"/>
+      <c r="X90" s="12"/>
+      <c r="Y90" s="12"/>
+    </row>
+    <row r="91" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="26">
         <v>90</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F91" s="26">
         <v>10</v>
@@ -5655,22 +6047,26 @@
       <c r="S91" s="26"/>
       <c r="T91" s="26"/>
       <c r="U91" s="26"/>
-    </row>
-    <row r="92" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V91" s="26"/>
+      <c r="W91" s="26"/>
+      <c r="X91" s="26"/>
+      <c r="Y91" s="26"/>
+    </row>
+    <row r="92" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A92" s="33">
         <v>91</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D92" s="35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E92" s="33" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F92" s="33">
         <v>1</v>
@@ -5720,22 +6116,26 @@
       <c r="U92" s="33">
         <v>0.55015384129130041</v>
       </c>
-    </row>
-    <row r="93" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V92" s="33"/>
+      <c r="W92" s="33"/>
+      <c r="X92" s="33"/>
+      <c r="Y92" s="33"/>
+    </row>
+    <row r="93" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A93" s="7">
         <v>92</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F93" s="7">
         <v>2</v>
@@ -5773,22 +6173,26 @@
       <c r="S93" s="7"/>
       <c r="T93" s="7"/>
       <c r="U93" s="7"/>
-    </row>
-    <row r="94" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V93" s="7"/>
+      <c r="W93" s="7"/>
+      <c r="X93" s="7"/>
+      <c r="Y93" s="7"/>
+    </row>
+    <row r="94" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A94" s="7">
         <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F94" s="7">
         <v>3</v>
@@ -5826,22 +6230,26 @@
       <c r="S94" s="7"/>
       <c r="T94" s="7"/>
       <c r="U94" s="7"/>
-    </row>
-    <row r="95" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V94" s="7"/>
+      <c r="W94" s="7"/>
+      <c r="X94" s="7"/>
+      <c r="Y94" s="7"/>
+    </row>
+    <row r="95" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A95" s="7">
         <v>94</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F95" s="7">
         <v>4</v>
@@ -5879,22 +6287,26 @@
       <c r="S95" s="7"/>
       <c r="T95" s="7"/>
       <c r="U95" s="7"/>
-    </row>
-    <row r="96" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V95" s="7"/>
+      <c r="W95" s="7"/>
+      <c r="X95" s="7"/>
+      <c r="Y95" s="7"/>
+    </row>
+    <row r="96" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A96" s="7">
         <v>95</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F96" s="7">
         <v>5</v>
@@ -5932,22 +6344,26 @@
       <c r="S96" s="7"/>
       <c r="T96" s="7"/>
       <c r="U96" s="7"/>
-    </row>
-    <row r="97" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V96" s="7"/>
+      <c r="W96" s="7"/>
+      <c r="X96" s="7"/>
+      <c r="Y96" s="7"/>
+    </row>
+    <row r="97" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A97" s="7">
         <v>96</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F97" s="7">
         <v>6</v>
@@ -5985,22 +6401,26 @@
       <c r="S97" s="7"/>
       <c r="T97" s="7"/>
       <c r="U97" s="7"/>
-    </row>
-    <row r="98" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V97" s="7"/>
+      <c r="W97" s="7"/>
+      <c r="X97" s="7"/>
+      <c r="Y97" s="7"/>
+    </row>
+    <row r="98" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A98" s="7">
         <v>97</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F98" s="7">
         <v>7</v>
@@ -6038,22 +6458,26 @@
       <c r="S98" s="7"/>
       <c r="T98" s="7"/>
       <c r="U98" s="7"/>
-    </row>
-    <row r="99" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V98" s="7"/>
+      <c r="W98" s="7"/>
+      <c r="X98" s="7"/>
+      <c r="Y98" s="7"/>
+    </row>
+    <row r="99" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A99" s="7">
         <v>98</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F99" s="7">
         <v>8</v>
@@ -6091,22 +6515,26 @@
       <c r="S99" s="7"/>
       <c r="T99" s="7"/>
       <c r="U99" s="7"/>
-    </row>
-    <row r="100" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V99" s="7"/>
+      <c r="W99" s="7"/>
+      <c r="X99" s="7"/>
+      <c r="Y99" s="7"/>
+    </row>
+    <row r="100" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A100" s="7">
         <v>99</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F100" s="7">
         <v>9</v>
@@ -6144,22 +6572,26 @@
       <c r="S100" s="7"/>
       <c r="T100" s="7"/>
       <c r="U100" s="7"/>
-    </row>
-    <row r="101" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V100" s="7"/>
+      <c r="W100" s="7"/>
+      <c r="X100" s="7"/>
+      <c r="Y100" s="7"/>
+    </row>
+    <row r="101" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A101" s="7">
         <v>100</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F101" s="7">
         <v>10</v>
@@ -6197,22 +6629,26 @@
       <c r="S101" s="7"/>
       <c r="T101" s="7"/>
       <c r="U101" s="7"/>
-    </row>
-    <row r="102" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V101" s="7"/>
+      <c r="W101" s="7"/>
+      <c r="X101" s="7"/>
+      <c r="Y101" s="7"/>
+    </row>
+    <row r="102" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A102" s="12">
         <v>101</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F102" s="12">
         <v>1</v>
@@ -6262,22 +6698,26 @@
       <c r="U102" s="12">
         <v>0.5714617043537692</v>
       </c>
-    </row>
-    <row r="103" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V102" s="12"/>
+      <c r="W102" s="12"/>
+      <c r="X102" s="12"/>
+      <c r="Y102" s="12"/>
+    </row>
+    <row r="103" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A103" s="12">
         <v>102</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F103" s="12">
         <v>2</v>
@@ -6315,22 +6755,26 @@
       <c r="S103" s="12"/>
       <c r="T103" s="12"/>
       <c r="U103" s="12"/>
-    </row>
-    <row r="104" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V103" s="12"/>
+      <c r="W103" s="12"/>
+      <c r="X103" s="12"/>
+      <c r="Y103" s="12"/>
+    </row>
+    <row r="104" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A104" s="12">
         <v>103</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F104" s="12">
         <v>3</v>
@@ -6368,22 +6812,26 @@
       <c r="S104" s="12"/>
       <c r="T104" s="12"/>
       <c r="U104" s="12"/>
-    </row>
-    <row r="105" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V104" s="12"/>
+      <c r="W104" s="12"/>
+      <c r="X104" s="12"/>
+      <c r="Y104" s="12"/>
+    </row>
+    <row r="105" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A105" s="12">
         <v>104</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F105" s="12">
         <v>4</v>
@@ -6421,22 +6869,26 @@
       <c r="S105" s="12"/>
       <c r="T105" s="12"/>
       <c r="U105" s="12"/>
-    </row>
-    <row r="106" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V105" s="12"/>
+      <c r="W105" s="12"/>
+      <c r="X105" s="12"/>
+      <c r="Y105" s="12"/>
+    </row>
+    <row r="106" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A106" s="12">
         <v>105</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F106" s="12">
         <v>5</v>
@@ -6474,22 +6926,26 @@
       <c r="S106" s="12"/>
       <c r="T106" s="12"/>
       <c r="U106" s="12"/>
-    </row>
-    <row r="107" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V106" s="12"/>
+      <c r="W106" s="12"/>
+      <c r="X106" s="12"/>
+      <c r="Y106" s="12"/>
+    </row>
+    <row r="107" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A107" s="12">
         <v>106</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F107" s="12">
         <v>6</v>
@@ -6527,22 +6983,26 @@
       <c r="S107" s="12"/>
       <c r="T107" s="12"/>
       <c r="U107" s="12"/>
-    </row>
-    <row r="108" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V107" s="12"/>
+      <c r="W107" s="12"/>
+      <c r="X107" s="12"/>
+      <c r="Y107" s="12"/>
+    </row>
+    <row r="108" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A108" s="12">
         <v>107</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F108" s="12">
         <v>7</v>
@@ -6580,22 +7040,26 @@
       <c r="S108" s="12"/>
       <c r="T108" s="12"/>
       <c r="U108" s="12"/>
-    </row>
-    <row r="109" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V108" s="12"/>
+      <c r="W108" s="12"/>
+      <c r="X108" s="12"/>
+      <c r="Y108" s="12"/>
+    </row>
+    <row r="109" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A109" s="12">
         <v>108</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F109" s="12">
         <v>8</v>
@@ -6633,22 +7097,26 @@
       <c r="S109" s="12"/>
       <c r="T109" s="12"/>
       <c r="U109" s="12"/>
-    </row>
-    <row r="110" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V109" s="12"/>
+      <c r="W109" s="12"/>
+      <c r="X109" s="12"/>
+      <c r="Y109" s="12"/>
+    </row>
+    <row r="110" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A110" s="12">
         <v>109</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F110" s="12">
         <v>9</v>
@@ -6686,22 +7154,26 @@
       <c r="S110" s="12"/>
       <c r="T110" s="12"/>
       <c r="U110" s="12"/>
-    </row>
-    <row r="111" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V110" s="12"/>
+      <c r="W110" s="12"/>
+      <c r="X110" s="12"/>
+      <c r="Y110" s="12"/>
+    </row>
+    <row r="111" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A111" s="12">
         <v>110</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F111" s="12">
         <v>10</v>
@@ -6739,22 +7211,26 @@
       <c r="S111" s="12"/>
       <c r="T111" s="12"/>
       <c r="U111" s="12"/>
-    </row>
-    <row r="112" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V111" s="12"/>
+      <c r="W111" s="12"/>
+      <c r="X111" s="12"/>
+      <c r="Y111" s="12"/>
+    </row>
+    <row r="112" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A112" s="7">
         <v>111</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F112" s="7">
         <v>1</v>
@@ -6810,22 +7286,26 @@
         <f t="shared" si="3"/>
         <v>0.55015384129130041</v>
       </c>
-    </row>
-    <row r="113" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V112" s="7"/>
+      <c r="W112" s="7"/>
+      <c r="X112" s="7"/>
+      <c r="Y112" s="7"/>
+    </row>
+    <row r="113" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A113" s="7">
         <v>112</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F113" s="7">
         <v>2</v>
@@ -6863,22 +7343,26 @@
       <c r="S113" s="7"/>
       <c r="T113" s="7"/>
       <c r="U113" s="7"/>
-    </row>
-    <row r="114" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V113" s="7"/>
+      <c r="W113" s="7"/>
+      <c r="X113" s="7"/>
+      <c r="Y113" s="7"/>
+    </row>
+    <row r="114" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A114" s="7">
         <v>113</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F114" s="7">
         <v>3</v>
@@ -6916,22 +7400,26 @@
       <c r="S114" s="7"/>
       <c r="T114" s="7"/>
       <c r="U114" s="7"/>
-    </row>
-    <row r="115" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V114" s="7"/>
+      <c r="W114" s="7"/>
+      <c r="X114" s="7"/>
+      <c r="Y114" s="7"/>
+    </row>
+    <row r="115" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A115" s="7">
         <v>114</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F115" s="7">
         <v>4</v>
@@ -6969,22 +7457,26 @@
       <c r="S115" s="7"/>
       <c r="T115" s="7"/>
       <c r="U115" s="7"/>
-    </row>
-    <row r="116" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V115" s="7"/>
+      <c r="W115" s="7"/>
+      <c r="X115" s="7"/>
+      <c r="Y115" s="7"/>
+    </row>
+    <row r="116" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A116" s="7">
         <v>115</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F116" s="7">
         <v>5</v>
@@ -7022,22 +7514,26 @@
       <c r="S116" s="7"/>
       <c r="T116" s="7"/>
       <c r="U116" s="7"/>
-    </row>
-    <row r="117" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V116" s="7"/>
+      <c r="W116" s="7"/>
+      <c r="X116" s="7"/>
+      <c r="Y116" s="7"/>
+    </row>
+    <row r="117" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A117" s="7">
         <v>116</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F117" s="7">
         <v>6</v>
@@ -7075,22 +7571,26 @@
       <c r="S117" s="7"/>
       <c r="T117" s="7"/>
       <c r="U117" s="7"/>
-    </row>
-    <row r="118" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V117" s="7"/>
+      <c r="W117" s="7"/>
+      <c r="X117" s="7"/>
+      <c r="Y117" s="7"/>
+    </row>
+    <row r="118" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A118" s="7">
         <v>117</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F118" s="7">
         <v>7</v>
@@ -7128,22 +7628,26 @@
       <c r="S118" s="7"/>
       <c r="T118" s="7"/>
       <c r="U118" s="7"/>
-    </row>
-    <row r="119" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V118" s="7"/>
+      <c r="W118" s="7"/>
+      <c r="X118" s="7"/>
+      <c r="Y118" s="7"/>
+    </row>
+    <row r="119" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A119" s="7">
         <v>118</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F119" s="7">
         <v>8</v>
@@ -7181,22 +7685,26 @@
       <c r="S119" s="7"/>
       <c r="T119" s="7"/>
       <c r="U119" s="7"/>
-    </row>
-    <row r="120" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V119" s="7"/>
+      <c r="W119" s="7"/>
+      <c r="X119" s="7"/>
+      <c r="Y119" s="7"/>
+    </row>
+    <row r="120" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A120" s="7">
         <v>119</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F120" s="7">
         <v>9</v>
@@ -7234,22 +7742,26 @@
       <c r="S120" s="7"/>
       <c r="T120" s="7"/>
       <c r="U120" s="7"/>
-    </row>
-    <row r="121" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V120" s="7"/>
+      <c r="W120" s="7"/>
+      <c r="X120" s="7"/>
+      <c r="Y120" s="7"/>
+    </row>
+    <row r="121" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A121" s="7">
         <v>120</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F121" s="7">
         <v>10</v>
@@ -7287,22 +7799,26 @@
       <c r="S121" s="7"/>
       <c r="T121" s="7"/>
       <c r="U121" s="7"/>
-    </row>
-    <row r="122" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V121" s="7"/>
+      <c r="W121" s="7"/>
+      <c r="X121" s="7"/>
+      <c r="Y121" s="7"/>
+    </row>
+    <row r="122" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A122" s="12">
         <v>121</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F122" s="12">
         <v>1</v>
@@ -7358,22 +7874,26 @@
         <f t="shared" si="5"/>
         <v>0.5714617043537692</v>
       </c>
-    </row>
-    <row r="123" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V122" s="12"/>
+      <c r="W122" s="12"/>
+      <c r="X122" s="12"/>
+      <c r="Y122" s="12"/>
+    </row>
+    <row r="123" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A123" s="12">
         <v>122</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F123" s="12">
         <v>2</v>
@@ -7411,22 +7931,26 @@
       <c r="S123" s="12"/>
       <c r="T123" s="12"/>
       <c r="U123" s="12"/>
-    </row>
-    <row r="124" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V123" s="12"/>
+      <c r="W123" s="12"/>
+      <c r="X123" s="12"/>
+      <c r="Y123" s="12"/>
+    </row>
+    <row r="124" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A124" s="12">
         <v>123</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F124" s="12">
         <v>3</v>
@@ -7464,22 +7988,26 @@
       <c r="S124" s="12"/>
       <c r="T124" s="12"/>
       <c r="U124" s="12"/>
-    </row>
-    <row r="125" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V124" s="12"/>
+      <c r="W124" s="12"/>
+      <c r="X124" s="12"/>
+      <c r="Y124" s="12"/>
+    </row>
+    <row r="125" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A125" s="12">
         <v>124</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F125" s="12">
         <v>4</v>
@@ -7517,22 +8045,26 @@
       <c r="S125" s="12"/>
       <c r="T125" s="12"/>
       <c r="U125" s="12"/>
-    </row>
-    <row r="126" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V125" s="12"/>
+      <c r="W125" s="12"/>
+      <c r="X125" s="12"/>
+      <c r="Y125" s="12"/>
+    </row>
+    <row r="126" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A126" s="12">
         <v>125</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F126" s="12">
         <v>5</v>
@@ -7570,22 +8102,26 @@
       <c r="S126" s="12"/>
       <c r="T126" s="12"/>
       <c r="U126" s="12"/>
-    </row>
-    <row r="127" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V126" s="12"/>
+      <c r="W126" s="12"/>
+      <c r="X126" s="12"/>
+      <c r="Y126" s="12"/>
+    </row>
+    <row r="127" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A127" s="12">
         <v>126</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F127" s="12">
         <v>6</v>
@@ -7623,22 +8159,26 @@
       <c r="S127" s="12"/>
       <c r="T127" s="12"/>
       <c r="U127" s="12"/>
-    </row>
-    <row r="128" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V127" s="12"/>
+      <c r="W127" s="12"/>
+      <c r="X127" s="12"/>
+      <c r="Y127" s="12"/>
+    </row>
+    <row r="128" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A128" s="12">
         <v>127</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F128" s="12">
         <v>7</v>
@@ -7676,22 +8216,26 @@
       <c r="S128" s="12"/>
       <c r="T128" s="12"/>
       <c r="U128" s="12"/>
-    </row>
-    <row r="129" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V128" s="12"/>
+      <c r="W128" s="12"/>
+      <c r="X128" s="12"/>
+      <c r="Y128" s="12"/>
+    </row>
+    <row r="129" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A129" s="12">
         <v>128</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F129" s="12">
         <v>8</v>
@@ -7729,22 +8273,26 @@
       <c r="S129" s="12"/>
       <c r="T129" s="12"/>
       <c r="U129" s="12"/>
-    </row>
-    <row r="130" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V129" s="12"/>
+      <c r="W129" s="12"/>
+      <c r="X129" s="12"/>
+      <c r="Y129" s="12"/>
+    </row>
+    <row r="130" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A130" s="12">
         <v>129</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F130" s="12">
         <v>9</v>
@@ -7782,22 +8330,26 @@
       <c r="S130" s="12"/>
       <c r="T130" s="12"/>
       <c r="U130" s="12"/>
-    </row>
-    <row r="131" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="V130" s="12"/>
+      <c r="W130" s="12"/>
+      <c r="X130" s="12"/>
+      <c r="Y130" s="12"/>
+    </row>
+    <row r="131" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="26">
         <v>130</v>
       </c>
       <c r="B131" s="26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C131" s="27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D131" s="28" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E131" s="26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F131" s="26">
         <v>10</v>
@@ -7835,22 +8387,26 @@
       <c r="S131" s="26"/>
       <c r="T131" s="26"/>
       <c r="U131" s="26"/>
-    </row>
-    <row r="132" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V131" s="26"/>
+      <c r="W131" s="26"/>
+      <c r="X131" s="26"/>
+      <c r="Y131" s="26"/>
+    </row>
+    <row r="132" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A132" s="7">
         <v>131</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F132" s="7">
         <v>1</v>
@@ -7906,22 +8462,26 @@
         <f>1/T112</f>
         <v>1.9337597570831719</v>
       </c>
-    </row>
-    <row r="133" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V132" s="7"/>
+      <c r="W132" s="7"/>
+      <c r="X132" s="7"/>
+      <c r="Y132" s="7"/>
+    </row>
+    <row r="133" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A133" s="7">
         <v>132</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F133" s="7">
         <v>2</v>
@@ -7959,22 +8519,26 @@
       <c r="S133" s="7"/>
       <c r="T133" s="7"/>
       <c r="U133" s="7"/>
-    </row>
-    <row r="134" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V133" s="7"/>
+      <c r="W133" s="7"/>
+      <c r="X133" s="7"/>
+      <c r="Y133" s="7"/>
+    </row>
+    <row r="134" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A134" s="7">
         <v>133</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F134" s="7">
         <v>3</v>
@@ -8012,22 +8576,26 @@
       <c r="S134" s="7"/>
       <c r="T134" s="7"/>
       <c r="U134" s="7"/>
-    </row>
-    <row r="135" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V134" s="7"/>
+      <c r="W134" s="7"/>
+      <c r="X134" s="7"/>
+      <c r="Y134" s="7"/>
+    </row>
+    <row r="135" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A135" s="7">
         <v>134</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F135" s="7">
         <v>4</v>
@@ -8065,22 +8633,26 @@
       <c r="S135" s="7"/>
       <c r="T135" s="7"/>
       <c r="U135" s="7"/>
-    </row>
-    <row r="136" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V135" s="7"/>
+      <c r="W135" s="7"/>
+      <c r="X135" s="7"/>
+      <c r="Y135" s="7"/>
+    </row>
+    <row r="136" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A136" s="7">
         <v>135</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F136" s="7">
         <v>5</v>
@@ -8118,22 +8690,26 @@
       <c r="S136" s="7"/>
       <c r="T136" s="7"/>
       <c r="U136" s="7"/>
-    </row>
-    <row r="137" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V136" s="7"/>
+      <c r="W136" s="7"/>
+      <c r="X136" s="7"/>
+      <c r="Y136" s="7"/>
+    </row>
+    <row r="137" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A137" s="7">
         <v>136</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F137" s="7">
         <v>6</v>
@@ -8171,22 +8747,26 @@
       <c r="S137" s="7"/>
       <c r="T137" s="7"/>
       <c r="U137" s="7"/>
-    </row>
-    <row r="138" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V137" s="7"/>
+      <c r="W137" s="7"/>
+      <c r="X137" s="7"/>
+      <c r="Y137" s="7"/>
+    </row>
+    <row r="138" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A138" s="7">
         <v>137</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F138" s="7">
         <v>7</v>
@@ -8224,22 +8804,26 @@
       <c r="S138" s="7"/>
       <c r="T138" s="7"/>
       <c r="U138" s="7"/>
-    </row>
-    <row r="139" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V138" s="7"/>
+      <c r="W138" s="7"/>
+      <c r="X138" s="7"/>
+      <c r="Y138" s="7"/>
+    </row>
+    <row r="139" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A139" s="7">
         <v>138</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F139" s="7">
         <v>8</v>
@@ -8277,22 +8861,26 @@
       <c r="S139" s="7"/>
       <c r="T139" s="7"/>
       <c r="U139" s="7"/>
-    </row>
-    <row r="140" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V139" s="7"/>
+      <c r="W139" s="7"/>
+      <c r="X139" s="7"/>
+      <c r="Y139" s="7"/>
+    </row>
+    <row r="140" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A140" s="7">
         <v>139</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F140" s="7">
         <v>9</v>
@@ -8330,22 +8918,26 @@
       <c r="S140" s="7"/>
       <c r="T140" s="7"/>
       <c r="U140" s="7"/>
-    </row>
-    <row r="141" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V140" s="7"/>
+      <c r="W140" s="7"/>
+      <c r="X140" s="7"/>
+      <c r="Y140" s="7"/>
+    </row>
+    <row r="141" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A141" s="7">
         <v>140</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F141" s="7">
         <v>10</v>
@@ -8383,22 +8975,26 @@
       <c r="S141" s="7"/>
       <c r="T141" s="7"/>
       <c r="U141" s="7"/>
-    </row>
-    <row r="142" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V141" s="7"/>
+      <c r="W141" s="7"/>
+      <c r="X141" s="7"/>
+      <c r="Y141" s="7"/>
+    </row>
+    <row r="142" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A142" s="12">
         <v>141</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F142" s="12">
         <v>1</v>
@@ -8454,22 +9050,26 @@
         <f>1/T122</f>
         <v>1.909437271392602</v>
       </c>
-    </row>
-    <row r="143" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V142" s="12"/>
+      <c r="W142" s="12"/>
+      <c r="X142" s="12"/>
+      <c r="Y142" s="12"/>
+    </row>
+    <row r="143" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A143" s="12">
         <v>142</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F143" s="12">
         <v>2</v>
@@ -8507,22 +9107,26 @@
       <c r="S143" s="12"/>
       <c r="T143" s="12"/>
       <c r="U143" s="12"/>
-    </row>
-    <row r="144" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V143" s="12"/>
+      <c r="W143" s="12"/>
+      <c r="X143" s="12"/>
+      <c r="Y143" s="12"/>
+    </row>
+    <row r="144" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A144" s="12">
         <v>143</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F144" s="12">
         <v>3</v>
@@ -8560,22 +9164,26 @@
       <c r="S144" s="12"/>
       <c r="T144" s="12"/>
       <c r="U144" s="12"/>
-    </row>
-    <row r="145" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V144" s="12"/>
+      <c r="W144" s="12"/>
+      <c r="X144" s="12"/>
+      <c r="Y144" s="12"/>
+    </row>
+    <row r="145" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A145" s="12">
         <v>144</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F145" s="12">
         <v>4</v>
@@ -8613,22 +9221,26 @@
       <c r="S145" s="12"/>
       <c r="T145" s="12"/>
       <c r="U145" s="12"/>
-    </row>
-    <row r="146" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V145" s="12"/>
+      <c r="W145" s="12"/>
+      <c r="X145" s="12"/>
+      <c r="Y145" s="12"/>
+    </row>
+    <row r="146" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A146" s="12">
         <v>145</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F146" s="12">
         <v>5</v>
@@ -8666,22 +9278,26 @@
       <c r="S146" s="12"/>
       <c r="T146" s="12"/>
       <c r="U146" s="12"/>
-    </row>
-    <row r="147" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V146" s="12"/>
+      <c r="W146" s="12"/>
+      <c r="X146" s="12"/>
+      <c r="Y146" s="12"/>
+    </row>
+    <row r="147" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A147" s="12">
         <v>146</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F147" s="12">
         <v>6</v>
@@ -8719,22 +9335,26 @@
       <c r="S147" s="12"/>
       <c r="T147" s="12"/>
       <c r="U147" s="12"/>
-    </row>
-    <row r="148" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V147" s="12"/>
+      <c r="W147" s="12"/>
+      <c r="X147" s="12"/>
+      <c r="Y147" s="12"/>
+    </row>
+    <row r="148" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A148" s="12">
         <v>147</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F148" s="12">
         <v>7</v>
@@ -8772,22 +9392,26 @@
       <c r="S148" s="12"/>
       <c r="T148" s="12"/>
       <c r="U148" s="12"/>
-    </row>
-    <row r="149" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V148" s="12"/>
+      <c r="W148" s="12"/>
+      <c r="X148" s="12"/>
+      <c r="Y148" s="12"/>
+    </row>
+    <row r="149" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A149" s="12">
         <v>148</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F149" s="12">
         <v>8</v>
@@ -8825,22 +9449,26 @@
       <c r="S149" s="12"/>
       <c r="T149" s="12"/>
       <c r="U149" s="12"/>
-    </row>
-    <row r="150" spans="1:21" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V149" s="12"/>
+      <c r="W149" s="12"/>
+      <c r="X149" s="12"/>
+      <c r="Y149" s="12"/>
+    </row>
+    <row r="150" spans="1:25" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A150" s="12">
         <v>149</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F150" s="12">
         <v>9</v>
@@ -8878,22 +9506,26 @@
       <c r="S150" s="12"/>
       <c r="T150" s="12"/>
       <c r="U150" s="12"/>
-    </row>
-    <row r="151" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="V150" s="12"/>
+      <c r="W150" s="12"/>
+      <c r="X150" s="12"/>
+      <c r="Y150" s="12"/>
+    </row>
+    <row r="151" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="26">
         <v>150</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C151" s="27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D151" s="28" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E151" s="26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F151" s="26">
         <v>10</v>
@@ -8931,22 +9563,26 @@
       <c r="S151" s="26"/>
       <c r="T151" s="26"/>
       <c r="U151" s="26"/>
-    </row>
-    <row r="152" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V151" s="26"/>
+      <c r="W151" s="26"/>
+      <c r="X151" s="26"/>
+      <c r="Y151" s="26"/>
+    </row>
+    <row r="152" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A152" s="33">
         <v>151</v>
       </c>
       <c r="B152" s="39" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C152" s="33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D152" s="35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E152" s="33" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F152" s="40">
         <v>1</v>
@@ -8984,22 +9620,26 @@
       <c r="S152" s="40"/>
       <c r="T152" s="40"/>
       <c r="U152" s="40"/>
-    </row>
-    <row r="153" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V152" s="40"/>
+      <c r="W152" s="40"/>
+      <c r="X152" s="40"/>
+      <c r="Y152" s="40"/>
+    </row>
+    <row r="153" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A153" s="7">
         <v>152</v>
       </c>
       <c r="B153" s="39" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F153" s="20">
         <v>2</v>
@@ -9037,22 +9677,26 @@
       <c r="S153" s="20"/>
       <c r="T153" s="20"/>
       <c r="U153" s="20"/>
-    </row>
-    <row r="154" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V153" s="20"/>
+      <c r="W153" s="20"/>
+      <c r="X153" s="20"/>
+      <c r="Y153" s="20"/>
+    </row>
+    <row r="154" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A154" s="7">
         <v>153</v>
       </c>
       <c r="B154" s="39" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F154" s="20">
         <v>3</v>
@@ -9090,22 +9734,26 @@
       <c r="S154" s="20"/>
       <c r="T154" s="20"/>
       <c r="U154" s="20"/>
-    </row>
-    <row r="155" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V154" s="20"/>
+      <c r="W154" s="20"/>
+      <c r="X154" s="20"/>
+      <c r="Y154" s="20"/>
+    </row>
+    <row r="155" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A155" s="7">
         <v>154</v>
       </c>
       <c r="B155" s="39" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F155" s="20">
         <v>4</v>
@@ -9143,22 +9791,26 @@
       <c r="S155" s="20"/>
       <c r="T155" s="20"/>
       <c r="U155" s="20"/>
-    </row>
-    <row r="156" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V155" s="20"/>
+      <c r="W155" s="20"/>
+      <c r="X155" s="20"/>
+      <c r="Y155" s="20"/>
+    </row>
+    <row r="156" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A156" s="7">
         <v>155</v>
       </c>
       <c r="B156" s="39" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F156" s="20">
         <v>5</v>
@@ -9196,22 +9848,26 @@
       <c r="S156" s="20"/>
       <c r="T156" s="20"/>
       <c r="U156" s="20"/>
-    </row>
-    <row r="157" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V156" s="20"/>
+      <c r="W156" s="20"/>
+      <c r="X156" s="20"/>
+      <c r="Y156" s="20"/>
+    </row>
+    <row r="157" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A157" s="7">
         <v>156</v>
       </c>
       <c r="B157" s="39" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F157" s="20">
         <v>6</v>
@@ -9249,22 +9905,26 @@
       <c r="S157" s="20"/>
       <c r="T157" s="20"/>
       <c r="U157" s="20"/>
-    </row>
-    <row r="158" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V157" s="20"/>
+      <c r="W157" s="20"/>
+      <c r="X157" s="20"/>
+      <c r="Y157" s="20"/>
+    </row>
+    <row r="158" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A158" s="7">
         <v>157</v>
       </c>
       <c r="B158" s="39" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F158" s="20">
         <v>7</v>
@@ -9302,22 +9962,26 @@
       <c r="S158" s="20"/>
       <c r="T158" s="20"/>
       <c r="U158" s="20"/>
-    </row>
-    <row r="159" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V158" s="20"/>
+      <c r="W158" s="20"/>
+      <c r="X158" s="20"/>
+      <c r="Y158" s="20"/>
+    </row>
+    <row r="159" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A159" s="7">
         <v>158</v>
       </c>
       <c r="B159" s="39" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F159" s="20">
         <v>8</v>
@@ -9355,22 +10019,26 @@
       <c r="S159" s="20"/>
       <c r="T159" s="20"/>
       <c r="U159" s="20"/>
-    </row>
-    <row r="160" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V159" s="20"/>
+      <c r="W159" s="20"/>
+      <c r="X159" s="20"/>
+      <c r="Y159" s="20"/>
+    </row>
+    <row r="160" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A160" s="7">
         <v>159</v>
       </c>
       <c r="B160" s="39" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F160" s="20">
         <v>9</v>
@@ -9408,22 +10076,26 @@
       <c r="S160" s="20"/>
       <c r="T160" s="20"/>
       <c r="U160" s="20"/>
-    </row>
-    <row r="161" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="V160" s="20"/>
+      <c r="W160" s="20"/>
+      <c r="X160" s="20"/>
+      <c r="Y160" s="20"/>
+    </row>
+    <row r="161" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="46">
         <v>160</v>
       </c>
       <c r="B161" s="47" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C161" s="46" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D161" s="48" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E161" s="46" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F161" s="49">
         <v>10</v>
@@ -9461,22 +10133,26 @@
       <c r="S161" s="49"/>
       <c r="T161" s="49"/>
       <c r="U161" s="49"/>
-    </row>
-    <row r="162" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V161" s="49"/>
+      <c r="W161" s="49"/>
+      <c r="X161" s="49"/>
+      <c r="Y161" s="49"/>
+    </row>
+    <row r="162" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A162" s="33">
         <v>161</v>
       </c>
       <c r="B162" s="39" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C162" s="33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D162" s="35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E162" s="33" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F162" s="40">
         <v>1</v>
@@ -9514,22 +10190,26 @@
       <c r="S162" s="40"/>
       <c r="T162" s="40"/>
       <c r="U162" s="40"/>
-    </row>
-    <row r="163" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V162" s="40"/>
+      <c r="W162" s="40"/>
+      <c r="X162" s="40"/>
+      <c r="Y162" s="40"/>
+    </row>
+    <row r="163" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A163" s="7">
         <v>162</v>
       </c>
       <c r="B163" s="39" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F163" s="20">
         <v>2</v>
@@ -9567,22 +10247,26 @@
       <c r="S163" s="20"/>
       <c r="T163" s="20"/>
       <c r="U163" s="20"/>
-    </row>
-    <row r="164" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V163" s="20"/>
+      <c r="W163" s="20"/>
+      <c r="X163" s="20"/>
+      <c r="Y163" s="20"/>
+    </row>
+    <row r="164" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A164" s="7">
         <v>163</v>
       </c>
       <c r="B164" s="39" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F164" s="20">
         <v>3</v>
@@ -9620,22 +10304,26 @@
       <c r="S164" s="20"/>
       <c r="T164" s="20"/>
       <c r="U164" s="20"/>
-    </row>
-    <row r="165" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V164" s="20"/>
+      <c r="W164" s="20"/>
+      <c r="X164" s="20"/>
+      <c r="Y164" s="20"/>
+    </row>
+    <row r="165" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A165" s="7">
         <v>164</v>
       </c>
       <c r="B165" s="39" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F165" s="20">
         <v>4</v>
@@ -9673,22 +10361,26 @@
       <c r="S165" s="20"/>
       <c r="T165" s="20"/>
       <c r="U165" s="20"/>
-    </row>
-    <row r="166" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V165" s="20"/>
+      <c r="W165" s="20"/>
+      <c r="X165" s="20"/>
+      <c r="Y165" s="20"/>
+    </row>
+    <row r="166" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A166" s="7">
         <v>165</v>
       </c>
       <c r="B166" s="39" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F166" s="20">
         <v>5</v>
@@ -9726,22 +10418,26 @@
       <c r="S166" s="20"/>
       <c r="T166" s="20"/>
       <c r="U166" s="20"/>
-    </row>
-    <row r="167" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V166" s="20"/>
+      <c r="W166" s="20"/>
+      <c r="X166" s="20"/>
+      <c r="Y166" s="20"/>
+    </row>
+    <row r="167" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A167" s="7">
         <v>166</v>
       </c>
       <c r="B167" s="39" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F167" s="20">
         <v>6</v>
@@ -9779,22 +10475,26 @@
       <c r="S167" s="20"/>
       <c r="T167" s="20"/>
       <c r="U167" s="20"/>
-    </row>
-    <row r="168" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V167" s="20"/>
+      <c r="W167" s="20"/>
+      <c r="X167" s="20"/>
+      <c r="Y167" s="20"/>
+    </row>
+    <row r="168" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A168" s="7">
         <v>167</v>
       </c>
       <c r="B168" s="39" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F168" s="20">
         <v>7</v>
@@ -9832,22 +10532,26 @@
       <c r="S168" s="20"/>
       <c r="T168" s="20"/>
       <c r="U168" s="20"/>
-    </row>
-    <row r="169" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V168" s="20"/>
+      <c r="W168" s="20"/>
+      <c r="X168" s="20"/>
+      <c r="Y168" s="20"/>
+    </row>
+    <row r="169" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A169" s="7">
         <v>168</v>
       </c>
       <c r="B169" s="39" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F169" s="20">
         <v>8</v>
@@ -9885,22 +10589,26 @@
       <c r="S169" s="20"/>
       <c r="T169" s="20"/>
       <c r="U169" s="20"/>
-    </row>
-    <row r="170" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V169" s="20"/>
+      <c r="W169" s="20"/>
+      <c r="X169" s="20"/>
+      <c r="Y169" s="20"/>
+    </row>
+    <row r="170" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A170" s="7">
         <v>169</v>
       </c>
       <c r="B170" s="39" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F170" s="20">
         <v>9</v>
@@ -9938,22 +10646,26 @@
       <c r="S170" s="20"/>
       <c r="T170" s="20"/>
       <c r="U170" s="20"/>
-    </row>
-    <row r="171" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="V170" s="20"/>
+      <c r="W170" s="20"/>
+      <c r="X170" s="20"/>
+      <c r="Y170" s="20"/>
+    </row>
+    <row r="171" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="46">
         <v>170</v>
       </c>
       <c r="B171" s="47" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C171" s="46" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D171" s="48" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E171" s="46" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F171" s="49">
         <v>10</v>
@@ -9991,22 +10703,26 @@
       <c r="S171" s="49"/>
       <c r="T171" s="49"/>
       <c r="U171" s="49"/>
-    </row>
-    <row r="172" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V171" s="49"/>
+      <c r="W171" s="49"/>
+      <c r="X171" s="49"/>
+      <c r="Y171" s="49"/>
+    </row>
+    <row r="172" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A172" s="33">
         <v>171</v>
       </c>
       <c r="B172" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C172" s="33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D172" s="35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E172" s="33" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F172" s="40">
         <v>1</v>
@@ -10044,22 +10760,26 @@
       <c r="S172" s="40"/>
       <c r="T172" s="40"/>
       <c r="U172" s="40"/>
-    </row>
-    <row r="173" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V172" s="40"/>
+      <c r="W172" s="40"/>
+      <c r="X172" s="40"/>
+      <c r="Y172" s="40"/>
+    </row>
+    <row r="173" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A173" s="7">
         <v>172</v>
       </c>
       <c r="B173" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F173" s="20">
         <v>2</v>
@@ -10097,22 +10817,26 @@
       <c r="S173" s="20"/>
       <c r="T173" s="20"/>
       <c r="U173" s="20"/>
-    </row>
-    <row r="174" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V173" s="20"/>
+      <c r="W173" s="20"/>
+      <c r="X173" s="20"/>
+      <c r="Y173" s="20"/>
+    </row>
+    <row r="174" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A174" s="7">
         <v>173</v>
       </c>
       <c r="B174" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F174" s="20">
         <v>3</v>
@@ -10150,22 +10874,26 @@
       <c r="S174" s="20"/>
       <c r="T174" s="20"/>
       <c r="U174" s="20"/>
-    </row>
-    <row r="175" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V174" s="20"/>
+      <c r="W174" s="20"/>
+      <c r="X174" s="20"/>
+      <c r="Y174" s="20"/>
+    </row>
+    <row r="175" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A175" s="7">
         <v>174</v>
       </c>
       <c r="B175" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F175" s="20">
         <v>4</v>
@@ -10203,22 +10931,26 @@
       <c r="S175" s="20"/>
       <c r="T175" s="20"/>
       <c r="U175" s="20"/>
-    </row>
-    <row r="176" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V175" s="20"/>
+      <c r="W175" s="20"/>
+      <c r="X175" s="20"/>
+      <c r="Y175" s="20"/>
+    </row>
+    <row r="176" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A176" s="7">
         <v>175</v>
       </c>
       <c r="B176" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F176" s="20">
         <v>5</v>
@@ -10256,22 +10988,26 @@
       <c r="S176" s="20"/>
       <c r="T176" s="20"/>
       <c r="U176" s="20"/>
-    </row>
-    <row r="177" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V176" s="20"/>
+      <c r="W176" s="20"/>
+      <c r="X176" s="20"/>
+      <c r="Y176" s="20"/>
+    </row>
+    <row r="177" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A177" s="7">
         <v>176</v>
       </c>
       <c r="B177" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F177" s="20">
         <v>6</v>
@@ -10309,22 +11045,26 @@
       <c r="S177" s="20"/>
       <c r="T177" s="20"/>
       <c r="U177" s="20"/>
-    </row>
-    <row r="178" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V177" s="20"/>
+      <c r="W177" s="20"/>
+      <c r="X177" s="20"/>
+      <c r="Y177" s="20"/>
+    </row>
+    <row r="178" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A178" s="7">
         <v>177</v>
       </c>
       <c r="B178" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F178" s="20">
         <v>7</v>
@@ -10362,22 +11102,26 @@
       <c r="S178" s="20"/>
       <c r="T178" s="20"/>
       <c r="U178" s="20"/>
-    </row>
-    <row r="179" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V178" s="20"/>
+      <c r="W178" s="20"/>
+      <c r="X178" s="20"/>
+      <c r="Y178" s="20"/>
+    </row>
+    <row r="179" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A179" s="7">
         <v>178</v>
       </c>
       <c r="B179" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F179" s="20">
         <v>8</v>
@@ -10415,22 +11159,26 @@
       <c r="S179" s="20"/>
       <c r="T179" s="20"/>
       <c r="U179" s="20"/>
-    </row>
-    <row r="180" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V179" s="20"/>
+      <c r="W179" s="20"/>
+      <c r="X179" s="20"/>
+      <c r="Y179" s="20"/>
+    </row>
+    <row r="180" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A180" s="7">
         <v>179</v>
       </c>
       <c r="B180" s="39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F180" s="20">
         <v>9</v>
@@ -10468,22 +11216,26 @@
       <c r="S180" s="20"/>
       <c r="T180" s="20"/>
       <c r="U180" s="20"/>
-    </row>
-    <row r="181" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="V180" s="20"/>
+      <c r="W180" s="20"/>
+      <c r="X180" s="20"/>
+      <c r="Y180" s="20"/>
+    </row>
+    <row r="181" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="46">
         <v>180</v>
       </c>
       <c r="B181" s="47" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C181" s="46" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D181" s="48" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E181" s="46" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F181" s="49">
         <v>10</v>
@@ -10521,22 +11273,26 @@
       <c r="S181" s="49"/>
       <c r="T181" s="49"/>
       <c r="U181" s="49"/>
-    </row>
-    <row r="182" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V181" s="49"/>
+      <c r="W181" s="49"/>
+      <c r="X181" s="49"/>
+      <c r="Y181" s="49"/>
+    </row>
+    <row r="182" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A182" s="33">
         <v>181</v>
       </c>
       <c r="B182" s="39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C182" s="33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D182" s="35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E182" s="33" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F182" s="40">
         <v>1</v>
@@ -10572,22 +11328,26 @@
       <c r="S182" s="40"/>
       <c r="T182" s="40"/>
       <c r="U182" s="40"/>
-    </row>
-    <row r="183" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V182" s="40"/>
+      <c r="W182" s="40"/>
+      <c r="X182" s="40"/>
+      <c r="Y182" s="40"/>
+    </row>
+    <row r="183" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A183" s="7">
         <v>182</v>
       </c>
       <c r="B183" s="39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F183" s="20">
         <v>2</v>
@@ -10623,22 +11383,26 @@
       <c r="S183" s="20"/>
       <c r="T183" s="20"/>
       <c r="U183" s="20"/>
-    </row>
-    <row r="184" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V183" s="20"/>
+      <c r="W183" s="20"/>
+      <c r="X183" s="20"/>
+      <c r="Y183" s="20"/>
+    </row>
+    <row r="184" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A184" s="7">
         <v>183</v>
       </c>
       <c r="B184" s="39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F184" s="20">
         <v>3</v>
@@ -10674,22 +11438,26 @@
       <c r="S184" s="20"/>
       <c r="T184" s="20"/>
       <c r="U184" s="20"/>
-    </row>
-    <row r="185" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V184" s="20"/>
+      <c r="W184" s="20"/>
+      <c r="X184" s="20"/>
+      <c r="Y184" s="20"/>
+    </row>
+    <row r="185" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A185" s="7">
         <v>184</v>
       </c>
       <c r="B185" s="39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F185" s="20">
         <v>4</v>
@@ -10725,22 +11493,26 @@
       <c r="S185" s="20"/>
       <c r="T185" s="20"/>
       <c r="U185" s="20"/>
-    </row>
-    <row r="186" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V185" s="20"/>
+      <c r="W185" s="20"/>
+      <c r="X185" s="20"/>
+      <c r="Y185" s="20"/>
+    </row>
+    <row r="186" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A186" s="7">
         <v>185</v>
       </c>
       <c r="B186" s="39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F186" s="20">
         <v>5</v>
@@ -10776,22 +11548,26 @@
       <c r="S186" s="20"/>
       <c r="T186" s="20"/>
       <c r="U186" s="20"/>
-    </row>
-    <row r="187" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V186" s="20"/>
+      <c r="W186" s="20"/>
+      <c r="X186" s="20"/>
+      <c r="Y186" s="20"/>
+    </row>
+    <row r="187" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A187" s="7">
         <v>186</v>
       </c>
       <c r="B187" s="39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F187" s="20">
         <v>6</v>
@@ -10827,22 +11603,26 @@
       <c r="S187" s="20"/>
       <c r="T187" s="20"/>
       <c r="U187" s="20"/>
-    </row>
-    <row r="188" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V187" s="20"/>
+      <c r="W187" s="20"/>
+      <c r="X187" s="20"/>
+      <c r="Y187" s="20"/>
+    </row>
+    <row r="188" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A188" s="7">
         <v>187</v>
       </c>
       <c r="B188" s="39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F188" s="20">
         <v>7</v>
@@ -10878,22 +11658,26 @@
       <c r="S188" s="20"/>
       <c r="T188" s="20"/>
       <c r="U188" s="20"/>
-    </row>
-    <row r="189" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V188" s="20"/>
+      <c r="W188" s="20"/>
+      <c r="X188" s="20"/>
+      <c r="Y188" s="20"/>
+    </row>
+    <row r="189" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A189" s="7">
         <v>188</v>
       </c>
       <c r="B189" s="39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F189" s="20">
         <v>8</v>
@@ -10929,22 +11713,26 @@
       <c r="S189" s="20"/>
       <c r="T189" s="20"/>
       <c r="U189" s="20"/>
-    </row>
-    <row r="190" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V189" s="20"/>
+      <c r="W189" s="20"/>
+      <c r="X189" s="20"/>
+      <c r="Y189" s="20"/>
+    </row>
+    <row r="190" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A190" s="7">
         <v>189</v>
       </c>
       <c r="B190" s="39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E190" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F190" s="20">
         <v>9</v>
@@ -10980,22 +11768,26 @@
       <c r="S190" s="20"/>
       <c r="T190" s="20"/>
       <c r="U190" s="20"/>
-    </row>
-    <row r="191" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="V190" s="20"/>
+      <c r="W190" s="20"/>
+      <c r="X190" s="20"/>
+      <c r="Y190" s="20"/>
+    </row>
+    <row r="191" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="46">
         <v>190</v>
       </c>
       <c r="B191" s="47" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C191" s="46" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D191" s="48" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E191" s="46" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F191" s="49">
         <v>10</v>
@@ -11031,22 +11823,26 @@
       <c r="S191" s="49"/>
       <c r="T191" s="49"/>
       <c r="U191" s="49"/>
-    </row>
-    <row r="192" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V191" s="49"/>
+      <c r="W191" s="49"/>
+      <c r="X191" s="49"/>
+      <c r="Y191" s="49"/>
+    </row>
+    <row r="192" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A192" s="33">
         <v>191</v>
       </c>
       <c r="B192" s="39" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C192" s="33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D192" s="35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E192" s="33" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F192" s="40">
         <v>1</v>
@@ -11078,22 +11874,26 @@
       <c r="S192" s="40"/>
       <c r="T192" s="40"/>
       <c r="U192" s="40"/>
-    </row>
-    <row r="193" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V192" s="40"/>
+      <c r="W192" s="40"/>
+      <c r="X192" s="40"/>
+      <c r="Y192" s="40"/>
+    </row>
+    <row r="193" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A193" s="7">
         <v>192</v>
       </c>
       <c r="B193" s="39" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E193" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F193" s="20">
         <v>2</v>
@@ -11125,22 +11925,26 @@
       <c r="S193" s="20"/>
       <c r="T193" s="20"/>
       <c r="U193" s="20"/>
-    </row>
-    <row r="194" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V193" s="20"/>
+      <c r="W193" s="20"/>
+      <c r="X193" s="20"/>
+      <c r="Y193" s="20"/>
+    </row>
+    <row r="194" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A194" s="7">
         <v>193</v>
       </c>
       <c r="B194" s="39" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E194" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F194" s="20">
         <v>3</v>
@@ -11172,22 +11976,26 @@
       <c r="S194" s="20"/>
       <c r="T194" s="20"/>
       <c r="U194" s="20"/>
-    </row>
-    <row r="195" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V194" s="20"/>
+      <c r="W194" s="20"/>
+      <c r="X194" s="20"/>
+      <c r="Y194" s="20"/>
+    </row>
+    <row r="195" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A195" s="7">
         <v>194</v>
       </c>
       <c r="B195" s="39" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F195" s="20">
         <v>4</v>
@@ -11219,22 +12027,26 @@
       <c r="S195" s="20"/>
       <c r="T195" s="20"/>
       <c r="U195" s="20"/>
-    </row>
-    <row r="196" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V195" s="20"/>
+      <c r="W195" s="20"/>
+      <c r="X195" s="20"/>
+      <c r="Y195" s="20"/>
+    </row>
+    <row r="196" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A196" s="7">
         <v>195</v>
       </c>
       <c r="B196" s="39" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F196" s="20">
         <v>5</v>
@@ -11266,22 +12078,26 @@
       <c r="S196" s="20"/>
       <c r="T196" s="20"/>
       <c r="U196" s="20"/>
-    </row>
-    <row r="197" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V196" s="20"/>
+      <c r="W196" s="20"/>
+      <c r="X196" s="20"/>
+      <c r="Y196" s="20"/>
+    </row>
+    <row r="197" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A197" s="7">
         <v>196</v>
       </c>
       <c r="B197" s="39" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F197" s="20">
         <v>6</v>
@@ -11319,22 +12135,26 @@
       <c r="S197" s="20"/>
       <c r="T197" s="20"/>
       <c r="U197" s="20"/>
-    </row>
-    <row r="198" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V197" s="20"/>
+      <c r="W197" s="20"/>
+      <c r="X197" s="20"/>
+      <c r="Y197" s="20"/>
+    </row>
+    <row r="198" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A198" s="7">
         <v>197</v>
       </c>
       <c r="B198" s="39" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F198" s="20">
         <v>7</v>
@@ -11372,22 +12192,26 @@
       <c r="S198" s="20"/>
       <c r="T198" s="20"/>
       <c r="U198" s="20"/>
-    </row>
-    <row r="199" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V198" s="20"/>
+      <c r="W198" s="20"/>
+      <c r="X198" s="20"/>
+      <c r="Y198" s="20"/>
+    </row>
+    <row r="199" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A199" s="7">
         <v>198</v>
       </c>
       <c r="B199" s="39" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F199" s="20">
         <v>8</v>
@@ -11425,22 +12249,26 @@
       <c r="S199" s="20"/>
       <c r="T199" s="20"/>
       <c r="U199" s="20"/>
-    </row>
-    <row r="200" spans="1:21" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V199" s="20"/>
+      <c r="W199" s="20"/>
+      <c r="X199" s="20"/>
+      <c r="Y199" s="20"/>
+    </row>
+    <row r="200" spans="1:25" s="44" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A200" s="7">
         <v>199</v>
       </c>
       <c r="B200" s="39" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E200" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F200" s="20">
         <v>9</v>
@@ -11478,22 +12306,26 @@
       <c r="S200" s="20"/>
       <c r="T200" s="20"/>
       <c r="U200" s="20"/>
-    </row>
-    <row r="201" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="V200" s="20"/>
+      <c r="W200" s="20"/>
+      <c r="X200" s="20"/>
+      <c r="Y200" s="20"/>
+    </row>
+    <row r="201" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="46">
         <v>200</v>
       </c>
       <c r="B201" s="47" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C201" s="46" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D201" s="48" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E201" s="46" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F201" s="49">
         <v>10</v>
@@ -11531,22 +12363,26 @@
       <c r="S201" s="49"/>
       <c r="T201" s="49"/>
       <c r="U201" s="49"/>
-    </row>
-    <row r="202" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V201" s="49"/>
+      <c r="W201" s="49"/>
+      <c r="X201" s="49"/>
+      <c r="Y201" s="49"/>
+    </row>
+    <row r="202" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A202" s="33">
         <v>201</v>
       </c>
       <c r="B202" s="58" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C202" s="33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D202" s="35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E202" s="33" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F202" s="40">
         <v>1</v>
@@ -11584,22 +12420,26 @@
       <c r="S202" s="40"/>
       <c r="T202" s="40"/>
       <c r="U202" s="40"/>
-    </row>
-    <row r="203" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V202" s="40"/>
+      <c r="W202" s="40"/>
+      <c r="X202" s="40"/>
+      <c r="Y202" s="40"/>
+    </row>
+    <row r="203" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A203" s="7">
         <v>202</v>
       </c>
       <c r="B203" s="59" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F203" s="20">
         <v>2</v>
@@ -11635,22 +12475,26 @@
       <c r="S203" s="20"/>
       <c r="T203" s="20"/>
       <c r="U203" s="20"/>
-    </row>
-    <row r="204" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V203" s="20"/>
+      <c r="W203" s="20"/>
+      <c r="X203" s="20"/>
+      <c r="Y203" s="20"/>
+    </row>
+    <row r="204" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A204" s="7">
         <v>203</v>
       </c>
       <c r="B204" s="59" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E204" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F204" s="20">
         <v>3</v>
@@ -11688,22 +12532,26 @@
       <c r="S204" s="20"/>
       <c r="T204" s="20"/>
       <c r="U204" s="20"/>
-    </row>
-    <row r="205" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V204" s="20"/>
+      <c r="W204" s="20"/>
+      <c r="X204" s="20"/>
+      <c r="Y204" s="20"/>
+    </row>
+    <row r="205" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A205" s="7">
         <v>204</v>
       </c>
       <c r="B205" s="59" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F205" s="20">
         <v>4</v>
@@ -11741,22 +12589,26 @@
       <c r="S205" s="20"/>
       <c r="T205" s="20"/>
       <c r="U205" s="20"/>
-    </row>
-    <row r="206" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V205" s="20"/>
+      <c r="W205" s="20"/>
+      <c r="X205" s="20"/>
+      <c r="Y205" s="20"/>
+    </row>
+    <row r="206" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A206" s="7">
         <v>205</v>
       </c>
       <c r="B206" s="59" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F206" s="20">
         <v>5</v>
@@ -11792,22 +12644,26 @@
       <c r="S206" s="20"/>
       <c r="T206" s="20"/>
       <c r="U206" s="20"/>
-    </row>
-    <row r="207" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V206" s="20"/>
+      <c r="W206" s="20"/>
+      <c r="X206" s="20"/>
+      <c r="Y206" s="20"/>
+    </row>
+    <row r="207" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A207" s="7">
         <v>206</v>
       </c>
       <c r="B207" s="59" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F207" s="20">
         <v>6</v>
@@ -11845,22 +12701,26 @@
       <c r="S207" s="20"/>
       <c r="T207" s="20"/>
       <c r="U207" s="20"/>
-    </row>
-    <row r="208" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V207" s="20"/>
+      <c r="W207" s="20"/>
+      <c r="X207" s="20"/>
+      <c r="Y207" s="20"/>
+    </row>
+    <row r="208" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A208" s="7">
         <v>207</v>
       </c>
       <c r="B208" s="59" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F208" s="20">
         <v>7</v>
@@ -11898,22 +12758,26 @@
       <c r="S208" s="20"/>
       <c r="T208" s="20"/>
       <c r="U208" s="20"/>
-    </row>
-    <row r="209" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V208" s="20"/>
+      <c r="W208" s="20"/>
+      <c r="X208" s="20"/>
+      <c r="Y208" s="20"/>
+    </row>
+    <row r="209" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A209" s="7">
         <v>208</v>
       </c>
       <c r="B209" s="59" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F209" s="20">
         <v>8</v>
@@ -11949,22 +12813,26 @@
       <c r="S209" s="20"/>
       <c r="T209" s="20"/>
       <c r="U209" s="20"/>
-    </row>
-    <row r="210" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V209" s="20"/>
+      <c r="W209" s="20"/>
+      <c r="X209" s="20"/>
+      <c r="Y209" s="20"/>
+    </row>
+    <row r="210" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A210" s="7">
         <v>209</v>
       </c>
       <c r="B210" s="59" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F210" s="20">
         <v>9</v>
@@ -12002,22 +12870,26 @@
       <c r="S210" s="20"/>
       <c r="T210" s="20"/>
       <c r="U210" s="20"/>
-    </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="V210" s="20"/>
+      <c r="W210" s="20"/>
+      <c r="X210" s="20"/>
+      <c r="Y210" s="20"/>
+    </row>
+    <row r="211" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="46">
         <v>210</v>
       </c>
       <c r="B211" s="60" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C211" s="46" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D211" s="48" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E211" s="46" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F211" s="49">
         <v>10</v>
@@ -12055,22 +12927,26 @@
       <c r="S211" s="49"/>
       <c r="T211" s="49"/>
       <c r="U211" s="49"/>
-    </row>
-    <row r="212" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V211" s="49"/>
+      <c r="W211" s="49"/>
+      <c r="X211" s="49"/>
+      <c r="Y211" s="49"/>
+    </row>
+    <row r="212" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A212" s="33">
         <v>211</v>
       </c>
       <c r="B212" s="58" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C212" s="33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D212" s="35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E212" s="33" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F212" s="40">
         <v>1</v>
@@ -12108,22 +12984,26 @@
       <c r="S212" s="40"/>
       <c r="T212" s="40"/>
       <c r="U212" s="40"/>
-    </row>
-    <row r="213" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V212" s="40"/>
+      <c r="W212" s="40"/>
+      <c r="X212" s="40"/>
+      <c r="Y212" s="40"/>
+    </row>
+    <row r="213" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A213" s="7">
         <v>212</v>
       </c>
       <c r="B213" s="58" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F213" s="20">
         <v>2</v>
@@ -12161,22 +13041,26 @@
       <c r="S213" s="20"/>
       <c r="T213" s="20"/>
       <c r="U213" s="20"/>
-    </row>
-    <row r="214" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V213" s="20"/>
+      <c r="W213" s="20"/>
+      <c r="X213" s="20"/>
+      <c r="Y213" s="20"/>
+    </row>
+    <row r="214" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A214" s="7">
         <v>213</v>
       </c>
       <c r="B214" s="58" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F214" s="20">
         <v>3</v>
@@ -12214,22 +13098,26 @@
       <c r="S214" s="20"/>
       <c r="T214" s="20"/>
       <c r="U214" s="20"/>
-    </row>
-    <row r="215" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V214" s="20"/>
+      <c r="W214" s="20"/>
+      <c r="X214" s="20"/>
+      <c r="Y214" s="20"/>
+    </row>
+    <row r="215" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A215" s="7">
         <v>214</v>
       </c>
       <c r="B215" s="58" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F215" s="20">
         <v>4</v>
@@ -12267,22 +13155,26 @@
       <c r="S215" s="20"/>
       <c r="T215" s="20"/>
       <c r="U215" s="20"/>
-    </row>
-    <row r="216" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V215" s="20"/>
+      <c r="W215" s="20"/>
+      <c r="X215" s="20"/>
+      <c r="Y215" s="20"/>
+    </row>
+    <row r="216" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A216" s="7">
         <v>215</v>
       </c>
       <c r="B216" s="58" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F216" s="20">
         <v>5</v>
@@ -12320,22 +13212,26 @@
       <c r="S216" s="20"/>
       <c r="T216" s="20"/>
       <c r="U216" s="20"/>
-    </row>
-    <row r="217" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V216" s="20"/>
+      <c r="W216" s="20"/>
+      <c r="X216" s="20"/>
+      <c r="Y216" s="20"/>
+    </row>
+    <row r="217" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A217" s="7">
         <v>216</v>
       </c>
       <c r="B217" s="58" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F217" s="20">
         <v>6</v>
@@ -12373,22 +13269,26 @@
       <c r="S217" s="20"/>
       <c r="T217" s="20"/>
       <c r="U217" s="20"/>
-    </row>
-    <row r="218" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V217" s="20"/>
+      <c r="W217" s="20"/>
+      <c r="X217" s="20"/>
+      <c r="Y217" s="20"/>
+    </row>
+    <row r="218" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A218" s="7">
         <v>217</v>
       </c>
       <c r="B218" s="58" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F218" s="20">
         <v>7</v>
@@ -12426,22 +13326,26 @@
       <c r="S218" s="20"/>
       <c r="T218" s="20"/>
       <c r="U218" s="20"/>
-    </row>
-    <row r="219" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V218" s="20"/>
+      <c r="W218" s="20"/>
+      <c r="X218" s="20"/>
+      <c r="Y218" s="20"/>
+    </row>
+    <row r="219" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A219" s="7">
         <v>218</v>
       </c>
       <c r="B219" s="58" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F219" s="20">
         <v>8</v>
@@ -12479,22 +13383,26 @@
       <c r="S219" s="20"/>
       <c r="T219" s="20"/>
       <c r="U219" s="20"/>
-    </row>
-    <row r="220" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V219" s="20"/>
+      <c r="W219" s="20"/>
+      <c r="X219" s="20"/>
+      <c r="Y219" s="20"/>
+    </row>
+    <row r="220" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A220" s="7">
         <v>219</v>
       </c>
       <c r="B220" s="58" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F220" s="20">
         <v>9</v>
@@ -12532,22 +13440,26 @@
       <c r="S220" s="20"/>
       <c r="T220" s="20"/>
       <c r="U220" s="20"/>
-    </row>
-    <row r="221" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V220" s="20"/>
+      <c r="W220" s="20"/>
+      <c r="X220" s="20"/>
+      <c r="Y220" s="20"/>
+    </row>
+    <row r="221" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A221" s="7">
         <v>220</v>
       </c>
       <c r="B221" s="58" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F221" s="20">
         <v>10</v>
@@ -12585,22 +13497,26 @@
       <c r="S221" s="20"/>
       <c r="T221" s="20"/>
       <c r="U221" s="20"/>
-    </row>
-    <row r="222" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V221" s="20"/>
+      <c r="W221" s="20"/>
+      <c r="X221" s="20"/>
+      <c r="Y221" s="20"/>
+    </row>
+    <row r="222" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A222" s="7">
         <v>221</v>
       </c>
       <c r="B222" s="58" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E222" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F222" s="20">
         <v>11</v>
@@ -12638,22 +13554,26 @@
       <c r="S222" s="20"/>
       <c r="T222" s="20"/>
       <c r="U222" s="20"/>
-    </row>
-    <row r="223" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V222" s="20"/>
+      <c r="W222" s="20"/>
+      <c r="X222" s="20"/>
+      <c r="Y222" s="20"/>
+    </row>
+    <row r="223" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A223" s="7">
         <v>222</v>
       </c>
       <c r="B223" s="58" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F223" s="20">
         <v>12</v>
@@ -12691,22 +13611,26 @@
       <c r="S223" s="20"/>
       <c r="T223" s="20"/>
       <c r="U223" s="20"/>
-    </row>
-    <row r="224" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V223" s="20"/>
+      <c r="W223" s="20"/>
+      <c r="X223" s="20"/>
+      <c r="Y223" s="20"/>
+    </row>
+    <row r="224" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A224" s="7">
         <v>223</v>
       </c>
       <c r="B224" s="58" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E224" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F224" s="20">
         <v>13</v>
@@ -12744,22 +13668,26 @@
       <c r="S224" s="20"/>
       <c r="T224" s="20"/>
       <c r="U224" s="20"/>
-    </row>
-    <row r="225" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V224" s="20"/>
+      <c r="W224" s="20"/>
+      <c r="X224" s="20"/>
+      <c r="Y224" s="20"/>
+    </row>
+    <row r="225" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A225" s="7">
         <v>224</v>
       </c>
       <c r="B225" s="58" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E225" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F225" s="20">
         <v>14</v>
@@ -12797,22 +13725,26 @@
       <c r="S225" s="20"/>
       <c r="T225" s="20"/>
       <c r="U225" s="20"/>
-    </row>
-    <row r="226" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V225" s="20"/>
+      <c r="W225" s="20"/>
+      <c r="X225" s="20"/>
+      <c r="Y225" s="20"/>
+    </row>
+    <row r="226" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A226" s="7">
         <v>225</v>
       </c>
       <c r="B226" s="58" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F226" s="20">
         <v>15</v>
@@ -12850,6 +13782,1150 @@
       <c r="S226" s="20"/>
       <c r="T226" s="20"/>
       <c r="U226" s="20"/>
+      <c r="V226" s="20"/>
+      <c r="W226" s="20"/>
+      <c r="X226" s="20"/>
+      <c r="Y226" s="20"/>
+    </row>
+    <row r="227" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A227" s="7">
+        <v>226</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D227" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E227" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F227" s="7">
+        <v>1</v>
+      </c>
+      <c r="G227" s="9">
+        <v>7291</v>
+      </c>
+      <c r="H227" s="9"/>
+      <c r="I227" s="10">
+        <v>75.933459010308098</v>
+      </c>
+      <c r="J227" s="7">
+        <v>0</v>
+      </c>
+      <c r="K227" s="10">
+        <v>72.722053054645301</v>
+      </c>
+      <c r="L227" s="10">
+        <v>79.144864965970797</v>
+      </c>
+      <c r="M227" s="11">
+        <v>1.6384724263585451</v>
+      </c>
+      <c r="N227" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="O227" s="7">
+        <v>100000</v>
+      </c>
+      <c r="P227" s="7">
+        <v>6.9346164736688189</v>
+      </c>
+      <c r="Q227" s="7">
+        <v>1.0888180804446217</v>
+      </c>
+      <c r="R227" s="7">
+        <v>3.1275946176508169</v>
+      </c>
+      <c r="S227" s="7">
+        <v>10.7586873680794</v>
+      </c>
+      <c r="T227" s="7">
+        <v>1.0383690591642838</v>
+      </c>
+      <c r="U227" s="7">
+        <v>1.1412993360251238</v>
+      </c>
+      <c r="V227" s="7">
+        <v>1.9243274437391116</v>
+      </c>
+      <c r="W227" s="7">
+        <v>11.99208403800279</v>
+      </c>
+      <c r="X227" s="7">
+        <v>1.0234148326541768</v>
+      </c>
+      <c r="Y227" s="7">
+        <v>1.1587677685047233</v>
+      </c>
+    </row>
+    <row r="228" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A228" s="7">
+        <v>227</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D228" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E228" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F228" s="7">
+        <v>2</v>
+      </c>
+      <c r="G228" s="9">
+        <v>7997</v>
+      </c>
+      <c r="H228" s="9"/>
+      <c r="I228" s="10">
+        <v>78.344238272784295</v>
+      </c>
+      <c r="J228" s="7">
+        <v>0</v>
+      </c>
+      <c r="K228" s="10">
+        <v>75.250980219080205</v>
+      </c>
+      <c r="L228" s="10">
+        <v>81.4374963264884</v>
+      </c>
+      <c r="M228" s="11">
+        <v>1.578192884542907</v>
+      </c>
+      <c r="N228" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="O228" s="7">
+        <v>100000</v>
+      </c>
+      <c r="P228" s="7"/>
+      <c r="Q228" s="7"/>
+      <c r="R228" s="7"/>
+      <c r="S228" s="7"/>
+      <c r="T228" s="7"/>
+      <c r="U228" s="7"/>
+      <c r="V228" s="7"/>
+      <c r="W228" s="7"/>
+      <c r="X228" s="7"/>
+      <c r="Y228" s="7"/>
+    </row>
+    <row r="229" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A229" s="7">
+        <v>228</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D229" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E229" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F229" s="7">
+        <v>3</v>
+      </c>
+      <c r="G229" s="9">
+        <v>6105</v>
+      </c>
+      <c r="H229" s="9"/>
+      <c r="I229" s="10">
+        <v>83.836063104165405</v>
+      </c>
+      <c r="J229" s="7">
+        <v>0</v>
+      </c>
+      <c r="K229" s="10">
+        <v>80.869729512475899</v>
+      </c>
+      <c r="L229" s="10">
+        <v>86.802396695854895</v>
+      </c>
+      <c r="M229" s="11">
+        <v>1.5134355059640296</v>
+      </c>
+      <c r="N229" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="O229" s="7">
+        <v>100000</v>
+      </c>
+      <c r="P229" s="7"/>
+      <c r="Q229" s="7"/>
+      <c r="R229" s="7"/>
+      <c r="S229" s="7"/>
+      <c r="T229" s="7"/>
+      <c r="U229" s="7"/>
+      <c r="V229" s="7"/>
+      <c r="W229" s="7"/>
+      <c r="X229" s="7"/>
+      <c r="Y229" s="7"/>
+    </row>
+    <row r="230" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A230" s="7">
+        <v>229</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D230" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E230" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F230" s="7">
+        <v>4</v>
+      </c>
+      <c r="G230" s="9">
+        <v>7666</v>
+      </c>
+      <c r="H230" s="9"/>
+      <c r="I230" s="10">
+        <v>83.637539966493094</v>
+      </c>
+      <c r="J230" s="7">
+        <v>0</v>
+      </c>
+      <c r="K230" s="10">
+        <v>80.157578356035998</v>
+      </c>
+      <c r="L230" s="10">
+        <v>87.117501576950104</v>
+      </c>
+      <c r="M230" s="11">
+        <v>1.7754906175801293</v>
+      </c>
+      <c r="N230" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="O230" s="7">
+        <v>100000</v>
+      </c>
+      <c r="P230" s="7"/>
+      <c r="Q230" s="7"/>
+      <c r="R230" s="7"/>
+      <c r="S230" s="7"/>
+      <c r="T230" s="7"/>
+      <c r="U230" s="7"/>
+      <c r="V230" s="7"/>
+      <c r="W230" s="7"/>
+      <c r="X230" s="7"/>
+      <c r="Y230" s="7"/>
+    </row>
+    <row r="231" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A231" s="7">
+        <v>230</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D231" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E231" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F231" s="7">
+        <v>5</v>
+      </c>
+      <c r="G231" s="9">
+        <v>5790</v>
+      </c>
+      <c r="H231" s="9"/>
+      <c r="I231" s="10">
+        <v>80.465503152955904</v>
+      </c>
+      <c r="J231" s="7">
+        <v>0</v>
+      </c>
+      <c r="K231" s="10">
+        <v>77.130878596927502</v>
+      </c>
+      <c r="L231" s="10">
+        <v>83.800127708984206</v>
+      </c>
+      <c r="M231" s="11">
+        <v>1.7013390591981388</v>
+      </c>
+      <c r="N231" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="O231" s="7">
+        <v>100000</v>
+      </c>
+      <c r="P231" s="7"/>
+      <c r="Q231" s="7"/>
+      <c r="R231" s="7"/>
+      <c r="S231" s="7"/>
+      <c r="T231" s="7"/>
+      <c r="U231" s="7"/>
+      <c r="V231" s="7"/>
+      <c r="W231" s="7"/>
+      <c r="X231" s="7"/>
+      <c r="Y231" s="7"/>
+    </row>
+    <row r="232" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A232" s="7">
+        <v>231</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D232" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E232" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F232" s="7">
+        <v>6</v>
+      </c>
+      <c r="G232" s="9">
+        <v>6934</v>
+      </c>
+      <c r="H232" s="9"/>
+      <c r="I232" s="10">
+        <v>81.115675985702197</v>
+      </c>
+      <c r="J232" s="7">
+        <v>0</v>
+      </c>
+      <c r="K232" s="10">
+        <v>78.049998681117799</v>
+      </c>
+      <c r="L232" s="10">
+        <v>84.181353290286594</v>
+      </c>
+      <c r="M232" s="11">
+        <v>1.5641210737675499</v>
+      </c>
+      <c r="N232" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="O232" s="7">
+        <v>100000</v>
+      </c>
+      <c r="P232" s="7"/>
+      <c r="Q232" s="7"/>
+      <c r="R232" s="7"/>
+      <c r="S232" s="7"/>
+      <c r="T232" s="7"/>
+      <c r="U232" s="7"/>
+      <c r="V232" s="7"/>
+      <c r="W232" s="7"/>
+      <c r="X232" s="7"/>
+      <c r="Y232" s="7"/>
+    </row>
+    <row r="233" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A233" s="7">
+        <v>232</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D233" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E233" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F233" s="7">
+        <v>7</v>
+      </c>
+      <c r="G233" s="9">
+        <v>5918</v>
+      </c>
+      <c r="H233" s="9"/>
+      <c r="I233" s="10">
+        <v>81.693083571856207</v>
+      </c>
+      <c r="J233" s="7">
+        <v>0</v>
+      </c>
+      <c r="K233" s="10">
+        <v>79.011578491948001</v>
+      </c>
+      <c r="L233" s="10">
+        <v>84.374588651764398</v>
+      </c>
+      <c r="M233" s="11">
+        <v>1.3681148366878566</v>
+      </c>
+      <c r="N233" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="O233" s="7">
+        <v>100000</v>
+      </c>
+      <c r="P233" s="7"/>
+      <c r="Q233" s="7"/>
+      <c r="R233" s="7"/>
+      <c r="S233" s="7"/>
+      <c r="T233" s="7"/>
+      <c r="U233" s="7"/>
+      <c r="V233" s="7"/>
+      <c r="W233" s="7"/>
+      <c r="X233" s="7"/>
+      <c r="Y233" s="7"/>
+    </row>
+    <row r="234" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A234" s="7">
+        <v>233</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D234" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E234" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F234" s="7">
+        <v>8</v>
+      </c>
+      <c r="G234" s="9">
+        <v>5974</v>
+      </c>
+      <c r="H234" s="9"/>
+      <c r="I234" s="10">
+        <v>84.190006206098701</v>
+      </c>
+      <c r="J234" s="7">
+        <v>0</v>
+      </c>
+      <c r="K234" s="10">
+        <v>81.445728276934304</v>
+      </c>
+      <c r="L234" s="10">
+        <v>86.934284135263098</v>
+      </c>
+      <c r="M234" s="11">
+        <v>1.4001418005940802</v>
+      </c>
+      <c r="N234" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="O234" s="7">
+        <v>100000</v>
+      </c>
+      <c r="P234" s="7"/>
+      <c r="Q234" s="7"/>
+      <c r="R234" s="7"/>
+      <c r="S234" s="7"/>
+      <c r="T234" s="7"/>
+      <c r="U234" s="7"/>
+      <c r="V234" s="7"/>
+      <c r="W234" s="7"/>
+      <c r="X234" s="7"/>
+      <c r="Y234" s="7"/>
+    </row>
+    <row r="235" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A235" s="7">
+        <v>234</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D235" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E235" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F235" s="7">
+        <v>9</v>
+      </c>
+      <c r="G235" s="9">
+        <v>7147</v>
+      </c>
+      <c r="H235" s="9"/>
+      <c r="I235" s="10">
+        <v>80.595564108147201</v>
+      </c>
+      <c r="J235" s="7">
+        <v>0</v>
+      </c>
+      <c r="K235" s="10">
+        <v>75.827185168894005</v>
+      </c>
+      <c r="L235" s="10">
+        <v>85.363943047400397</v>
+      </c>
+      <c r="M235" s="11">
+        <v>2.4328463975781616</v>
+      </c>
+      <c r="N235" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="O235" s="7">
+        <v>100000</v>
+      </c>
+      <c r="P235" s="7"/>
+      <c r="Q235" s="7"/>
+      <c r="R235" s="7"/>
+      <c r="S235" s="7"/>
+      <c r="T235" s="7"/>
+      <c r="U235" s="7"/>
+      <c r="V235" s="7"/>
+      <c r="W235" s="7"/>
+      <c r="X235" s="7"/>
+      <c r="Y235" s="7"/>
+    </row>
+    <row r="236" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A236" s="7">
+        <v>235</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D236" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E236" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F236" s="7">
+        <v>10</v>
+      </c>
+      <c r="G236" s="9">
+        <v>7534</v>
+      </c>
+      <c r="H236" s="9"/>
+      <c r="I236" s="10">
+        <v>86.289434957862397</v>
+      </c>
+      <c r="J236" s="7">
+        <v>0</v>
+      </c>
+      <c r="K236" s="10">
+        <v>83.2190593454592</v>
+      </c>
+      <c r="L236" s="10">
+        <v>89.359810570265594</v>
+      </c>
+      <c r="M236" s="11">
+        <v>1.5665181695934678</v>
+      </c>
+      <c r="N236" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="O236" s="7">
+        <v>100000</v>
+      </c>
+      <c r="P236" s="7"/>
+      <c r="Q236" s="7"/>
+      <c r="R236" s="7"/>
+      <c r="S236" s="7"/>
+      <c r="T236" s="7"/>
+      <c r="U236" s="7"/>
+      <c r="V236" s="7"/>
+      <c r="W236" s="7"/>
+      <c r="X236" s="7"/>
+      <c r="Y236" s="7"/>
+    </row>
+    <row r="237" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A237" s="12">
+        <v>236</v>
+      </c>
+      <c r="B237" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C237" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D237" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E237" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F237" s="12">
+        <v>1</v>
+      </c>
+      <c r="G237" s="15">
+        <v>21675</v>
+      </c>
+      <c r="H237" s="15"/>
+      <c r="I237" s="16">
+        <v>70.548531859999997</v>
+      </c>
+      <c r="J237" s="12">
+        <v>0</v>
+      </c>
+      <c r="K237" s="16">
+        <v>70.098531859999994</v>
+      </c>
+      <c r="L237" s="16">
+        <v>70.99853186</v>
+      </c>
+      <c r="M237" s="17">
+        <v>0.22959183673469533</v>
+      </c>
+      <c r="N237" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="O237" s="12">
+        <v>100000</v>
+      </c>
+      <c r="P237" s="12">
+        <v>12.547846636351798</v>
+      </c>
+      <c r="Q237" s="12">
+        <v>1.180885620848795</v>
+      </c>
+      <c r="R237" s="12">
+        <v>11.936156426792138</v>
+      </c>
+      <c r="S237" s="12">
+        <v>13.163020132396579</v>
+      </c>
+      <c r="T237" s="12">
+        <v>1.1713706914325628</v>
+      </c>
+      <c r="U237" s="12">
+        <v>1.1904396357244886</v>
+      </c>
+      <c r="V237" s="12">
+        <v>11.743647833205888</v>
+      </c>
+      <c r="W237" s="12">
+        <v>13.347203652453951</v>
+      </c>
+      <c r="X237" s="12">
+        <v>1.168320603472105</v>
+      </c>
+      <c r="Y237" s="12">
+        <v>1.1934312559878586</v>
+      </c>
+    </row>
+    <row r="238" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A238" s="12">
+        <v>237</v>
+      </c>
+      <c r="B238" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C238" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D238" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E238" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F238" s="12">
+        <v>2</v>
+      </c>
+      <c r="G238" s="15">
+        <v>20065</v>
+      </c>
+      <c r="H238" s="15"/>
+      <c r="I238" s="16">
+        <v>71.571557339999998</v>
+      </c>
+      <c r="J238" s="12">
+        <v>0</v>
+      </c>
+      <c r="K238" s="16">
+        <v>71.121557339999995</v>
+      </c>
+      <c r="L238" s="16">
+        <v>72.14</v>
+      </c>
+      <c r="M238" s="17">
+        <v>0.25980680102040948</v>
+      </c>
+      <c r="N238" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="O238" s="12">
+        <v>100000</v>
+      </c>
+      <c r="P238" s="12"/>
+      <c r="Q238" s="12"/>
+      <c r="R238" s="12"/>
+      <c r="S238" s="12"/>
+      <c r="T238" s="12"/>
+      <c r="U238" s="12"/>
+      <c r="V238" s="12"/>
+      <c r="W238" s="12"/>
+      <c r="X238" s="12"/>
+      <c r="Y238" s="12"/>
+    </row>
+    <row r="239" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A239" s="12">
+        <v>238</v>
+      </c>
+      <c r="B239" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C239" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D239" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E239" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F239" s="12">
+        <v>3</v>
+      </c>
+      <c r="G239" s="15">
+        <v>19750</v>
+      </c>
+      <c r="H239" s="15"/>
+      <c r="I239" s="16">
+        <v>72.486986709999996</v>
+      </c>
+      <c r="J239" s="12">
+        <v>0</v>
+      </c>
+      <c r="K239" s="16">
+        <v>72.036986709999994</v>
+      </c>
+      <c r="L239" s="16">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="M239" s="17">
+        <v>0.29923808418367348</v>
+      </c>
+      <c r="N239" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="O239" s="12">
+        <v>100000</v>
+      </c>
+      <c r="P239" s="12"/>
+      <c r="Q239" s="12"/>
+      <c r="R239" s="12"/>
+      <c r="S239" s="12"/>
+      <c r="T239" s="12"/>
+      <c r="U239" s="12"/>
+      <c r="V239" s="12"/>
+      <c r="W239" s="12"/>
+      <c r="X239" s="12"/>
+      <c r="Y239" s="12"/>
+    </row>
+    <row r="240" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A240" s="12">
+        <v>239</v>
+      </c>
+      <c r="B240" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C240" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D240" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E240" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F240" s="12">
+        <v>4</v>
+      </c>
+      <c r="G240" s="15">
+        <v>24713</v>
+      </c>
+      <c r="H240" s="15"/>
+      <c r="I240" s="16">
+        <v>73.519855190000001</v>
+      </c>
+      <c r="J240" s="12">
+        <v>0</v>
+      </c>
+      <c r="K240" s="16">
+        <v>73.069855189999998</v>
+      </c>
+      <c r="L240" s="16">
+        <v>73.7</v>
+      </c>
+      <c r="M240" s="17">
+        <v>0.16075122704081746</v>
+      </c>
+      <c r="N240" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="O240" s="12">
+        <v>100000</v>
+      </c>
+      <c r="P240" s="12"/>
+      <c r="Q240" s="12"/>
+      <c r="R240" s="12"/>
+      <c r="S240" s="12"/>
+      <c r="T240" s="12"/>
+      <c r="U240" s="12"/>
+      <c r="V240" s="12"/>
+      <c r="W240" s="12"/>
+      <c r="X240" s="12"/>
+      <c r="Y240" s="12"/>
+    </row>
+    <row r="241" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A241" s="12">
+        <v>240</v>
+      </c>
+      <c r="B241" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C241" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D241" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E241" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F241" s="12">
+        <v>5</v>
+      </c>
+      <c r="G241" s="15">
+        <v>20112</v>
+      </c>
+      <c r="H241" s="15"/>
+      <c r="I241" s="16">
+        <v>73.146054250000006</v>
+      </c>
+      <c r="J241" s="12">
+        <v>0</v>
+      </c>
+      <c r="K241" s="16">
+        <v>72.696054250000003</v>
+      </c>
+      <c r="L241" s="16">
+        <v>75.8</v>
+      </c>
+      <c r="M241" s="17">
+        <v>0.79182289540816175</v>
+      </c>
+      <c r="N241" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="O241" s="12">
+        <v>100000</v>
+      </c>
+      <c r="P241" s="12"/>
+      <c r="Q241" s="12"/>
+      <c r="R241" s="12"/>
+      <c r="S241" s="12"/>
+      <c r="T241" s="12"/>
+      <c r="U241" s="12"/>
+      <c r="V241" s="12"/>
+      <c r="W241" s="12"/>
+      <c r="X241" s="12"/>
+      <c r="Y241" s="12"/>
+    </row>
+    <row r="242" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A242" s="12">
+        <v>241</v>
+      </c>
+      <c r="B242" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C242" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D242" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E242" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F242" s="12">
+        <v>6</v>
+      </c>
+      <c r="G242" s="15">
+        <v>19618</v>
+      </c>
+      <c r="H242" s="15"/>
+      <c r="I242" s="16">
+        <v>76.158987120000006</v>
+      </c>
+      <c r="J242" s="12">
+        <v>0</v>
+      </c>
+      <c r="K242" s="16">
+        <v>75.708987120000003</v>
+      </c>
+      <c r="L242" s="16">
+        <v>78.760000000000005</v>
+      </c>
+      <c r="M242" s="17">
+        <v>0.77831961224489843</v>
+      </c>
+      <c r="N242" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="O242" s="12">
+        <v>100000</v>
+      </c>
+      <c r="P242" s="12"/>
+      <c r="Q242" s="12"/>
+      <c r="R242" s="12"/>
+      <c r="S242" s="12"/>
+      <c r="T242" s="12"/>
+      <c r="U242" s="12"/>
+      <c r="V242" s="12"/>
+      <c r="W242" s="12"/>
+      <c r="X242" s="12"/>
+      <c r="Y242" s="12"/>
+    </row>
+    <row r="243" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A243" s="12">
+        <v>242</v>
+      </c>
+      <c r="B243" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C243" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D243" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E243" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F243" s="12">
+        <v>7</v>
+      </c>
+      <c r="G243" s="15">
+        <v>22408</v>
+      </c>
+      <c r="H243" s="15"/>
+      <c r="I243" s="16">
+        <v>78.654448709999997</v>
+      </c>
+      <c r="J243" s="12">
+        <v>0</v>
+      </c>
+      <c r="K243" s="16">
+        <v>78.204448709999994</v>
+      </c>
+      <c r="L243" s="16">
+        <v>79.77</v>
+      </c>
+      <c r="M243" s="17">
+        <v>0.39937532908163315</v>
+      </c>
+      <c r="N243" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="O243" s="12">
+        <v>100000</v>
+      </c>
+      <c r="P243" s="12"/>
+      <c r="Q243" s="12"/>
+      <c r="R243" s="12"/>
+      <c r="S243" s="12"/>
+      <c r="T243" s="12"/>
+      <c r="U243" s="12"/>
+      <c r="V243" s="12"/>
+      <c r="W243" s="12"/>
+      <c r="X243" s="12"/>
+      <c r="Y243" s="12"/>
+    </row>
+    <row r="244" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A244" s="12">
+        <v>243</v>
+      </c>
+      <c r="B244" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C244" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D244" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E244" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F244" s="12">
+        <v>8</v>
+      </c>
+      <c r="G244" s="15">
+        <v>19752</v>
+      </c>
+      <c r="H244" s="15"/>
+      <c r="I244" s="16">
+        <v>80.564769609999999</v>
+      </c>
+      <c r="J244" s="12">
+        <v>0</v>
+      </c>
+      <c r="K244" s="16">
+        <v>80.114769609999996</v>
+      </c>
+      <c r="L244" s="16">
+        <v>81.209999999999994</v>
+      </c>
+      <c r="M244" s="17">
+        <v>0.27939550765306059</v>
+      </c>
+      <c r="N244" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="O244" s="12">
+        <v>100000</v>
+      </c>
+      <c r="P244" s="12"/>
+      <c r="Q244" s="12"/>
+      <c r="R244" s="12"/>
+      <c r="S244" s="12"/>
+      <c r="T244" s="12"/>
+      <c r="U244" s="12"/>
+      <c r="V244" s="12"/>
+      <c r="W244" s="12"/>
+      <c r="X244" s="12"/>
+      <c r="Y244" s="12"/>
+    </row>
+    <row r="245" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A245" s="12">
+        <v>244</v>
+      </c>
+      <c r="B245" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C245" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D245" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E245" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F245" s="12">
+        <v>9</v>
+      </c>
+      <c r="G245" s="15">
+        <v>18939</v>
+      </c>
+      <c r="H245" s="15"/>
+      <c r="I245" s="16">
+        <v>80.854866270000002</v>
+      </c>
+      <c r="J245" s="12">
+        <v>0</v>
+      </c>
+      <c r="K245" s="16">
+        <v>80.404866269999999</v>
+      </c>
+      <c r="L245" s="16">
+        <v>81.304866270000005</v>
+      </c>
+      <c r="M245" s="17">
+        <v>0.22959183673469533</v>
+      </c>
+      <c r="N245" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="O245" s="12">
+        <v>100000</v>
+      </c>
+      <c r="P245" s="12"/>
+      <c r="Q245" s="12"/>
+      <c r="R245" s="12"/>
+      <c r="S245" s="12"/>
+      <c r="T245" s="12"/>
+      <c r="U245" s="12"/>
+      <c r="V245" s="12"/>
+      <c r="W245" s="12"/>
+      <c r="X245" s="12"/>
+      <c r="Y245" s="12"/>
+    </row>
+    <row r="246" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A246" s="12">
+        <v>245</v>
+      </c>
+      <c r="B246" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C246" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D246" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E246" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F246" s="12">
+        <v>10</v>
+      </c>
+      <c r="G246" s="15">
+        <v>19312</v>
+      </c>
+      <c r="H246" s="15"/>
+      <c r="I246" s="16">
+        <v>79.971125299999997</v>
+      </c>
+      <c r="J246" s="12">
+        <v>0</v>
+      </c>
+      <c r="K246" s="16">
+        <v>79.521125299999994</v>
+      </c>
+      <c r="L246" s="16">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="M246" s="17">
+        <v>0.35175375000000292</v>
+      </c>
+      <c r="N246" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="O246" s="12">
+        <v>100000</v>
+      </c>
+      <c r="P246" s="12"/>
+      <c r="Q246" s="12"/>
+      <c r="R246" s="12"/>
+      <c r="S246" s="12"/>
+      <c r="T246" s="12"/>
+      <c r="U246" s="12"/>
+      <c r="V246" s="12"/>
+      <c r="W246" s="12"/>
+      <c r="X246" s="12"/>
+      <c r="Y246" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
